--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fl\radiosol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2BD5C9-AB7B-4A99-8DE6-4DBCC31D26F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -166,17 +165,155 @@
   </si>
   <si>
     <t>Mahesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שירי בוקר ישראליים מוזיקה מכל הזמנים </t>
+  </si>
+  <si>
+    <t>עו"ד אדיר זאבי</t>
+  </si>
+  <si>
+    <t>פלייליסט שבועי של הרדיו כל השירים החמים של השבוע החולף</t>
+  </si>
+  <si>
+    <t>התכנית שמחברת בין אנשים  לעולם הזכיינות והעסקים</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png/v1/fill/w_150,h_153,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/logo%20radio%20sol%20</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_0bc51adbc64e41c6ad35b58bda7fd66e~mv2.jpg</t>
+  </si>
+  <si>
+    <t>הזכייניסטים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המסיבה </t>
+  </si>
+  <si>
+    <t>מוזיקה ברצף</t>
+  </si>
+  <si>
+    <t>מוזיקת רמיקסים ומסיבות ברחבי העולם</t>
+  </si>
+  <si>
+    <t>קצב מזרחי</t>
+  </si>
+  <si>
+    <t>מוזיקה ים תיכונית ומזרחית חדשה</t>
+  </si>
+  <si>
+    <t>חגיגה עם אמנים</t>
+  </si>
+  <si>
+    <t>רוני חזן</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_d55566af20d84721bc73b6c2bb859758~mv2.jpg</t>
+  </si>
+  <si>
+    <t>מכונת הגרוב</t>
+  </si>
+  <si>
+    <t>בקצב ההיפ הופ</t>
+  </si>
+  <si>
+    <t>נקודת השוויון 365</t>
+  </si>
+  <si>
+    <t>מי בסול</t>
+  </si>
+  <si>
+    <t>LINA-PAUSE</t>
+  </si>
+  <si>
+    <t>פדגוגיה/ נפגשים מחוץ לקופסא PLAY THE</t>
+  </si>
+  <si>
+    <t>אמנות ושמה תקשורת</t>
+  </si>
+  <si>
+    <t>מיש מש ישראלי</t>
+  </si>
+  <si>
+    <t>זה מה יש</t>
+  </si>
+  <si>
+    <t>K POP</t>
+  </si>
+  <si>
+    <t>האוס בסול</t>
+  </si>
+  <si>
+    <t>אפטר פרטי</t>
+  </si>
+  <si>
+    <t>עו"ד נורית בנדורי שם טוב</t>
+  </si>
+  <si>
+    <t>שוקי אברהם</t>
+  </si>
+  <si>
+    <t>לינה פאוז</t>
+  </si>
+  <si>
+    <t>ד"ר חיננית לויפר פלד</t>
+  </si>
+  <si>
+    <t>פזית גלר ויובל דור</t>
+  </si>
+  <si>
+    <t>מקס צרנוגלז</t>
+  </si>
+  <si>
+    <t>דוד שלחון</t>
+  </si>
+  <si>
+    <t>צירת שוויון בין מגדרים ומגזרים</t>
+  </si>
+  <si>
+    <t>במה לאמנים ישראליים וזמרים בתחילת דרכם</t>
+  </si>
+  <si>
+    <t>תכנית בריאות והגשמה לנשים באמצע החיים</t>
+  </si>
+  <si>
+    <t>במה ליוזמה חינוכית ערכית, משחוק ובמה להצלחה</t>
+  </si>
+  <si>
+    <t>מערכות יחסים וגידול ילדים</t>
+  </si>
+  <si>
+    <t>היסטוריה, תרבות, סרטים וסדרות, טיפים לתיירים</t>
+  </si>
+  <si>
+    <t>מוזיקת האוס ומגזין בילויים שבועי</t>
+  </si>
+  <si>
+    <t>הראל משה שוקי אברהם ויובל ענתבי</t>
+  </si>
+  <si>
+    <t>אקטואליה, חברה, מוניציפלי, ספורט ועוד</t>
+  </si>
+  <si>
+    <t>שירים ישראליים מכל הזמנים</t>
+  </si>
+  <si>
+    <t>מוזיקת ריקודים לשעות הלילה המאוחרות</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -184,7 +321,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -198,28 +335,28 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -227,42 +364,42 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2A2A2A"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -271,10 +408,31 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -321,9 +479,6 @@
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,11 +488,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,21 +778,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="42.375" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -654,1568 +823,1986 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="19">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="20">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C12" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D12" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="19" t="s">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="19">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C27" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C28" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19">
+        <v>4</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="19">
+        <v>4</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="19">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="19">
+        <v>4</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D32" s="20">
         <v>0.625</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E32" s="19"/>
+      <c r="F32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="19">
+        <v>4</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="D33" s="20">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B34" s="19">
         <v>4</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C34" s="20">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D34" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B35" s="19">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C35" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D35" s="20">
         <v>0.75</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B36" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C36" s="20">
         <v>0.75</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D36" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B37" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C37" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D37" s="20">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G37" t="s">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B38" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C38" s="20">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D38" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B39" s="19">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C39" s="20">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D39" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B40" s="19">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C40" s="20">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D40" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="3"/>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="1"/>
+    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E106" s="5"/>
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="17"/>
-    </row>
-    <row r="109" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="16"/>
-    </row>
-    <row r="113" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="16"/>
-    </row>
-    <row r="114" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A119" s="8"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="8"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E127" s="1"/>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="18"/>
-    </row>
-    <row r="132" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F131" s="15"/>
+    </row>
+    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="18"/>
-    </row>
-    <row r="133" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F132" s="15"/>
+    </row>
+    <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="18"/>
-    </row>
-    <row r="134" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A135" s="3"/>
+    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A136" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="16"/>
-    </row>
-    <row r="138" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A138" s="1"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A139" s="1"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A141" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="17"/>
-    </row>
-    <row r="142" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A142" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A143" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A144" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A145" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A146" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A147" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A148" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A149" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A151" s="7"/>
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A152" s="7"/>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A154" s="1"/>
+    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A155" s="1"/>
+    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F156" s="15"/>
+    </row>
+    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A160" s="1"/>
+    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A161" s="1"/>
+      <c r="F160" s="16"/>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A162" s="1"/>
+    </row>
+    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-    </row>
-    <row r="163" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A163" s="1"/>
+    </row>
+    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A164" s="1"/>
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A165" s="1"/>
+    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A166" s="1"/>
+    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A167" s="1"/>
+    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="17"/>
-    </row>
-    <row r="168" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="9"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="13"/>
+    </row>
+    <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+    </row>
+    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="16"/>
+    </row>
+    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{560C7383-4A92-49D0-9A00-FEC95DDDDF02}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{57A553F3-A9BD-4CB8-8FA5-EB37F972E8B3}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{D5381B7C-D49E-4FBD-89F7-FF4BDDAFE6A4}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{E721E241-4B0B-4654-8894-9C10309920D6}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{8CDF8059-FA31-48B3-80EA-0C22026C4F9F}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{AA27A530-1000-4D57-A0DC-052DD0F2B720}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{F2FFA98D-ACA8-41CB-B930-521D924C559B}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{A79E00AC-B141-4CE5-83CF-B403FE94829E}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{8C39F3C7-DA7F-4F5E-ACF4-1AD507879592}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{EF445B21-268C-4442-8FF7-FE69D9221886}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{923D4020-BBBE-4941-A7A5-BEF65E8493F4}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{4CE4CFDA-A785-498E-8B5A-EC1AE408F0BD}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{4ED68805-A62E-41E0-89F1-DFBFE6FD180F}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G27" r:id="rId4"/>
+    <hyperlink ref="G28" r:id="rId5"/>
+    <hyperlink ref="G29" r:id="rId6"/>
+    <hyperlink ref="G32" r:id="rId7"/>
+    <hyperlink ref="G35" r:id="rId8"/>
+    <hyperlink ref="G36" r:id="rId9"/>
+    <hyperlink ref="G38" r:id="rId10"/>
+    <hyperlink ref="G39" r:id="rId11"/>
+    <hyperlink ref="G40" r:id="rId12"/>
+    <hyperlink ref="G3" r:id="rId13"/>
+    <hyperlink ref="G4" r:id="rId14"/>
+    <hyperlink ref="H2" r:id="rId15"/>
+    <hyperlink ref="G6" r:id="rId16"/>
+    <hyperlink ref="G7" r:id="rId17"/>
+    <hyperlink ref="G8" r:id="rId18"/>
+    <hyperlink ref="G10" r:id="rId19"/>
+    <hyperlink ref="G11" r:id="rId20"/>
+    <hyperlink ref="G9" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1C40B-33D9-43F7-BBA0-C3F39616A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="207">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -673,7 +674,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1110,11 +1111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1589,7 +1590,9 @@
       <c r="F19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="14" t="s">
@@ -1679,7 +1682,9 @@
       <c r="F23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="14" t="s">
@@ -1700,7 +1705,9 @@
       <c r="F24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
       <c r="A25" s="11" t="s">
@@ -1819,6 +1826,9 @@
       <c r="F29" s="11" t="s">
         <v>129</v>
       </c>
+      <c r="G29" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
@@ -1862,6 +1872,9 @@
       <c r="F31" s="16" t="s">
         <v>116</v>
       </c>
+      <c r="G31" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
@@ -1905,6 +1918,9 @@
       <c r="F33" s="16" t="s">
         <v>76</v>
       </c>
+      <c r="G33" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
@@ -1925,6 +1941,9 @@
       <c r="F34" s="16" t="s">
         <v>121</v>
       </c>
+      <c r="G34" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
@@ -1945,6 +1964,9 @@
       <c r="F35" s="16" t="s">
         <v>92</v>
       </c>
+      <c r="G35" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
       <c r="A36" s="14" t="s">
@@ -2014,7 +2036,9 @@
       <c r="F38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
@@ -2058,7 +2082,9 @@
       <c r="F40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
@@ -2079,7 +2105,9 @@
       <c r="F41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
@@ -2169,7 +2197,9 @@
       <c r="F45" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
@@ -2190,7 +2220,9 @@
       <c r="F46" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
@@ -2211,7 +2243,9 @@
       <c r="F47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
       <c r="A48" s="14" t="s">
@@ -2544,7 +2578,9 @@
       <c r="F60" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
@@ -2680,7 +2716,9 @@
       <c r="F66" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
@@ -2701,7 +2739,9 @@
       <c r="F67" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
@@ -2745,7 +2785,9 @@
       <c r="F69" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
       <c r="A70" s="11" t="s">
@@ -2792,6 +2834,9 @@
       <c r="F71" s="17" t="s">
         <v>186</v>
       </c>
+      <c r="G71" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
@@ -2835,6 +2880,9 @@
       <c r="F73" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="G73" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
@@ -2855,6 +2903,9 @@
       <c r="F74" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="G74" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
@@ -2898,6 +2949,9 @@
       <c r="F76" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="G76" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
@@ -2918,6 +2972,9 @@
       <c r="F77" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G77" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
@@ -2961,6 +3018,9 @@
       <c r="F79" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="G79" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
@@ -2980,6 +3040,9 @@
       </c>
       <c r="F80" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3859,64 +3922,89 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G36" r:id="rId4"/>
-    <hyperlink ref="G48" r:id="rId5"/>
-    <hyperlink ref="G49" r:id="rId6"/>
-    <hyperlink ref="G52" r:id="rId7"/>
-    <hyperlink ref="G55" r:id="rId8"/>
-    <hyperlink ref="G56" r:id="rId9"/>
-    <hyperlink ref="G58" r:id="rId10"/>
-    <hyperlink ref="G59" r:id="rId11"/>
-    <hyperlink ref="G70" r:id="rId12"/>
-    <hyperlink ref="G3" r:id="rId13"/>
-    <hyperlink ref="G4" r:id="rId14"/>
-    <hyperlink ref="H2" r:id="rId15"/>
-    <hyperlink ref="G6" r:id="rId16"/>
-    <hyperlink ref="G7" r:id="rId17"/>
-    <hyperlink ref="G8" r:id="rId18"/>
-    <hyperlink ref="G10" r:id="rId19"/>
-    <hyperlink ref="G11" r:id="rId20"/>
-    <hyperlink ref="G9" r:id="rId21"/>
-    <hyperlink ref="G14" r:id="rId22"/>
-    <hyperlink ref="G15" r:id="rId23"/>
-    <hyperlink ref="G17" r:id="rId24"/>
-    <hyperlink ref="G18" r:id="rId25"/>
-    <hyperlink ref="G20" r:id="rId26"/>
-    <hyperlink ref="G21" r:id="rId27"/>
-    <hyperlink ref="G22" r:id="rId28"/>
-    <hyperlink ref="H4" r:id="rId29"/>
-    <hyperlink ref="H9" r:id="rId30"/>
-    <hyperlink ref="H14" r:id="rId31"/>
-    <hyperlink ref="H15" r:id="rId32"/>
-    <hyperlink ref="H16" r:id="rId33"/>
-    <hyperlink ref="G16" r:id="rId34"/>
-    <hyperlink ref="G25" r:id="rId35"/>
-    <hyperlink ref="G37" r:id="rId36"/>
-    <hyperlink ref="G30" r:id="rId37"/>
-    <hyperlink ref="G27" r:id="rId38"/>
-    <hyperlink ref="G28" r:id="rId39"/>
-    <hyperlink ref="G32" r:id="rId40"/>
-    <hyperlink ref="G39" r:id="rId41"/>
-    <hyperlink ref="G42" r:id="rId42"/>
-    <hyperlink ref="G43" r:id="rId43"/>
-    <hyperlink ref="G44" r:id="rId44"/>
-    <hyperlink ref="G51" r:id="rId45"/>
-    <hyperlink ref="G53" r:id="rId46"/>
-    <hyperlink ref="G57" r:id="rId47"/>
-    <hyperlink ref="G61" r:id="rId48"/>
-    <hyperlink ref="G62" r:id="rId49"/>
-    <hyperlink ref="G63" r:id="rId50"/>
-    <hyperlink ref="G64" r:id="rId51"/>
-    <hyperlink ref="G65" r:id="rId52"/>
-    <hyperlink ref="G68" r:id="rId53"/>
-    <hyperlink ref="G72" r:id="rId54"/>
-    <hyperlink ref="G75" r:id="rId55"/>
-    <hyperlink ref="G78" r:id="rId56"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G52" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G56" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G70" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H14" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G25" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G27" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G28" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G39" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G19" r:id="rId57" xr:uid="{95C6CDF0-397C-4A36-956C-ACC5895429C3}"/>
+    <hyperlink ref="G23" r:id="rId58" xr:uid="{07E4CE26-783F-4F66-A186-37FEC27BA955}"/>
+    <hyperlink ref="G24" r:id="rId59" xr:uid="{1732BCB0-158E-414F-B291-FFD27B315073}"/>
+    <hyperlink ref="G29" r:id="rId60" xr:uid="{31CC782B-DE2A-42E2-87A2-9A365B373135}"/>
+    <hyperlink ref="G31" r:id="rId61" xr:uid="{EF7FE3F9-5E85-49EC-A607-0075EAF76682}"/>
+    <hyperlink ref="G33" r:id="rId62" xr:uid="{C40DEA76-CED3-486D-BA39-82237A12EE23}"/>
+    <hyperlink ref="G34" r:id="rId63" xr:uid="{A097B1B7-E416-4693-9E05-997281BE3A92}"/>
+    <hyperlink ref="G35" r:id="rId64" xr:uid="{FCEC7F01-529E-4CDA-995E-76755D6D186D}"/>
+    <hyperlink ref="G38" r:id="rId65" xr:uid="{D79FCC63-47B2-4AAC-B715-E82EE7834B49}"/>
+    <hyperlink ref="G40" r:id="rId66" xr:uid="{09A535F1-2E68-4B46-B0AE-CB0311EAA3BC}"/>
+    <hyperlink ref="G41" r:id="rId67" xr:uid="{0ACBBA7E-446B-4903-9AB2-9461844CCC59}"/>
+    <hyperlink ref="G45" r:id="rId68" xr:uid="{CB264173-BDBD-4A9E-A2AD-BCCC4ED57611}"/>
+    <hyperlink ref="G46" r:id="rId69" xr:uid="{17E99B7B-34B5-483F-8ED4-03182DECA347}"/>
+    <hyperlink ref="G47" r:id="rId70" xr:uid="{9BAF20A8-1C32-49FD-84BA-63E02A77D797}"/>
+    <hyperlink ref="G67" r:id="rId71" xr:uid="{D9173507-E4C0-4347-B44F-34386E88CFD1}"/>
+    <hyperlink ref="G66" r:id="rId72" xr:uid="{997C8E2F-D25D-429E-9729-4F00C52873E2}"/>
+    <hyperlink ref="G69" r:id="rId73" xr:uid="{371680BC-94C4-4B81-9EC9-67FEE4754604}"/>
+    <hyperlink ref="G71" r:id="rId74" xr:uid="{D08EF77D-B4A3-4320-8307-C9E967ACCA81}"/>
+    <hyperlink ref="G73" r:id="rId75" xr:uid="{66F88722-13BB-4A28-8A61-51AF8FAD4EA4}"/>
+    <hyperlink ref="G74" r:id="rId76" xr:uid="{82EA662D-A77A-4222-81C6-353E981AE6C3}"/>
+    <hyperlink ref="G76" r:id="rId77" xr:uid="{5A3BE8DE-7B49-463C-8F73-1CD1C3C89A8F}"/>
+    <hyperlink ref="G77" r:id="rId78" xr:uid="{871B6E30-756A-47B7-950A-E18B85680807}"/>
+    <hyperlink ref="G79" r:id="rId79" xr:uid="{F4DC9094-4879-4FB5-A0E3-F4B18E86FB98}"/>
+    <hyperlink ref="G80" r:id="rId80" xr:uid="{64F68EF9-413D-4DB3-B680-3DFB4893FB64}"/>
+    <hyperlink ref="G60" r:id="rId81" xr:uid="{71BD2764-8308-4AD8-9394-EA4E3D623A55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE1C40B-33D9-43F7-BBA0-C3F39616A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CD1F8F-CA84-4C71-8160-458DD39B8C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -99,9 +99,6 @@
     <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png/v1/fill/w_162,h_171,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/logo%20radio%20sol%20-%20color%201.png</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_6ed5d785ce2d47eea639a8bd2363ba0d~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%A8%D7%95%D7%A0%D7%99%D7%AA.jpg</t>
-  </si>
-  <si>
     <t>מוסיקה ישראלית חדשה</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>https://static.wixstatic.com/media/c39cce_968bceb2955940d3aa7c784d3e9a002e~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%92%D7%9C%D7%99%D7%A7%D7%95%D7%93%D7%95%D7%93%D7%99.jpg</t>
   </si>
   <si>
-    <t>להיטים לועזיים של אומנים ישראליים</t>
-  </si>
-  <si>
     <t xml:space="preserve">  סצנת הראפ והיפ הופ ואירוח אמנים בז'אנר</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
   </si>
   <si>
     <t>show_link</t>
-  </si>
-  <si>
-    <t>https://google.com/</t>
   </si>
   <si>
     <t>טרנזיסטור</t>
@@ -429,9 +420,6 @@
     <t>https://static.wixstatic.com/media/c39cce_b91ada7209cb452396d1815a779311be~mv2.jpg</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_6ed5d785ce2d47eea639a8bd2363ba0d~mv2.jpg</t>
-  </si>
-  <si>
     <t>https://static.wixstatic.com/media/c39cce_562485534f094a74a9c1c7fe186e4a6d~mv2.png</t>
   </si>
   <si>
@@ -669,6 +657,84 @@
   </si>
   <si>
     <t xml:space="preserve"> מוזיקת ג'אז מכל הזמנים</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png</t>
+  </si>
+  <si>
+    <t>מבט על</t>
+  </si>
+  <si>
+    <t>מבט על הינה תוכנית להיכרות עם עסקים ובעלי עסקים</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/alonmrkus</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/shmolikmoshkovich</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/yosiisrael</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/danielcochavi</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/amostzuriel</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/shacharaloni</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/sidebrap</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/galiko</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/arimirel</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/bensheft</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/dudubenita</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/harelmoshe</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/racheliskapa</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/veredmutzafi</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/neomihayke</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/holyshwartz</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/ronitgluska</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/davidshalchon</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/maxchernuglaz</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/drpeled</t>
+  </si>
+  <si>
+    <t>https://xtml2.streamgates.net/radiant/MultixPlayer.php?Stream=https://cdna.streamgates.net/RadioSol/LiveVideo/playlist.m3u8&amp;Ap=false</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/gidilivyatan</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1153,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75">
@@ -1170,16 +1236,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -1196,18 +1262,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1219,21 +1288,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1245,18 +1314,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1268,18 +1340,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1291,13 +1366,16 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75">
@@ -1314,18 +1392,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1337,21 +1418,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1363,18 +1444,21 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -1386,13 +1470,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
@@ -1409,16 +1496,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
+      <c r="H12" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
@@ -1435,21 +1522,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
-        <v>40</v>
+      <c r="H13" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1461,21 +1548,21 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1487,21 +1574,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1513,21 +1600,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1539,18 +1626,21 @@
         <v>0.625</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1562,18 +1652,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1585,18 +1675,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1608,18 +1699,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1631,18 +1722,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1654,18 +1748,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1677,18 +1774,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -1700,13 +1798,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
@@ -1723,16 +1822,16 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>40</v>
+      <c r="H25" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
@@ -1749,16 +1848,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
+      <c r="G26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
@@ -1775,18 +1874,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>127</v>
+        <v>203</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1798,18 +1900,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1821,18 +1926,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>20</v>
+        <v>125</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -1844,18 +1949,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -1867,18 +1975,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -1890,18 +1998,21 @@
         <v>0.875</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -1913,18 +2024,18 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -1936,18 +2047,18 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
@@ -1959,13 +2070,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
@@ -1982,21 +2093,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H36" t="s">
-        <v>40</v>
+      <c r="H36" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
@@ -2008,13 +2119,16 @@
         <v>0.5</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75">
@@ -2031,18 +2145,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>20</v>
+        <v>127</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
@@ -2054,18 +2169,18 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
@@ -2077,18 +2192,19 @@
         <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2100,18 +2216,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>20</v>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
@@ -2123,18 +2240,21 @@
         <v>0.75</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>142</v>
+      <c r="H42" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="37.5">
       <c r="A43" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -2146,18 +2266,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75">
       <c r="A44" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
@@ -2169,18 +2292,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
@@ -2192,18 +2318,19 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>20</v>
+        <v>145</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
@@ -2215,18 +2342,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>20</v>
+        <v>147</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
@@ -2238,13 +2366,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
@@ -2261,16 +2390,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H48" t="s">
-        <v>40</v>
+      <c r="H48" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
@@ -2287,16 +2416,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H49" t="s">
-        <v>40</v>
+      <c r="H49" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
@@ -2313,16 +2442,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
         <v>26</v>
       </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s">
-        <v>40</v>
+      <c r="H50" s="10" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
@@ -2339,17 +2468,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" t="s">
-        <v>40</v>
-      </c>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="11" t="s">
@@ -2365,16 +2492,16 @@
         <v>0.625</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H52" t="s">
-        <v>40</v>
+      <c r="H52" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
@@ -2391,16 +2518,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" t="s">
-        <v>40</v>
+      <c r="H53" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
@@ -2417,21 +2544,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
         <v>32</v>
       </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s">
-        <v>40</v>
+      <c r="H54" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="11" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
@@ -2443,16 +2570,16 @@
         <v>0.75</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
-        <v>40</v>
+        <v>206</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
@@ -2469,7 +2596,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>10</v>
@@ -2477,8 +2604,8 @@
       <c r="G56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H56" t="s">
-        <v>40</v>
+      <c r="H56" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
@@ -2495,16 +2622,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
@@ -2521,21 +2648,21 @@
         <v>1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H58" t="s">
-        <v>40</v>
+      <c r="H58" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
@@ -2547,21 +2674,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H59" t="s">
-        <v>40</v>
+      <c r="H59" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B60" s="11">
         <v>5</v>
@@ -2573,18 +2700,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>20</v>
+        <v>155</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
@@ -2596,18 +2724,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E61" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>168</v>
+      <c r="H61" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2619,18 +2750,21 @@
         <v>0.5</v>
       </c>
       <c r="E62" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>169</v>
+      <c r="H62" s="10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2642,18 +2776,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E63" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>170</v>
+      <c r="H63" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2665,18 +2802,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2688,18 +2828,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2711,18 +2854,19 @@
         <v>0.75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2734,18 +2878,19 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>20</v>
+        <v>177</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
@@ -2757,18 +2902,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -2780,18 +2928,19 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -2803,21 +2952,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H70" t="s">
-        <v>40</v>
+      <c r="H70" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -2829,18 +2978,18 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -2852,18 +3001,21 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="36">
       <c r="A73" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -2875,18 +3027,18 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>20</v>
+        <v>187</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -2898,18 +3050,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>20</v>
+        <v>189</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -2921,18 +3073,18 @@
         <v>0.75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -2944,18 +3096,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>20</v>
+        <v>195</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -2967,18 +3119,18 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -2990,18 +3142,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3013,18 +3168,18 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>20</v>
+        <v>202</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3036,13 +3191,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3929,82 +4084,126 @@
     <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G52" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G56" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G70" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H2" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H14" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G16" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G25" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G27" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G28" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G39" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G19" r:id="rId57" xr:uid="{95C6CDF0-397C-4A36-956C-ACC5895429C3}"/>
-    <hyperlink ref="G23" r:id="rId58" xr:uid="{07E4CE26-783F-4F66-A186-37FEC27BA955}"/>
-    <hyperlink ref="G24" r:id="rId59" xr:uid="{1732BCB0-158E-414F-B291-FFD27B315073}"/>
-    <hyperlink ref="G29" r:id="rId60" xr:uid="{31CC782B-DE2A-42E2-87A2-9A365B373135}"/>
-    <hyperlink ref="G31" r:id="rId61" xr:uid="{EF7FE3F9-5E85-49EC-A607-0075EAF76682}"/>
-    <hyperlink ref="G33" r:id="rId62" xr:uid="{C40DEA76-CED3-486D-BA39-82237A12EE23}"/>
-    <hyperlink ref="G34" r:id="rId63" xr:uid="{A097B1B7-E416-4693-9E05-997281BE3A92}"/>
-    <hyperlink ref="G35" r:id="rId64" xr:uid="{FCEC7F01-529E-4CDA-995E-76755D6D186D}"/>
-    <hyperlink ref="G38" r:id="rId65" xr:uid="{D79FCC63-47B2-4AAC-B715-E82EE7834B49}"/>
-    <hyperlink ref="G40" r:id="rId66" xr:uid="{09A535F1-2E68-4B46-B0AE-CB0311EAA3BC}"/>
-    <hyperlink ref="G41" r:id="rId67" xr:uid="{0ACBBA7E-446B-4903-9AB2-9461844CCC59}"/>
-    <hyperlink ref="G45" r:id="rId68" xr:uid="{CB264173-BDBD-4A9E-A2AD-BCCC4ED57611}"/>
-    <hyperlink ref="G46" r:id="rId69" xr:uid="{17E99B7B-34B5-483F-8ED4-03182DECA347}"/>
-    <hyperlink ref="G47" r:id="rId70" xr:uid="{9BAF20A8-1C32-49FD-84BA-63E02A77D797}"/>
-    <hyperlink ref="G67" r:id="rId71" xr:uid="{D9173507-E4C0-4347-B44F-34386E88CFD1}"/>
-    <hyperlink ref="G66" r:id="rId72" xr:uid="{997C8E2F-D25D-429E-9729-4F00C52873E2}"/>
-    <hyperlink ref="G69" r:id="rId73" xr:uid="{371680BC-94C4-4B81-9EC9-67FEE4754604}"/>
-    <hyperlink ref="G71" r:id="rId74" xr:uid="{D08EF77D-B4A3-4320-8307-C9E967ACCA81}"/>
-    <hyperlink ref="G73" r:id="rId75" xr:uid="{66F88722-13BB-4A28-8A61-51AF8FAD4EA4}"/>
-    <hyperlink ref="G74" r:id="rId76" xr:uid="{82EA662D-A77A-4222-81C6-353E981AE6C3}"/>
-    <hyperlink ref="G76" r:id="rId77" xr:uid="{5A3BE8DE-7B49-463C-8F73-1CD1C3C89A8F}"/>
-    <hyperlink ref="G77" r:id="rId78" xr:uid="{871B6E30-756A-47B7-950A-E18B85680807}"/>
-    <hyperlink ref="G79" r:id="rId79" xr:uid="{F4DC9094-4879-4FB5-A0E3-F4B18E86FB98}"/>
-    <hyperlink ref="G80" r:id="rId80" xr:uid="{64F68EF9-413D-4DB3-B680-3DFB4893FB64}"/>
-    <hyperlink ref="G60" r:id="rId81" xr:uid="{71BD2764-8308-4AD8-9394-EA4E3D623A55}"/>
+    <hyperlink ref="G56" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G58" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G70" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H61" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H57" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H54" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H53" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H42" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H44" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H43" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H30" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H28" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H3" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H8" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H11" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H23" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H24" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H25" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H27" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H29" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H31" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H33" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H35" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H36" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H38" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H40" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H41" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H45" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H46" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H47" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H48" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H49" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H52" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H59" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H60" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H80" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H79" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H77" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H76" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H74" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H73" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H71" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="H70" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H69" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H67" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="H66" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H50" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G26" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CD1F8F-CA84-4C71-8160-458DD39B8C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BE83CB-E912-4CB1-905C-7C6E7FBB58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="229">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1680,7 +1680,9 @@
       <c r="F19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>227</v>
       </c>
@@ -1779,7 +1781,9 @@
       <c r="F23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" s="10" t="s">
         <v>227</v>
       </c>
@@ -1803,7 +1807,9 @@
       <c r="F24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H24" s="10" t="s">
         <v>227</v>
       </c>
@@ -1931,6 +1937,9 @@
       <c r="F29" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="G29" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H29" s="10" t="s">
         <v>227</v>
       </c>
@@ -1980,6 +1989,9 @@
       <c r="F31" s="16" t="s">
         <v>113</v>
       </c>
+      <c r="G31" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="10" t="s">
         <v>227</v>
       </c>
@@ -2029,6 +2041,9 @@
       <c r="F33" s="16" t="s">
         <v>73</v>
       </c>
+      <c r="G33" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H33" s="10" t="s">
         <v>227</v>
       </c>
@@ -2052,6 +2067,9 @@
       <c r="F34" s="16" t="s">
         <v>118</v>
       </c>
+      <c r="G34" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H34" s="10" t="s">
         <v>227</v>
       </c>
@@ -2075,6 +2093,9 @@
       <c r="F35" s="16" t="s">
         <v>89</v>
       </c>
+      <c r="G35" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H35" s="10" t="s">
         <v>227</v>
       </c>
@@ -2150,7 +2171,9 @@
       <c r="F38" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H38" s="10" t="s">
         <v>227</v>
       </c>
@@ -2197,7 +2220,9 @@
       <c r="F40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H40" s="10" t="s">
         <v>227</v>
       </c>
@@ -2221,7 +2246,9 @@
       <c r="F41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H41" s="10" t="s">
         <v>227</v>
       </c>
@@ -2705,7 +2732,9 @@
       <c r="F60" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H60" s="10" t="s">
         <v>227</v>
       </c>
@@ -2859,7 +2888,9 @@
       <c r="F66" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H66" s="10" t="s">
         <v>227</v>
       </c>
@@ -2883,7 +2914,9 @@
       <c r="F67" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H67" s="10" t="s">
         <v>227</v>
       </c>
@@ -2933,7 +2966,9 @@
       <c r="F69" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H69" s="10" t="s">
         <v>227</v>
       </c>
@@ -2983,6 +3018,9 @@
       <c r="F71" s="17" t="s">
         <v>182</v>
       </c>
+      <c r="G71" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H71" s="10" t="s">
         <v>227</v>
       </c>
@@ -3032,6 +3070,9 @@
       <c r="F73" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="G73" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H73" s="10" t="s">
         <v>227</v>
       </c>
@@ -3055,6 +3096,9 @@
       <c r="F74" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="G74" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H74" s="10" t="s">
         <v>227</v>
       </c>
@@ -3101,6 +3145,9 @@
       <c r="F76" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="G76" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H76" s="10" t="s">
         <v>227</v>
       </c>
@@ -3124,6 +3171,9 @@
       <c r="F77" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G77" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H77" s="10" t="s">
         <v>227</v>
       </c>
@@ -3173,6 +3223,9 @@
       <c r="F79" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="G79" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H79" s="10" t="s">
         <v>227</v>
       </c>
@@ -3195,6 +3248,9 @@
       </c>
       <c r="F80" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>227</v>
@@ -4202,8 +4258,30 @@
     <hyperlink ref="H66" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="H50" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="G26" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G24" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G19" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G23" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G31" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G33" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G34" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G35" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G38" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G40" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G41" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G29" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G60" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G67" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G69" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G71" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G73" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G74" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G76" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G77" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G79" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G80" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BE83CB-E912-4CB1-905C-7C6E7FBB58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82216DB6-61AB-4720-B9C5-373C974A631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>https://www.radiosol.co.il/gidilivyatan</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_6ed5d785ce2d47eea639a8bd2363ba0d~mv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1860,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>223</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\OneDrive\שולחן העבודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82216DB6-61AB-4720-B9C5-373C974A631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="232">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -144,9 +143,6 @@
     <t>טרנזיסטור</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%90%D7%93%D7%99%D7%A8-%D7%96%D7%90%D7%91%D7%99</t>
-  </si>
-  <si>
     <t xml:space="preserve">שירי בוקר ישראליים מוזיקה מכל הזמנים </t>
   </si>
   <si>
@@ -322,18 +318,6 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_bac135a9e97f4a10aa2292c1b79bc8b4~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A8%D7%95%D7%A0%D7%99-%D7%97%D7%96%D7%9F</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A0%D7%95%D7%A8%D7%99%D7%AA-%D7%A9%D7%9D-%D7%98%D7%95%D7%91</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A9%D7%95%D7%A7%D7%99-%D7%90%D7%91%D7%A8%D7%94%D7%9D</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%A1%D7%99-%D7%99%D7%A9%D7%A8%D7%90%D7%9C-%D7%9E%D7%95%D7%92-%D7%91%D7%A8</t>
   </si>
   <si>
     <t>https://static.wixstatic.com/media/099e17_6f4acefacf404b1fbc083396c2884c2b~mv2.jpeg</t>
@@ -671,79 +655,100 @@
     <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/alonmrkus</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/shmolikmoshkovich</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/yosiisrael</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/danielcochavi</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/amostzuriel</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/shacharaloni</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/sidebrap</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/galiko</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/arimirel</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/bensheft</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/dudubenita</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/harelmoshe</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/racheliskapa</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/veredmutzafi</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/neomihayke</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/holyshwartz</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/ronitgluska</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/davidshalchon</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/maxchernuglaz</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/drpeled</t>
-  </si>
-  <si>
     <t>https://xtml2.streamgates.net/radiant/MultixPlayer.php?Stream=https://cdna.streamgates.net/RadioSol/LiveVideo/playlist.m3u8&amp;Ap=false</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/gidilivyatan</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_6ed5d785ce2d47eea639a8bd2363ba0d~mv2.jpg</t>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/davidshalchon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/kolole  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/danielcochavi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiosol.co.il/podcast-30 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1180,11 +1185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F70" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1239,16 +1244,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -1265,21 +1270,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1291,21 +1296,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1317,21 +1322,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1343,21 +1348,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1369,16 +1374,16 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75">
@@ -1395,21 +1400,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1421,21 +1426,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1447,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
@@ -1473,16 +1478,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
@@ -1499,16 +1504,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
@@ -1525,21 +1530,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1551,21 +1556,21 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1577,21 +1582,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1603,21 +1608,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1629,21 +1634,21 @@
         <v>0.625</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1655,18 +1660,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1678,21 +1686,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1704,18 +1712,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1727,21 +1738,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1753,21 +1764,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1779,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
@@ -1805,16 +1816,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
@@ -1831,16 +1842,16 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
@@ -1857,16 +1868,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
@@ -1880,284 +1891,284 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
       <c r="C28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
       <c r="C29" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D29" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D29" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
       <c r="C30" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D31" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D31" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D32" s="12">
-        <v>0.875</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
       </c>
       <c r="C33" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D33" s="12">
         <v>0.875</v>
       </c>
-      <c r="D33" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="D34" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
       </c>
       <c r="C35" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D35" s="12">
         <v>0</v>
       </c>
-      <c r="D35" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="14" t="s">
-        <v>8</v>
+      <c r="A36" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="12">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A37" s="19" t="s">
-        <v>119</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18.75">
+      <c r="A37" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D37" s="12">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75">
-      <c r="A38" s="14" t="s">
-        <v>7</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2166,1338 +2177,1366 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D38" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D39" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D39" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E39" s="11" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>131</v>
+        <v>23</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="14" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D40" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E40" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.625</v>
       </c>
-      <c r="D41" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D42" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D42" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="37.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.75</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.75">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="37.5">
       <c r="A44" s="14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D44" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="14" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D45" s="12">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="H45" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D47" s="12">
         <v>0</v>
       </c>
-      <c r="D47" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
       <c r="A48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75">
+      <c r="A49" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B48" s="11">
-        <v>4</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.75">
-      <c r="A49" s="11" t="s">
-        <v>7</v>
       </c>
       <c r="B49" s="11">
         <v>4</v>
       </c>
       <c r="C49" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D49" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D50" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D50" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D51" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D52" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
       <c r="A53" s="11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D53" s="12">
         <v>0.625</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D54" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="11" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D55" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>206</v>
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
       <c r="A56" s="11" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D56" s="12">
         <v>0.75</v>
       </c>
-      <c r="D56" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D57" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D58" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D58" s="12">
-        <v>1</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D59" s="12">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="11" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="B60" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D60" s="12">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
       </c>
       <c r="C61" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D61" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
       </c>
       <c r="C62" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D62" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D62" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.5</v>
       </c>
-      <c r="D63" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D65" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>168</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D66" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D66" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D67" s="12">
         <v>0.75</v>
       </c>
-      <c r="D67" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D68" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D68" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>179</v>
+        <v>47</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D69" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D69" s="12">
-        <v>0</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>49</v>
+        <v>163</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75">
       <c r="A70" s="11" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D70" s="12">
         <v>0</v>
       </c>
-      <c r="D70" s="12">
+      <c r="E70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="11">
+        <v>5</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" s="10" t="s">
+      <c r="E71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="H71" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
       </c>
       <c r="C72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D72" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>185</v>
+        <v>47</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="36">
-      <c r="A73" s="21" t="s">
-        <v>186</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.5</v>
       </c>
-      <c r="D73" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="36">
+      <c r="A74" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.75</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>193</v>
+        <v>23</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.75</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="D80" s="2">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:8">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="17"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="17"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:8">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="17"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:5">
+      <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:5">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:5">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="17"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1"/>
@@ -3600,13 +3639,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="1"/>
@@ -3618,14 +3657,14 @@
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="17"/>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="17"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="1"/>
@@ -3644,7 +3683,6 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1"/>
@@ -3658,6 +3696,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
+      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="1"/>
@@ -3748,13 +3787,13 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="17"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="1"/>
@@ -3773,7 +3812,6 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6">
       <c r="B162" s="1"/>
@@ -3787,6 +3825,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
+      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6">
       <c r="B164" s="1"/>
@@ -3798,7 +3837,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" s="1"/>
@@ -3813,7 +3852,6 @@
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="7"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3827,6 +3865,7 @@
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:6">
+      <c r="A170" s="7"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3890,7 +3929,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="1"/>
@@ -3911,7 +3950,6 @@
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3925,17 +3963,18 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:6">
+      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="17"/>
     </row>
     <row r="187" spans="1:6">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
+      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" s="1"/>
@@ -3950,12 +3989,10 @@
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="17"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="3"/>
@@ -3963,6 +4000,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
+      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="3"/>
@@ -4014,13 +4052,13 @@
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5">
+      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4034,6 +4072,7 @@
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5">
+      <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4086,21 +4125,21 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="17"/>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
+      <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" s="1"/>
@@ -4125,166 +4164,179 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="17"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="8"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="1"/>
+      <c r="F217" s="17"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="3"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G52" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G56" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G58" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G70" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G75" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H78" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H65" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H61" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H57" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H54" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H53" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H42" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H44" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H43" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H30" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H28" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H3" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H8" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H11" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H23" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H24" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H25" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H27" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H29" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H31" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H33" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H34" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H35" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H36" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H38" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H40" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H41" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H45" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H46" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H47" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H48" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H49" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H52" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H59" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H60" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H80" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H79" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H77" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H76" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H74" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H73" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H71" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="H70" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="H69" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H67" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="H66" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H50" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G26" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G24" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G19" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G23" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G31" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="G33" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G34" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G35" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G38" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G40" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G41" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G29" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G60" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G67" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G69" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G71" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G73" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="G74" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G76" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="G77" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="G79" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G80" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G37" r:id="rId4"/>
+    <hyperlink ref="G49" r:id="rId5"/>
+    <hyperlink ref="G50" r:id="rId6"/>
+    <hyperlink ref="G53" r:id="rId7"/>
+    <hyperlink ref="G57" r:id="rId8"/>
+    <hyperlink ref="G59" r:id="rId9"/>
+    <hyperlink ref="G60" r:id="rId10"/>
+    <hyperlink ref="G71" r:id="rId11"/>
+    <hyperlink ref="G3" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="H2" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G8" r:id="rId17"/>
+    <hyperlink ref="G10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="G9" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G15" r:id="rId22"/>
+    <hyperlink ref="G17" r:id="rId23"/>
+    <hyperlink ref="G18" r:id="rId24"/>
+    <hyperlink ref="G20" r:id="rId25"/>
+    <hyperlink ref="G21" r:id="rId26"/>
+    <hyperlink ref="G22" r:id="rId27"/>
+    <hyperlink ref="H4" r:id="rId28"/>
+    <hyperlink ref="H9" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="H16" r:id="rId32"/>
+    <hyperlink ref="G16" r:id="rId33"/>
+    <hyperlink ref="G25" r:id="rId34"/>
+    <hyperlink ref="G38" r:id="rId35"/>
+    <hyperlink ref="G31" r:id="rId36"/>
+    <hyperlink ref="G27" r:id="rId37"/>
+    <hyperlink ref="G29" r:id="rId38"/>
+    <hyperlink ref="G33" r:id="rId39"/>
+    <hyperlink ref="G40" r:id="rId40"/>
+    <hyperlink ref="G43" r:id="rId41"/>
+    <hyperlink ref="G44" r:id="rId42"/>
+    <hyperlink ref="G45" r:id="rId43"/>
+    <hyperlink ref="G52" r:id="rId44"/>
+    <hyperlink ref="G54" r:id="rId45"/>
+    <hyperlink ref="G58" r:id="rId46"/>
+    <hyperlink ref="G62" r:id="rId47"/>
+    <hyperlink ref="G63" r:id="rId48"/>
+    <hyperlink ref="G64" r:id="rId49"/>
+    <hyperlink ref="G65" r:id="rId50"/>
+    <hyperlink ref="G66" r:id="rId51"/>
+    <hyperlink ref="G69" r:id="rId52"/>
+    <hyperlink ref="G73" r:id="rId53"/>
+    <hyperlink ref="G76" r:id="rId54"/>
+    <hyperlink ref="G79" r:id="rId55"/>
+    <hyperlink ref="G56" r:id="rId56"/>
+    <hyperlink ref="H79" r:id="rId57"/>
+    <hyperlink ref="H73" r:id="rId58"/>
+    <hyperlink ref="H69" r:id="rId59"/>
+    <hyperlink ref="H66" r:id="rId60"/>
+    <hyperlink ref="H65" r:id="rId61"/>
+    <hyperlink ref="H64" r:id="rId62"/>
+    <hyperlink ref="H63" r:id="rId63"/>
+    <hyperlink ref="H62" r:id="rId64"/>
+    <hyperlink ref="H58" r:id="rId65"/>
+    <hyperlink ref="H55" r:id="rId66"/>
+    <hyperlink ref="H54" r:id="rId67"/>
+    <hyperlink ref="H43" r:id="rId68"/>
+    <hyperlink ref="H45" r:id="rId69"/>
+    <hyperlink ref="H44" r:id="rId70"/>
+    <hyperlink ref="H33" r:id="rId71"/>
+    <hyperlink ref="H38" r:id="rId72"/>
+    <hyperlink ref="H31" r:id="rId73"/>
+    <hyperlink ref="H29" r:id="rId74"/>
+    <hyperlink ref="H26" r:id="rId75"/>
+    <hyperlink ref="H22" r:id="rId76"/>
+    <hyperlink ref="H21" r:id="rId77"/>
+    <hyperlink ref="H17" r:id="rId78"/>
+    <hyperlink ref="H3" r:id="rId79"/>
+    <hyperlink ref="H5" r:id="rId80"/>
+    <hyperlink ref="H6" r:id="rId81"/>
+    <hyperlink ref="H7" r:id="rId82"/>
+    <hyperlink ref="H8" r:id="rId83"/>
+    <hyperlink ref="H13" r:id="rId84"/>
+    <hyperlink ref="H12" r:id="rId85"/>
+    <hyperlink ref="H11" r:id="rId86"/>
+    <hyperlink ref="H10" r:id="rId87"/>
+    <hyperlink ref="H19" r:id="rId88"/>
+    <hyperlink ref="H23" r:id="rId89"/>
+    <hyperlink ref="H24" r:id="rId90"/>
+    <hyperlink ref="H25" r:id="rId91"/>
+    <hyperlink ref="H27" r:id="rId92"/>
+    <hyperlink ref="H30" r:id="rId93"/>
+    <hyperlink ref="H32" r:id="rId94"/>
+    <hyperlink ref="H34" r:id="rId95"/>
+    <hyperlink ref="H35" r:id="rId96"/>
+    <hyperlink ref="H36" r:id="rId97"/>
+    <hyperlink ref="H37" r:id="rId98"/>
+    <hyperlink ref="H39" r:id="rId99"/>
+    <hyperlink ref="H41" r:id="rId100"/>
+    <hyperlink ref="H42" r:id="rId101"/>
+    <hyperlink ref="H46" r:id="rId102"/>
+    <hyperlink ref="H47" r:id="rId103"/>
+    <hyperlink ref="H48" r:id="rId104"/>
+    <hyperlink ref="H49" r:id="rId105"/>
+    <hyperlink ref="H50" r:id="rId106"/>
+    <hyperlink ref="H53" r:id="rId107"/>
+    <hyperlink ref="H56" r:id="rId108"/>
+    <hyperlink ref="H57" r:id="rId109"/>
+    <hyperlink ref="H59" r:id="rId110"/>
+    <hyperlink ref="H60" r:id="rId111"/>
+    <hyperlink ref="H61" r:id="rId112"/>
+    <hyperlink ref="H81" r:id="rId113"/>
+    <hyperlink ref="H80" r:id="rId114"/>
+    <hyperlink ref="H78" r:id="rId115"/>
+    <hyperlink ref="H77" r:id="rId116"/>
+    <hyperlink ref="H75" r:id="rId117"/>
+    <hyperlink ref="H74" r:id="rId118"/>
+    <hyperlink ref="H72" r:id="rId119"/>
+    <hyperlink ref="H71" r:id="rId120"/>
+    <hyperlink ref="H70" r:id="rId121"/>
+    <hyperlink ref="H68" r:id="rId122"/>
+    <hyperlink ref="H67" r:id="rId123"/>
+    <hyperlink ref="H51" r:id="rId124"/>
+    <hyperlink ref="G26" r:id="rId125"/>
+    <hyperlink ref="G24" r:id="rId126"/>
+    <hyperlink ref="G19" r:id="rId127"/>
+    <hyperlink ref="G23" r:id="rId128"/>
+    <hyperlink ref="G32" r:id="rId129"/>
+    <hyperlink ref="G34" r:id="rId130"/>
+    <hyperlink ref="G35" r:id="rId131"/>
+    <hyperlink ref="G36" r:id="rId132"/>
+    <hyperlink ref="G39" r:id="rId133"/>
+    <hyperlink ref="G41" r:id="rId134"/>
+    <hyperlink ref="G42" r:id="rId135"/>
+    <hyperlink ref="G30" r:id="rId136"/>
+    <hyperlink ref="G61" r:id="rId137"/>
+    <hyperlink ref="G67" r:id="rId138"/>
+    <hyperlink ref="G68" r:id="rId139"/>
+    <hyperlink ref="G70" r:id="rId140"/>
+    <hyperlink ref="G72" r:id="rId141"/>
+    <hyperlink ref="G74" r:id="rId142"/>
+    <hyperlink ref="G75" r:id="rId143"/>
+    <hyperlink ref="G77" r:id="rId144"/>
+    <hyperlink ref="G78" r:id="rId145"/>
+    <hyperlink ref="G80" r:id="rId146"/>
+    <hyperlink ref="G81" r:id="rId147"/>
+    <hyperlink ref="G28" r:id="rId148"/>
+    <hyperlink ref="H40" r:id="rId149"/>
+    <hyperlink ref="H18" r:id="rId150"/>
+    <hyperlink ref="H20" r:id="rId151"/>
+    <hyperlink ref="H28" r:id="rId152"/>
+    <hyperlink ref="H52" r:id="rId153"/>
+    <hyperlink ref="H76" r:id="rId154"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId155"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\OneDrive\שולחן העבודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3C0E63-C3AC-4B82-A9CF-231C6B4C3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -748,7 +749,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1185,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F70" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1199,9 +1200,9 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="55.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="54.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="201.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2393,7 +2394,9 @@
       <c r="F46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" s="10" t="s">
         <v>203</v>
       </c>
@@ -2417,7 +2420,9 @@
       <c r="F47" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" s="10" t="s">
         <v>203</v>
       </c>
@@ -2441,7 +2446,9 @@
       <c r="F48" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H48" s="10" t="s">
         <v>203</v>
       </c>
@@ -4181,162 +4188,165 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G37" r:id="rId4"/>
-    <hyperlink ref="G49" r:id="rId5"/>
-    <hyperlink ref="G50" r:id="rId6"/>
-    <hyperlink ref="G53" r:id="rId7"/>
-    <hyperlink ref="G57" r:id="rId8"/>
-    <hyperlink ref="G59" r:id="rId9"/>
-    <hyperlink ref="G60" r:id="rId10"/>
-    <hyperlink ref="G71" r:id="rId11"/>
-    <hyperlink ref="G3" r:id="rId12"/>
-    <hyperlink ref="G4" r:id="rId13"/>
-    <hyperlink ref="H2" r:id="rId14"/>
-    <hyperlink ref="G6" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="G8" r:id="rId17"/>
-    <hyperlink ref="G10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="G14" r:id="rId21"/>
-    <hyperlink ref="G15" r:id="rId22"/>
-    <hyperlink ref="G17" r:id="rId23"/>
-    <hyperlink ref="G18" r:id="rId24"/>
-    <hyperlink ref="G20" r:id="rId25"/>
-    <hyperlink ref="G21" r:id="rId26"/>
-    <hyperlink ref="G22" r:id="rId27"/>
-    <hyperlink ref="H4" r:id="rId28"/>
-    <hyperlink ref="H9" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="H16" r:id="rId32"/>
-    <hyperlink ref="G16" r:id="rId33"/>
-    <hyperlink ref="G25" r:id="rId34"/>
-    <hyperlink ref="G38" r:id="rId35"/>
-    <hyperlink ref="G31" r:id="rId36"/>
-    <hyperlink ref="G27" r:id="rId37"/>
-    <hyperlink ref="G29" r:id="rId38"/>
-    <hyperlink ref="G33" r:id="rId39"/>
-    <hyperlink ref="G40" r:id="rId40"/>
-    <hyperlink ref="G43" r:id="rId41"/>
-    <hyperlink ref="G44" r:id="rId42"/>
-    <hyperlink ref="G45" r:id="rId43"/>
-    <hyperlink ref="G52" r:id="rId44"/>
-    <hyperlink ref="G54" r:id="rId45"/>
-    <hyperlink ref="G58" r:id="rId46"/>
-    <hyperlink ref="G62" r:id="rId47"/>
-    <hyperlink ref="G63" r:id="rId48"/>
-    <hyperlink ref="G64" r:id="rId49"/>
-    <hyperlink ref="G65" r:id="rId50"/>
-    <hyperlink ref="G66" r:id="rId51"/>
-    <hyperlink ref="G69" r:id="rId52"/>
-    <hyperlink ref="G73" r:id="rId53"/>
-    <hyperlink ref="G76" r:id="rId54"/>
-    <hyperlink ref="G79" r:id="rId55"/>
-    <hyperlink ref="G56" r:id="rId56"/>
-    <hyperlink ref="H79" r:id="rId57"/>
-    <hyperlink ref="H73" r:id="rId58"/>
-    <hyperlink ref="H69" r:id="rId59"/>
-    <hyperlink ref="H66" r:id="rId60"/>
-    <hyperlink ref="H65" r:id="rId61"/>
-    <hyperlink ref="H64" r:id="rId62"/>
-    <hyperlink ref="H63" r:id="rId63"/>
-    <hyperlink ref="H62" r:id="rId64"/>
-    <hyperlink ref="H58" r:id="rId65"/>
-    <hyperlink ref="H55" r:id="rId66"/>
-    <hyperlink ref="H54" r:id="rId67"/>
-    <hyperlink ref="H43" r:id="rId68"/>
-    <hyperlink ref="H45" r:id="rId69"/>
-    <hyperlink ref="H44" r:id="rId70"/>
-    <hyperlink ref="H33" r:id="rId71"/>
-    <hyperlink ref="H38" r:id="rId72"/>
-    <hyperlink ref="H31" r:id="rId73"/>
-    <hyperlink ref="H29" r:id="rId74"/>
-    <hyperlink ref="H26" r:id="rId75"/>
-    <hyperlink ref="H22" r:id="rId76"/>
-    <hyperlink ref="H21" r:id="rId77"/>
-    <hyperlink ref="H17" r:id="rId78"/>
-    <hyperlink ref="H3" r:id="rId79"/>
-    <hyperlink ref="H5" r:id="rId80"/>
-    <hyperlink ref="H6" r:id="rId81"/>
-    <hyperlink ref="H7" r:id="rId82"/>
-    <hyperlink ref="H8" r:id="rId83"/>
-    <hyperlink ref="H13" r:id="rId84"/>
-    <hyperlink ref="H12" r:id="rId85"/>
-    <hyperlink ref="H11" r:id="rId86"/>
-    <hyperlink ref="H10" r:id="rId87"/>
-    <hyperlink ref="H19" r:id="rId88"/>
-    <hyperlink ref="H23" r:id="rId89"/>
-    <hyperlink ref="H24" r:id="rId90"/>
-    <hyperlink ref="H25" r:id="rId91"/>
-    <hyperlink ref="H27" r:id="rId92"/>
-    <hyperlink ref="H30" r:id="rId93"/>
-    <hyperlink ref="H32" r:id="rId94"/>
-    <hyperlink ref="H34" r:id="rId95"/>
-    <hyperlink ref="H35" r:id="rId96"/>
-    <hyperlink ref="H36" r:id="rId97"/>
-    <hyperlink ref="H37" r:id="rId98"/>
-    <hyperlink ref="H39" r:id="rId99"/>
-    <hyperlink ref="H41" r:id="rId100"/>
-    <hyperlink ref="H42" r:id="rId101"/>
-    <hyperlink ref="H46" r:id="rId102"/>
-    <hyperlink ref="H47" r:id="rId103"/>
-    <hyperlink ref="H48" r:id="rId104"/>
-    <hyperlink ref="H49" r:id="rId105"/>
-    <hyperlink ref="H50" r:id="rId106"/>
-    <hyperlink ref="H53" r:id="rId107"/>
-    <hyperlink ref="H56" r:id="rId108"/>
-    <hyperlink ref="H57" r:id="rId109"/>
-    <hyperlink ref="H59" r:id="rId110"/>
-    <hyperlink ref="H60" r:id="rId111"/>
-    <hyperlink ref="H61" r:id="rId112"/>
-    <hyperlink ref="H81" r:id="rId113"/>
-    <hyperlink ref="H80" r:id="rId114"/>
-    <hyperlink ref="H78" r:id="rId115"/>
-    <hyperlink ref="H77" r:id="rId116"/>
-    <hyperlink ref="H75" r:id="rId117"/>
-    <hyperlink ref="H74" r:id="rId118"/>
-    <hyperlink ref="H72" r:id="rId119"/>
-    <hyperlink ref="H71" r:id="rId120"/>
-    <hyperlink ref="H70" r:id="rId121"/>
-    <hyperlink ref="H68" r:id="rId122"/>
-    <hyperlink ref="H67" r:id="rId123"/>
-    <hyperlink ref="H51" r:id="rId124"/>
-    <hyperlink ref="G26" r:id="rId125"/>
-    <hyperlink ref="G24" r:id="rId126"/>
-    <hyperlink ref="G19" r:id="rId127"/>
-    <hyperlink ref="G23" r:id="rId128"/>
-    <hyperlink ref="G32" r:id="rId129"/>
-    <hyperlink ref="G34" r:id="rId130"/>
-    <hyperlink ref="G35" r:id="rId131"/>
-    <hyperlink ref="G36" r:id="rId132"/>
-    <hyperlink ref="G39" r:id="rId133"/>
-    <hyperlink ref="G41" r:id="rId134"/>
-    <hyperlink ref="G42" r:id="rId135"/>
-    <hyperlink ref="G30" r:id="rId136"/>
-    <hyperlink ref="G61" r:id="rId137"/>
-    <hyperlink ref="G67" r:id="rId138"/>
-    <hyperlink ref="G68" r:id="rId139"/>
-    <hyperlink ref="G70" r:id="rId140"/>
-    <hyperlink ref="G72" r:id="rId141"/>
-    <hyperlink ref="G74" r:id="rId142"/>
-    <hyperlink ref="G75" r:id="rId143"/>
-    <hyperlink ref="G77" r:id="rId144"/>
-    <hyperlink ref="G78" r:id="rId145"/>
-    <hyperlink ref="G80" r:id="rId146"/>
-    <hyperlink ref="G81" r:id="rId147"/>
-    <hyperlink ref="G28" r:id="rId148"/>
-    <hyperlink ref="H40" r:id="rId149"/>
-    <hyperlink ref="H18" r:id="rId150"/>
-    <hyperlink ref="H20" r:id="rId151"/>
-    <hyperlink ref="H28" r:id="rId152"/>
-    <hyperlink ref="H52" r:id="rId153"/>
-    <hyperlink ref="H76" r:id="rId154"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G53" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G60" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G71" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G73" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G76" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H73" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H55" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H54" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H43" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H31" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H3" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H8" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H11" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H23" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H24" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H25" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H27" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H30" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H32" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H34" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H35" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H36" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H37" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H39" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H41" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H42" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H46" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H47" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H48" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H49" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H53" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H56" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H57" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H59" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H60" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H61" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H81" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H80" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H78" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H77" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H75" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H74" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H72" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="H71" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H70" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H68" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="H67" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H51" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G26" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G24" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G19" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G23" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G32" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G34" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G35" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G36" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G39" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G41" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G42" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G30" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G61" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G67" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G68" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G70" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G77" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G78" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G80" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G81" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G28" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H40" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H18" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H20" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H28" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H76" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G46" r:id="rId155" xr:uid="{A003F6A4-3799-4C55-AD1F-854BB6220293}"/>
+    <hyperlink ref="G47" r:id="rId156" xr:uid="{A6380DF9-97BB-41A9-8995-E3D682FC05D0}"/>
+    <hyperlink ref="G48" r:id="rId157" xr:uid="{15C00FA2-261B-4796-8E61-D4D10F3DEF2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId155"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3C0E63-C3AC-4B82-A9CF-231C6B4C3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="228">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -144,6 +143,9 @@
     <t>טרנזיסטור</t>
   </si>
   <si>
+    <t>https://www.radiosol.co.il/%D7%90%D7%93%D7%99%D7%A8-%D7%96%D7%90%D7%91%D7%99</t>
+  </si>
+  <si>
     <t xml:space="preserve">שירי בוקר ישראליים מוזיקה מכל הזמנים </t>
   </si>
   <si>
@@ -279,9 +281,6 @@
     <t>בהגשת פזית גלר ויובל דור</t>
   </si>
   <si>
-    <t>בהגשת הראל משה שוקי אברהם ויובל ענתבי</t>
-  </si>
-  <si>
     <t>בהגשת מקס צרנוגלז</t>
   </si>
   <si>
@@ -312,13 +311,22 @@
     <t>https://static.wixstatic.com/media/c39cce_1ce4b1aa821944d0b1d4dc792a3d2447~mv2.jpg</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_4d20a04e5bcf44c79295681d0635f06a~mv2.jpg</t>
-  </si>
-  <si>
     <t>https://static.wixstatic.com/media/c39cce_77f0707a84294ce3b20628d8ef587a8b~mv2.jpg</t>
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_bac135a9e97f4a10aa2292c1b79bc8b4~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%A8%D7%95%D7%A0%D7%99-%D7%97%D7%96%D7%9F</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%A0%D7%95%D7%A8%D7%99%D7%AA-%D7%A9%D7%9D-%D7%98%D7%95%D7%91</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%A9%D7%95%D7%A7%D7%99-%D7%90%D7%91%D7%A8%D7%94%D7%9D</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%A1%D7%99-%D7%99%D7%A9%D7%A8%D7%90%D7%9C-%D7%9E%D7%95%D7%92-%D7%91%D7%A8</t>
   </si>
   <si>
     <t>https://static.wixstatic.com/media/099e17_6f4acefacf404b1fbc083396c2884c2b~mv2.jpeg</t>
@@ -644,9 +652,6 @@
     <t xml:space="preserve"> מוזיקת ג'אז מכל הזמנים</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png</t>
-  </si>
-  <si>
     <t>מבט על</t>
   </si>
   <si>
@@ -656,100 +661,82 @@
     <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg</t>
   </si>
   <si>
+    <t>https://www.radiosol.co.il/alonmrkus</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/shmolikmoshkovich</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/yosiisrael</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/danielcochavi</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/amostzuriel</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/shacharaloni</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/sidebrap</t>
+  </si>
+  <si>
     <t>https://www.radiosol.co.il/galiko</t>
   </si>
   <si>
+    <t>https://www.radiosol.co.il/arimirel</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/bensheft</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/dudubenita</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/harelmoshe</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/racheliskapa</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/veredmutzafi</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/neomihayke</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/holyshwartz</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/ronitgluska</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/davidshalchon</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/drpeled</t>
+  </si>
+  <si>
     <t>https://xtml2.streamgates.net/radiant/MultixPlayer.php?Stream=https://cdna.streamgates.net/RadioSol/LiveVideo/playlist.m3u8&amp;Ap=false</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/davidshalchon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/kolole  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-13  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/danielcochavi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.radiosol.co.il/podcast-30 </t>
+    <t>https://www.radiosol.co.il/gidilivyatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בהגשת הראל משה ושוקי אברהם </t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_14e19c800ec54284823d5759f7f21637~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1186,11 +1173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1200,9 +1187,9 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="54.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="201.75" customWidth="1"/>
+    <col min="6" max="6" width="55.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.375" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1245,16 +1232,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -1271,21 +1258,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1297,21 +1284,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1323,21 +1310,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1349,21 +1336,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1375,7 +1362,7 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>89</v>
@@ -1384,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75">
@@ -1401,7 +1388,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>90</v>
@@ -1410,12 +1397,12 @@
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1427,21 +1414,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>91</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1453,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>92</v>
@@ -1462,7 +1449,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
@@ -1479,7 +1466,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>88</v>
@@ -1488,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
@@ -1505,16 +1492,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
@@ -1531,21 +1518,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1557,21 +1544,21 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1583,21 +1570,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1609,21 +1596,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1635,21 +1622,21 @@
         <v>0.625</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1661,21 +1648,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1687,21 +1671,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1713,21 +1697,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1742,18 +1723,18 @@
         <v>85</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1768,18 +1749,18 @@
         <v>86</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1791,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
@@ -1817,7 +1798,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>87</v>
@@ -1826,7 +1807,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
@@ -1843,16 +1824,16 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
@@ -1869,7 +1850,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>22</v>
@@ -1878,7 +1859,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
@@ -1892,284 +1873,284 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" s="12">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
       <c r="C28" s="12">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D28" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
       <c r="C29" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
       <c r="C30" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D30" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D31" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D32" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
       </c>
       <c r="C33" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D33" s="12">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="12">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D34" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
       </c>
       <c r="C35" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="11" t="s">
-        <v>36</v>
+      <c r="A36" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B36" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D36" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75">
-      <c r="A37" s="14" t="s">
-        <v>8</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D37" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A38" s="19" t="s">
-        <v>114</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75">
+      <c r="A38" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2178,617 +2159,606 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D38" s="12">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>116</v>
+        <v>48</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D39" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="14" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D40" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D41" s="12">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D42" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18.75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="37.5">
       <c r="A43" s="14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D43" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="37.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75">
       <c r="A44" s="14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D44" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="14" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D45" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>139</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D46" s="12">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="D47" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
       <c r="A48" s="14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B48" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D48" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
-      <c r="A49" s="14" t="s">
-        <v>19</v>
+      <c r="A49" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B49" s="11">
         <v>4</v>
       </c>
       <c r="C49" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D49" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D50" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D51" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>220</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D52" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
       <c r="A53" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D53" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D54" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="11" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D55" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
+        <v>202</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
       <c r="A56" s="11" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D56" s="12">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D57" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D58" s="12">
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="11" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D59" s="12">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="11" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B60" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D60" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
       </c>
       <c r="C61" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D61" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
@@ -2799,751 +2769,728 @@
         <v>5</v>
       </c>
       <c r="C62" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D62" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D63" s="12">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D64" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D65" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D66" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D67" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D68" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D69" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>174</v>
+        <v>48</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.75">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D70" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="F71" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1">
-      <c r="A71" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="11">
-        <v>5</v>
-      </c>
-      <c r="C71" s="12">
-        <v>0</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H71" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
       </c>
       <c r="C72" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D72" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>177</v>
+        <v>166</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="36">
+      <c r="A73" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D73" s="2">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="36">
-      <c r="A74" s="21" t="s">
-        <v>181</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D74" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D75" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D76" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D77" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D78" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D79" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:7">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="17"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="3"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="4"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="4"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="17"/>
-    </row>
-    <row r="92" spans="1:8">
+    </row>
+    <row r="92" spans="1:7">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="1:8">
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="3"/>
+    <row r="108" spans="1:6">
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
+      <c r="F112" s="17"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
+      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1"/>
@@ -3646,13 +3593,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="1"/>
@@ -3664,14 +3611,14 @@
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="17"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="1"/>
@@ -3690,6 +3637,7 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1"/>
@@ -3703,7 +3651,6 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="1"/>
@@ -3794,13 +3741,13 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
+      <c r="F157" s="17"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="1"/>
@@ -3819,6 +3766,7 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
+      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6">
       <c r="B162" s="1"/>
@@ -3832,7 +3780,6 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6">
       <c r="B164" s="1"/>
@@ -3844,7 +3791,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="1"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" s="1"/>
@@ -3859,6 +3806,7 @@
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:6">
+      <c r="A168" s="7"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3872,7 +3820,6 @@
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="7"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3936,7 +3883,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="3"/>
+      <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="1"/>
@@ -3957,6 +3904,7 @@
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:6">
+      <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3970,18 +3918,17 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="1"/>
+      <c r="F186" s="17"/>
     </row>
     <row r="187" spans="1:6">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" s="1"/>
@@ -3996,10 +3943,12 @@
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:6">
+      <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="1"/>
+      <c r="F190" s="17"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="3"/>
@@ -4007,7 +3956,6 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="3"/>
@@ -4059,13 +4007,13 @@
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
+      <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4079,7 +4027,6 @@
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4132,21 +4079,21 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="1"/>
+      <c r="F210" s="17"/>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="17"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" s="1"/>
@@ -4171,182 +4118,166 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="1"/>
+      <c r="F216" s="17"/>
     </row>
     <row r="217" spans="1:8">
+      <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="8"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="17"/>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="3"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G53" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G60" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G71" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G25" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G31" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G73" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G76" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H79" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H73" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H55" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H54" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H43" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H33" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H31" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H21" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H3" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H5" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H6" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H7" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H8" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H11" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H10" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H23" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H24" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H25" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H27" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H30" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H32" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H34" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H35" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H36" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H37" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H39" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H41" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H42" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H46" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H47" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H48" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H49" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H53" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H56" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H57" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H59" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H60" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H61" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H81" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H80" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H78" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H77" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H75" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H74" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H72" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="H71" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="H70" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H68" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="H67" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H51" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G26" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G24" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G19" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G23" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G32" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="G34" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G35" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G36" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G39" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G41" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G42" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G30" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G61" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G67" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G68" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G70" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="G75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G77" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="G78" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="G80" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="G81" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="G28" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H40" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H18" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H20" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H28" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H76" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="G46" r:id="rId155" xr:uid="{A003F6A4-3799-4C55-AD1F-854BB6220293}"/>
-    <hyperlink ref="G47" r:id="rId156" xr:uid="{A6380DF9-97BB-41A9-8995-E3D682FC05D0}"/>
-    <hyperlink ref="G48" r:id="rId157" xr:uid="{15C00FA2-261B-4796-8E61-D4D10F3DEF2E}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G36" r:id="rId4"/>
+    <hyperlink ref="G48" r:id="rId5"/>
+    <hyperlink ref="G49" r:id="rId6"/>
+    <hyperlink ref="G52" r:id="rId7"/>
+    <hyperlink ref="G56" r:id="rId8"/>
+    <hyperlink ref="G58" r:id="rId9"/>
+    <hyperlink ref="G59" r:id="rId10"/>
+    <hyperlink ref="G70" r:id="rId11"/>
+    <hyperlink ref="G3" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="H2" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G8" r:id="rId17"/>
+    <hyperlink ref="G10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="G9" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G15" r:id="rId22"/>
+    <hyperlink ref="G17" r:id="rId23"/>
+    <hyperlink ref="G18" r:id="rId24"/>
+    <hyperlink ref="G20" r:id="rId25"/>
+    <hyperlink ref="G21" r:id="rId26"/>
+    <hyperlink ref="G22" r:id="rId27"/>
+    <hyperlink ref="H4" r:id="rId28"/>
+    <hyperlink ref="H9" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="H16" r:id="rId32"/>
+    <hyperlink ref="G16" r:id="rId33"/>
+    <hyperlink ref="G25" r:id="rId34"/>
+    <hyperlink ref="G37" r:id="rId35"/>
+    <hyperlink ref="G30" r:id="rId36"/>
+    <hyperlink ref="G27" r:id="rId37"/>
+    <hyperlink ref="G28" r:id="rId38"/>
+    <hyperlink ref="G32" r:id="rId39"/>
+    <hyperlink ref="G39" r:id="rId40"/>
+    <hyperlink ref="G42" r:id="rId41"/>
+    <hyperlink ref="G43" r:id="rId42"/>
+    <hyperlink ref="G44" r:id="rId43"/>
+    <hyperlink ref="G51" r:id="rId44"/>
+    <hyperlink ref="G53" r:id="rId45"/>
+    <hyperlink ref="G57" r:id="rId46"/>
+    <hyperlink ref="G61" r:id="rId47"/>
+    <hyperlink ref="G62" r:id="rId48"/>
+    <hyperlink ref="G63" r:id="rId49"/>
+    <hyperlink ref="G64" r:id="rId50"/>
+    <hyperlink ref="G65" r:id="rId51"/>
+    <hyperlink ref="G68" r:id="rId52"/>
+    <hyperlink ref="G72" r:id="rId53"/>
+    <hyperlink ref="G75" r:id="rId54"/>
+    <hyperlink ref="G78" r:id="rId55"/>
+    <hyperlink ref="G55" r:id="rId56"/>
+    <hyperlink ref="H78" r:id="rId57"/>
+    <hyperlink ref="H72" r:id="rId58"/>
+    <hyperlink ref="H68" r:id="rId59"/>
+    <hyperlink ref="H65" r:id="rId60"/>
+    <hyperlink ref="H64" r:id="rId61"/>
+    <hyperlink ref="H63" r:id="rId62"/>
+    <hyperlink ref="H62" r:id="rId63"/>
+    <hyperlink ref="H61" r:id="rId64"/>
+    <hyperlink ref="H57" r:id="rId65"/>
+    <hyperlink ref="H54" r:id="rId66"/>
+    <hyperlink ref="H53" r:id="rId67"/>
+    <hyperlink ref="H42" r:id="rId68"/>
+    <hyperlink ref="H44" r:id="rId69"/>
+    <hyperlink ref="H43" r:id="rId70"/>
+    <hyperlink ref="H32" r:id="rId71"/>
+    <hyperlink ref="H37" r:id="rId72"/>
+    <hyperlink ref="H30" r:id="rId73"/>
+    <hyperlink ref="H28" r:id="rId74"/>
+    <hyperlink ref="H26" r:id="rId75"/>
+    <hyperlink ref="H22" r:id="rId76"/>
+    <hyperlink ref="H21" r:id="rId77"/>
+    <hyperlink ref="H17" r:id="rId78"/>
+    <hyperlink ref="H3" r:id="rId79"/>
+    <hyperlink ref="H5" r:id="rId80"/>
+    <hyperlink ref="H6" r:id="rId81"/>
+    <hyperlink ref="H7" r:id="rId82"/>
+    <hyperlink ref="H8" r:id="rId83"/>
+    <hyperlink ref="H13" r:id="rId84"/>
+    <hyperlink ref="H12" r:id="rId85"/>
+    <hyperlink ref="H11" r:id="rId86"/>
+    <hyperlink ref="H10" r:id="rId87"/>
+    <hyperlink ref="H19" r:id="rId88"/>
+    <hyperlink ref="H23" r:id="rId89"/>
+    <hyperlink ref="H24" r:id="rId90"/>
+    <hyperlink ref="H25" r:id="rId91"/>
+    <hyperlink ref="H27" r:id="rId92"/>
+    <hyperlink ref="H29" r:id="rId93"/>
+    <hyperlink ref="H31" r:id="rId94"/>
+    <hyperlink ref="H33" r:id="rId95"/>
+    <hyperlink ref="H34" r:id="rId96"/>
+    <hyperlink ref="H35" r:id="rId97"/>
+    <hyperlink ref="H36" r:id="rId98"/>
+    <hyperlink ref="H38" r:id="rId99"/>
+    <hyperlink ref="H40" r:id="rId100"/>
+    <hyperlink ref="H41" r:id="rId101"/>
+    <hyperlink ref="H45" r:id="rId102"/>
+    <hyperlink ref="H46" r:id="rId103"/>
+    <hyperlink ref="H47" r:id="rId104"/>
+    <hyperlink ref="H48" r:id="rId105"/>
+    <hyperlink ref="H49" r:id="rId106"/>
+    <hyperlink ref="H52" r:id="rId107"/>
+    <hyperlink ref="H55" r:id="rId108"/>
+    <hyperlink ref="H56" r:id="rId109"/>
+    <hyperlink ref="H58" r:id="rId110"/>
+    <hyperlink ref="H59" r:id="rId111"/>
+    <hyperlink ref="H60" r:id="rId112"/>
+    <hyperlink ref="H80" r:id="rId113"/>
+    <hyperlink ref="H79" r:id="rId114"/>
+    <hyperlink ref="H77" r:id="rId115"/>
+    <hyperlink ref="H76" r:id="rId116"/>
+    <hyperlink ref="H74" r:id="rId117"/>
+    <hyperlink ref="H73" r:id="rId118"/>
+    <hyperlink ref="H71" r:id="rId119"/>
+    <hyperlink ref="H70" r:id="rId120"/>
+    <hyperlink ref="H69" r:id="rId121"/>
+    <hyperlink ref="H67" r:id="rId122"/>
+    <hyperlink ref="H66" r:id="rId123"/>
+    <hyperlink ref="H50" r:id="rId124"/>
+    <hyperlink ref="G26" r:id="rId125"/>
+    <hyperlink ref="G24" r:id="rId126"/>
+    <hyperlink ref="G19" r:id="rId127"/>
+    <hyperlink ref="G23" r:id="rId128"/>
+    <hyperlink ref="G31" r:id="rId129"/>
+    <hyperlink ref="G33" r:id="rId130"/>
+    <hyperlink ref="G34" r:id="rId131"/>
+    <hyperlink ref="G35" r:id="rId132"/>
+    <hyperlink ref="G38" r:id="rId133"/>
+    <hyperlink ref="G40" r:id="rId134"/>
+    <hyperlink ref="G41" r:id="rId135"/>
+    <hyperlink ref="G29" r:id="rId136"/>
+    <hyperlink ref="G60" r:id="rId137"/>
+    <hyperlink ref="G66" r:id="rId138"/>
+    <hyperlink ref="G67" r:id="rId139"/>
+    <hyperlink ref="G69" r:id="rId140"/>
+    <hyperlink ref="G71" r:id="rId141"/>
+    <hyperlink ref="G73" r:id="rId142"/>
+    <hyperlink ref="G74" r:id="rId143"/>
+    <hyperlink ref="G76" r:id="rId144"/>
+    <hyperlink ref="G77" r:id="rId145"/>
+    <hyperlink ref="G79" r:id="rId146"/>
+    <hyperlink ref="G80" r:id="rId147"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="234">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -143,9 +143,6 @@
     <t>טרנזיסטור</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%90%D7%93%D7%99%D7%A8-%D7%96%D7%90%D7%91%D7%99</t>
-  </si>
-  <si>
     <t xml:space="preserve">שירי בוקר ישראליים מוזיקה מכל הזמנים </t>
   </si>
   <si>
@@ -315,18 +312,6 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_bac135a9e97f4a10aa2292c1b79bc8b4~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A8%D7%95%D7%A0%D7%99-%D7%97%D7%96%D7%9F</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A0%D7%95%D7%A8%D7%99%D7%AA-%D7%A9%D7%9D-%D7%98%D7%95%D7%91</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%A9%D7%95%D7%A7%D7%99-%D7%90%D7%91%D7%A8%D7%94%D7%9D</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%A1%D7%99-%D7%99%D7%A9%D7%A8%D7%90%D7%9C-%D7%9E%D7%95%D7%92-%D7%91%D7%A8</t>
   </si>
   <si>
     <t>https://static.wixstatic.com/media/099e17_6f4acefacf404b1fbc083396c2884c2b~mv2.jpeg</t>
@@ -661,69 +646,15 @@
     <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/alonmrkus</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/shmolikmoshkovich</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/yosiisrael</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/danielcochavi</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/amostzuriel</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/shacharaloni</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/sidebrap</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/galiko</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/arimirel</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/bensheft</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/dudubenita</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/harelmoshe</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/racheliskapa</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/veredmutzafi</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/neomihayke</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/holyshwartz</t>
-  </si>
-  <si>
-    <t>https://www.radiosol.co.il/ronitgluska</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/davidshalchon</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/drpeled</t>
-  </si>
-  <si>
     <t>https://xtml2.streamgates.net/radiant/MultixPlayer.php?Stream=https://cdna.streamgates.net/RadioSol/LiveVideo/playlist.m3u8&amp;Ap=false</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/gidilivyatan</t>
-  </si>
-  <si>
     <t xml:space="preserve">בהגשת הראל משה ושוקי אברהם </t>
   </si>
   <si>
@@ -731,6 +662,93 @@
   </si>
   <si>
     <t>https://www.radiosol.co.il/podcast-10</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-32</t>
+  </si>
+  <si>
+    <t>בין הצילצולים</t>
+  </si>
+  <si>
+    <t>תלמידי תקשורת מבית הספר אורט יובלי אריאל</t>
+  </si>
+  <si>
+    <t>כל מה שמעניין את בני הנוער</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%91%D7%99%D7%9F-%D7%94%D7%A6%D7%9C%D7%A6%D7%95%D7%9C%D7%99%D7%9D</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-14</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-1</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-3</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-2</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-5</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-4</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-12</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-11</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-13</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-15</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-16</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-9</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-18</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-17</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-20</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-22</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-21</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-24</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-23</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-25</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-27</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-29</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/podcast-30</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1187,7 +1205,7 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="55.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.375" customWidth="1"/>
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
@@ -1232,16 +1250,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -1258,21 +1276,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1284,21 +1302,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1310,21 +1328,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1336,21 +1354,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1362,16 +1380,16 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75">
@@ -1388,21 +1406,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1414,21 +1432,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1440,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
@@ -1466,16 +1484,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
@@ -1492,16 +1510,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
@@ -1518,21 +1536,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1544,21 +1562,21 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1570,21 +1588,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1596,21 +1614,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1622,21 +1640,21 @@
         <v>0.625</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1645,16 +1663,19 @@
         <v>0.625</v>
       </c>
       <c r="D18" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
@@ -1665,22 +1686,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
@@ -1691,19 +1712,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D20" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>226</v>
+        <v>94</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
@@ -1714,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D21" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>85</v>
@@ -1729,7 +1753,7 @@
         <v>95</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
@@ -1740,157 +1764,157 @@
         <v>1</v>
       </c>
       <c r="C22" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D22" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="12">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="14" t="s">
-        <v>36</v>
+      <c r="A24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="12">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D24" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
       <c r="A25" s="11" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
       </c>
       <c r="C25" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D25" s="12">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
       <c r="A26" s="11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
       </c>
       <c r="C26" s="12">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D26" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
       <c r="A27" s="11" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
       <c r="C27" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="12">
         <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1902,21 +1926,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1928,21 +1952,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -1954,21 +1978,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -1980,21 +2004,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -2006,21 +2030,21 @@
         <v>0.875</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -2032,21 +2056,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -2058,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
@@ -2084,16 +2108,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
@@ -2110,7 +2134,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>24</v>
@@ -2119,12 +2143,12 @@
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
@@ -2136,16 +2160,16 @@
         <v>0.5</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75">
@@ -2162,21 +2186,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
@@ -2188,18 +2212,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
@@ -2211,21 +2238,21 @@
         <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2237,21 +2264,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
@@ -2263,21 +2290,21 @@
         <v>0.75</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="37.5">
       <c r="A43" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -2289,21 +2316,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75">
       <c r="A44" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
@@ -2315,16 +2342,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
@@ -2341,19 +2368,19 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
@@ -2365,14 +2392,14 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
@@ -2389,14 +2416,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
@@ -2413,16 +2440,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
@@ -2439,16 +2466,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
@@ -2465,7 +2492,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>25</v>
@@ -2491,7 +2518,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>27</v>
@@ -2499,11 +2526,13 @@
       <c r="G51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="11" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
@@ -2515,16 +2544,14 @@
         <v>0.625</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
@@ -2541,7 +2568,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>29</v>
@@ -2550,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
@@ -2567,7 +2594,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>31</v>
@@ -2576,12 +2603,12 @@
         <v>32</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
@@ -2593,16 +2620,16 @@
         <v>0.75</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
@@ -2619,7 +2646,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>10</v>
@@ -2628,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
@@ -2645,7 +2672,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>33</v>
@@ -2654,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
@@ -2671,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>35</v>
@@ -2680,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
@@ -2697,21 +2724,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B60" s="11">
         <v>5</v>
@@ -2723,21 +2750,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
@@ -2749,21 +2776,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2775,21 +2802,21 @@
         <v>0.5</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2801,21 +2828,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2827,21 +2854,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2853,21 +2880,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2879,21 +2906,21 @@
         <v>0.75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2905,21 +2932,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
@@ -2931,21 +2958,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -2957,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
@@ -2983,21 +3010,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -3009,21 +3036,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -3035,21 +3062,21 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="36">
       <c r="A73" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3061,21 +3088,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3087,21 +3114,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3113,18 +3140,21 @@
         <v>0.75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3136,21 +3166,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3162,21 +3192,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3188,21 +3218,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3214,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3240,16 +3270,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4135,149 +4165,153 @@
     <hyperlink ref="G36" r:id="rId4"/>
     <hyperlink ref="G48" r:id="rId5"/>
     <hyperlink ref="G49" r:id="rId6"/>
-    <hyperlink ref="G52" r:id="rId7"/>
-    <hyperlink ref="G56" r:id="rId8"/>
-    <hyperlink ref="G58" r:id="rId9"/>
-    <hyperlink ref="G59" r:id="rId10"/>
-    <hyperlink ref="G70" r:id="rId11"/>
-    <hyperlink ref="G3" r:id="rId12"/>
-    <hyperlink ref="G4" r:id="rId13"/>
-    <hyperlink ref="H2" r:id="rId14"/>
-    <hyperlink ref="G6" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="G8" r:id="rId17"/>
-    <hyperlink ref="G10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="G14" r:id="rId21"/>
-    <hyperlink ref="G15" r:id="rId22"/>
-    <hyperlink ref="G17" r:id="rId23"/>
-    <hyperlink ref="G18" r:id="rId24"/>
+    <hyperlink ref="G56" r:id="rId7"/>
+    <hyperlink ref="G58" r:id="rId8"/>
+    <hyperlink ref="G59" r:id="rId9"/>
+    <hyperlink ref="G70" r:id="rId10"/>
+    <hyperlink ref="G3" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="H2" r:id="rId13"/>
+    <hyperlink ref="G6" r:id="rId14"/>
+    <hyperlink ref="G7" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
+    <hyperlink ref="G15" r:id="rId21"/>
+    <hyperlink ref="G17" r:id="rId22"/>
+    <hyperlink ref="G18" r:id="rId23"/>
+    <hyperlink ref="G19" r:id="rId24"/>
     <hyperlink ref="G20" r:id="rId25"/>
     <hyperlink ref="G21" r:id="rId26"/>
-    <hyperlink ref="G22" r:id="rId27"/>
-    <hyperlink ref="H4" r:id="rId28"/>
-    <hyperlink ref="H9" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="H16" r:id="rId32"/>
-    <hyperlink ref="G16" r:id="rId33"/>
-    <hyperlink ref="G25" r:id="rId34"/>
-    <hyperlink ref="G37" r:id="rId35"/>
-    <hyperlink ref="G30" r:id="rId36"/>
-    <hyperlink ref="G27" r:id="rId37"/>
-    <hyperlink ref="G28" r:id="rId38"/>
-    <hyperlink ref="G32" r:id="rId39"/>
-    <hyperlink ref="G39" r:id="rId40"/>
-    <hyperlink ref="G42" r:id="rId41"/>
-    <hyperlink ref="G43" r:id="rId42"/>
-    <hyperlink ref="G44" r:id="rId43"/>
-    <hyperlink ref="G51" r:id="rId44"/>
-    <hyperlink ref="G53" r:id="rId45"/>
-    <hyperlink ref="G57" r:id="rId46"/>
-    <hyperlink ref="G61" r:id="rId47"/>
-    <hyperlink ref="G62" r:id="rId48"/>
-    <hyperlink ref="G63" r:id="rId49"/>
-    <hyperlink ref="G64" r:id="rId50"/>
-    <hyperlink ref="G65" r:id="rId51"/>
-    <hyperlink ref="G68" r:id="rId52"/>
-    <hyperlink ref="G72" r:id="rId53"/>
-    <hyperlink ref="G75" r:id="rId54"/>
-    <hyperlink ref="G78" r:id="rId55"/>
-    <hyperlink ref="G55" r:id="rId56"/>
-    <hyperlink ref="H78" r:id="rId57"/>
-    <hyperlink ref="H72" r:id="rId58"/>
-    <hyperlink ref="H68" r:id="rId59"/>
-    <hyperlink ref="H65" r:id="rId60"/>
-    <hyperlink ref="H64" r:id="rId61"/>
-    <hyperlink ref="H63" r:id="rId62"/>
-    <hyperlink ref="H62" r:id="rId63"/>
-    <hyperlink ref="H61" r:id="rId64"/>
-    <hyperlink ref="H57" r:id="rId65"/>
-    <hyperlink ref="H54" r:id="rId66"/>
-    <hyperlink ref="H53" r:id="rId67"/>
-    <hyperlink ref="H42" r:id="rId68"/>
-    <hyperlink ref="H44" r:id="rId69"/>
-    <hyperlink ref="H43" r:id="rId70"/>
-    <hyperlink ref="H32" r:id="rId71"/>
-    <hyperlink ref="H37" r:id="rId72"/>
-    <hyperlink ref="H30" r:id="rId73"/>
-    <hyperlink ref="H28" r:id="rId74"/>
-    <hyperlink ref="H26" r:id="rId75"/>
-    <hyperlink ref="H22" r:id="rId76"/>
-    <hyperlink ref="H21" r:id="rId77"/>
-    <hyperlink ref="H17" r:id="rId78"/>
-    <hyperlink ref="H3" r:id="rId79"/>
-    <hyperlink ref="H5" r:id="rId80"/>
-    <hyperlink ref="H6" r:id="rId81"/>
-    <hyperlink ref="H7" r:id="rId82"/>
-    <hyperlink ref="H8" r:id="rId83"/>
-    <hyperlink ref="H13" r:id="rId84"/>
-    <hyperlink ref="H12" r:id="rId85"/>
-    <hyperlink ref="H11" r:id="rId86"/>
-    <hyperlink ref="H10" r:id="rId87"/>
-    <hyperlink ref="H19" r:id="rId88"/>
-    <hyperlink ref="H23" r:id="rId89"/>
-    <hyperlink ref="H24" r:id="rId90"/>
-    <hyperlink ref="H25" r:id="rId91"/>
-    <hyperlink ref="H27" r:id="rId92"/>
-    <hyperlink ref="H29" r:id="rId93"/>
-    <hyperlink ref="H31" r:id="rId94"/>
-    <hyperlink ref="H33" r:id="rId95"/>
-    <hyperlink ref="H34" r:id="rId96"/>
-    <hyperlink ref="H35" r:id="rId97"/>
-    <hyperlink ref="H36" r:id="rId98"/>
-    <hyperlink ref="H38" r:id="rId99"/>
-    <hyperlink ref="H40" r:id="rId100"/>
-    <hyperlink ref="H41" r:id="rId101"/>
-    <hyperlink ref="H45" r:id="rId102"/>
-    <hyperlink ref="H46" r:id="rId103"/>
-    <hyperlink ref="H47" r:id="rId104"/>
-    <hyperlink ref="H48" r:id="rId105"/>
-    <hyperlink ref="H49" r:id="rId106"/>
-    <hyperlink ref="H52" r:id="rId107"/>
-    <hyperlink ref="H55" r:id="rId108"/>
-    <hyperlink ref="H56" r:id="rId109"/>
-    <hyperlink ref="H58" r:id="rId110"/>
-    <hyperlink ref="H59" r:id="rId111"/>
-    <hyperlink ref="H60" r:id="rId112"/>
-    <hyperlink ref="H80" r:id="rId113"/>
-    <hyperlink ref="H79" r:id="rId114"/>
-    <hyperlink ref="H77" r:id="rId115"/>
-    <hyperlink ref="H76" r:id="rId116"/>
-    <hyperlink ref="H74" r:id="rId117"/>
-    <hyperlink ref="H73" r:id="rId118"/>
-    <hyperlink ref="H71" r:id="rId119"/>
-    <hyperlink ref="H70" r:id="rId120"/>
-    <hyperlink ref="H69" r:id="rId121"/>
-    <hyperlink ref="H67" r:id="rId122"/>
-    <hyperlink ref="H66" r:id="rId123"/>
-    <hyperlink ref="H50" r:id="rId124"/>
-    <hyperlink ref="G26" r:id="rId125"/>
-    <hyperlink ref="G24" r:id="rId126"/>
-    <hyperlink ref="G19" r:id="rId127"/>
-    <hyperlink ref="G23" r:id="rId128"/>
-    <hyperlink ref="G31" r:id="rId129"/>
-    <hyperlink ref="G33" r:id="rId130"/>
-    <hyperlink ref="G34" r:id="rId131"/>
-    <hyperlink ref="G35" r:id="rId132"/>
-    <hyperlink ref="G38" r:id="rId133"/>
-    <hyperlink ref="G40" r:id="rId134"/>
-    <hyperlink ref="G41" r:id="rId135"/>
-    <hyperlink ref="G29" r:id="rId136"/>
-    <hyperlink ref="G60" r:id="rId137"/>
-    <hyperlink ref="G66" r:id="rId138"/>
-    <hyperlink ref="G67" r:id="rId139"/>
-    <hyperlink ref="G69" r:id="rId140"/>
-    <hyperlink ref="G71" r:id="rId141"/>
-    <hyperlink ref="G73" r:id="rId142"/>
-    <hyperlink ref="G74" r:id="rId143"/>
-    <hyperlink ref="G76" r:id="rId144"/>
-    <hyperlink ref="G77" r:id="rId145"/>
-    <hyperlink ref="G79" r:id="rId146"/>
-    <hyperlink ref="G80" r:id="rId147"/>
+    <hyperlink ref="H4" r:id="rId27"/>
+    <hyperlink ref="H9" r:id="rId28"/>
+    <hyperlink ref="H14" r:id="rId29"/>
+    <hyperlink ref="H15" r:id="rId30"/>
+    <hyperlink ref="H16" r:id="rId31"/>
+    <hyperlink ref="G16" r:id="rId32"/>
+    <hyperlink ref="G24" r:id="rId33"/>
+    <hyperlink ref="G37" r:id="rId34"/>
+    <hyperlink ref="G30" r:id="rId35"/>
+    <hyperlink ref="G26" r:id="rId36"/>
+    <hyperlink ref="G28" r:id="rId37"/>
+    <hyperlink ref="G32" r:id="rId38"/>
+    <hyperlink ref="G42" r:id="rId39"/>
+    <hyperlink ref="G43" r:id="rId40"/>
+    <hyperlink ref="G44" r:id="rId41"/>
+    <hyperlink ref="G51" r:id="rId42"/>
+    <hyperlink ref="G53" r:id="rId43"/>
+    <hyperlink ref="G57" r:id="rId44"/>
+    <hyperlink ref="G61" r:id="rId45"/>
+    <hyperlink ref="G62" r:id="rId46"/>
+    <hyperlink ref="G63" r:id="rId47"/>
+    <hyperlink ref="G64" r:id="rId48"/>
+    <hyperlink ref="G65" r:id="rId49"/>
+    <hyperlink ref="G68" r:id="rId50"/>
+    <hyperlink ref="G72" r:id="rId51"/>
+    <hyperlink ref="G75" r:id="rId52"/>
+    <hyperlink ref="G78" r:id="rId53"/>
+    <hyperlink ref="G55" r:id="rId54"/>
+    <hyperlink ref="H78" r:id="rId55"/>
+    <hyperlink ref="H72" r:id="rId56"/>
+    <hyperlink ref="H68" r:id="rId57"/>
+    <hyperlink ref="H65" r:id="rId58"/>
+    <hyperlink ref="H64" r:id="rId59"/>
+    <hyperlink ref="H62" r:id="rId60"/>
+    <hyperlink ref="H61" r:id="rId61"/>
+    <hyperlink ref="H57" r:id="rId62"/>
+    <hyperlink ref="H54" r:id="rId63"/>
+    <hyperlink ref="H53" r:id="rId64"/>
+    <hyperlink ref="H42" r:id="rId65"/>
+    <hyperlink ref="H44" r:id="rId66"/>
+    <hyperlink ref="H43" r:id="rId67"/>
+    <hyperlink ref="H32" r:id="rId68"/>
+    <hyperlink ref="H37" r:id="rId69"/>
+    <hyperlink ref="H30" r:id="rId70"/>
+    <hyperlink ref="H28" r:id="rId71"/>
+    <hyperlink ref="H25" r:id="rId72"/>
+    <hyperlink ref="H21" r:id="rId73"/>
+    <hyperlink ref="H20" r:id="rId74"/>
+    <hyperlink ref="H17" r:id="rId75"/>
+    <hyperlink ref="H3" r:id="rId76"/>
+    <hyperlink ref="H5" r:id="rId77"/>
+    <hyperlink ref="H6" r:id="rId78"/>
+    <hyperlink ref="H7" r:id="rId79"/>
+    <hyperlink ref="H8" r:id="rId80"/>
+    <hyperlink ref="H13" r:id="rId81"/>
+    <hyperlink ref="H12" r:id="rId82"/>
+    <hyperlink ref="H11" r:id="rId83"/>
+    <hyperlink ref="H10" r:id="rId84"/>
+    <hyperlink ref="H22" r:id="rId85"/>
+    <hyperlink ref="H23" r:id="rId86"/>
+    <hyperlink ref="H24" r:id="rId87"/>
+    <hyperlink ref="H26" r:id="rId88"/>
+    <hyperlink ref="H29" r:id="rId89"/>
+    <hyperlink ref="H31" r:id="rId90"/>
+    <hyperlink ref="H33" r:id="rId91"/>
+    <hyperlink ref="H34" r:id="rId92"/>
+    <hyperlink ref="H35" r:id="rId93"/>
+    <hyperlink ref="H36" r:id="rId94"/>
+    <hyperlink ref="H38" r:id="rId95"/>
+    <hyperlink ref="H40" r:id="rId96"/>
+    <hyperlink ref="H41" r:id="rId97"/>
+    <hyperlink ref="H45" r:id="rId98"/>
+    <hyperlink ref="H46" r:id="rId99"/>
+    <hyperlink ref="H47" r:id="rId100"/>
+    <hyperlink ref="H48" r:id="rId101"/>
+    <hyperlink ref="H49" r:id="rId102"/>
+    <hyperlink ref="H55" r:id="rId103"/>
+    <hyperlink ref="H56" r:id="rId104"/>
+    <hyperlink ref="H58" r:id="rId105"/>
+    <hyperlink ref="H59" r:id="rId106"/>
+    <hyperlink ref="H60" r:id="rId107"/>
+    <hyperlink ref="H80" r:id="rId108"/>
+    <hyperlink ref="H79" r:id="rId109"/>
+    <hyperlink ref="H77" r:id="rId110"/>
+    <hyperlink ref="H76" r:id="rId111"/>
+    <hyperlink ref="H74" r:id="rId112"/>
+    <hyperlink ref="H73" r:id="rId113"/>
+    <hyperlink ref="H71" r:id="rId114"/>
+    <hyperlink ref="H70" r:id="rId115"/>
+    <hyperlink ref="H69" r:id="rId116"/>
+    <hyperlink ref="H67" r:id="rId117"/>
+    <hyperlink ref="H66" r:id="rId118"/>
+    <hyperlink ref="H50" r:id="rId119"/>
+    <hyperlink ref="G25" r:id="rId120"/>
+    <hyperlink ref="G23" r:id="rId121"/>
+    <hyperlink ref="G22" r:id="rId122"/>
+    <hyperlink ref="G31" r:id="rId123"/>
+    <hyperlink ref="G33" r:id="rId124"/>
+    <hyperlink ref="G34" r:id="rId125"/>
+    <hyperlink ref="G35" r:id="rId126"/>
+    <hyperlink ref="G38" r:id="rId127"/>
+    <hyperlink ref="G40" r:id="rId128"/>
+    <hyperlink ref="G41" r:id="rId129"/>
+    <hyperlink ref="G29" r:id="rId130"/>
+    <hyperlink ref="G60" r:id="rId131"/>
+    <hyperlink ref="G66" r:id="rId132"/>
+    <hyperlink ref="G67" r:id="rId133"/>
+    <hyperlink ref="G69" r:id="rId134"/>
+    <hyperlink ref="G71" r:id="rId135"/>
+    <hyperlink ref="G73" r:id="rId136"/>
+    <hyperlink ref="G74" r:id="rId137"/>
+    <hyperlink ref="G76" r:id="rId138"/>
+    <hyperlink ref="G77" r:id="rId139"/>
+    <hyperlink ref="G79" r:id="rId140"/>
+    <hyperlink ref="G80" r:id="rId141"/>
+    <hyperlink ref="G27" r:id="rId142"/>
+    <hyperlink ref="H27" r:id="rId143"/>
+    <hyperlink ref="G39" r:id="rId144"/>
+    <hyperlink ref="H39" r:id="rId145"/>
+    <hyperlink ref="H18" r:id="rId146"/>
+    <hyperlink ref="H52" r:id="rId147"/>
+    <hyperlink ref="H51" r:id="rId148"/>
+    <hyperlink ref="H63" r:id="rId149"/>
+    <hyperlink ref="H75" r:id="rId150"/>
+    <hyperlink ref="H19" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId152"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="234">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2421,7 +2421,9 @@
       <c r="F47" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" s="10" t="s">
         <v>201</v>
       </c>
@@ -2549,7 +2551,9 @@
       <c r="F52" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="H52" s="10" t="s">
         <v>209</v>
       </c>
@@ -4310,8 +4314,10 @@
     <hyperlink ref="H63" r:id="rId149"/>
     <hyperlink ref="H75" r:id="rId150"/>
     <hyperlink ref="H19" r:id="rId151"/>
+    <hyperlink ref="G47" r:id="rId152"/>
+    <hyperlink ref="G52" r:id="rId153"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId152"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB4A9-7866-4533-AF6E-D674A7514585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-23550" yWindow="885" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="235">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -750,11 +751,14 @@
   <si>
     <t>https://www.radiosol.co.il/podcast-30</t>
   </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_9f7705cdc703488682be6c23c9e1b154~mv2.jpeg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1191,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2552,7 +2556,7 @@
         <v>208</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>209</v>
@@ -4163,159 +4167,159 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G36" r:id="rId4"/>
-    <hyperlink ref="G48" r:id="rId5"/>
-    <hyperlink ref="G49" r:id="rId6"/>
-    <hyperlink ref="G56" r:id="rId7"/>
-    <hyperlink ref="G58" r:id="rId8"/>
-    <hyperlink ref="G59" r:id="rId9"/>
-    <hyperlink ref="G70" r:id="rId10"/>
-    <hyperlink ref="G3" r:id="rId11"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="H2" r:id="rId13"/>
-    <hyperlink ref="G6" r:id="rId14"/>
-    <hyperlink ref="G7" r:id="rId15"/>
-    <hyperlink ref="G8" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="G11" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="G14" r:id="rId20"/>
-    <hyperlink ref="G15" r:id="rId21"/>
-    <hyperlink ref="G17" r:id="rId22"/>
-    <hyperlink ref="G18" r:id="rId23"/>
-    <hyperlink ref="G19" r:id="rId24"/>
-    <hyperlink ref="G20" r:id="rId25"/>
-    <hyperlink ref="G21" r:id="rId26"/>
-    <hyperlink ref="H4" r:id="rId27"/>
-    <hyperlink ref="H9" r:id="rId28"/>
-    <hyperlink ref="H14" r:id="rId29"/>
-    <hyperlink ref="H15" r:id="rId30"/>
-    <hyperlink ref="H16" r:id="rId31"/>
-    <hyperlink ref="G16" r:id="rId32"/>
-    <hyperlink ref="G24" r:id="rId33"/>
-    <hyperlink ref="G37" r:id="rId34"/>
-    <hyperlink ref="G30" r:id="rId35"/>
-    <hyperlink ref="G26" r:id="rId36"/>
-    <hyperlink ref="G28" r:id="rId37"/>
-    <hyperlink ref="G32" r:id="rId38"/>
-    <hyperlink ref="G42" r:id="rId39"/>
-    <hyperlink ref="G43" r:id="rId40"/>
-    <hyperlink ref="G44" r:id="rId41"/>
-    <hyperlink ref="G51" r:id="rId42"/>
-    <hyperlink ref="G53" r:id="rId43"/>
-    <hyperlink ref="G57" r:id="rId44"/>
-    <hyperlink ref="G61" r:id="rId45"/>
-    <hyperlink ref="G62" r:id="rId46"/>
-    <hyperlink ref="G63" r:id="rId47"/>
-    <hyperlink ref="G64" r:id="rId48"/>
-    <hyperlink ref="G65" r:id="rId49"/>
-    <hyperlink ref="G68" r:id="rId50"/>
-    <hyperlink ref="G72" r:id="rId51"/>
-    <hyperlink ref="G75" r:id="rId52"/>
-    <hyperlink ref="G78" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="H78" r:id="rId55"/>
-    <hyperlink ref="H72" r:id="rId56"/>
-    <hyperlink ref="H68" r:id="rId57"/>
-    <hyperlink ref="H65" r:id="rId58"/>
-    <hyperlink ref="H64" r:id="rId59"/>
-    <hyperlink ref="H62" r:id="rId60"/>
-    <hyperlink ref="H61" r:id="rId61"/>
-    <hyperlink ref="H57" r:id="rId62"/>
-    <hyperlink ref="H54" r:id="rId63"/>
-    <hyperlink ref="H53" r:id="rId64"/>
-    <hyperlink ref="H42" r:id="rId65"/>
-    <hyperlink ref="H44" r:id="rId66"/>
-    <hyperlink ref="H43" r:id="rId67"/>
-    <hyperlink ref="H32" r:id="rId68"/>
-    <hyperlink ref="H37" r:id="rId69"/>
-    <hyperlink ref="H30" r:id="rId70"/>
-    <hyperlink ref="H28" r:id="rId71"/>
-    <hyperlink ref="H25" r:id="rId72"/>
-    <hyperlink ref="H21" r:id="rId73"/>
-    <hyperlink ref="H20" r:id="rId74"/>
-    <hyperlink ref="H17" r:id="rId75"/>
-    <hyperlink ref="H3" r:id="rId76"/>
-    <hyperlink ref="H5" r:id="rId77"/>
-    <hyperlink ref="H6" r:id="rId78"/>
-    <hyperlink ref="H7" r:id="rId79"/>
-    <hyperlink ref="H8" r:id="rId80"/>
-    <hyperlink ref="H13" r:id="rId81"/>
-    <hyperlink ref="H12" r:id="rId82"/>
-    <hyperlink ref="H11" r:id="rId83"/>
-    <hyperlink ref="H10" r:id="rId84"/>
-    <hyperlink ref="H22" r:id="rId85"/>
-    <hyperlink ref="H23" r:id="rId86"/>
-    <hyperlink ref="H24" r:id="rId87"/>
-    <hyperlink ref="H26" r:id="rId88"/>
-    <hyperlink ref="H29" r:id="rId89"/>
-    <hyperlink ref="H31" r:id="rId90"/>
-    <hyperlink ref="H33" r:id="rId91"/>
-    <hyperlink ref="H34" r:id="rId92"/>
-    <hyperlink ref="H35" r:id="rId93"/>
-    <hyperlink ref="H36" r:id="rId94"/>
-    <hyperlink ref="H38" r:id="rId95"/>
-    <hyperlink ref="H40" r:id="rId96"/>
-    <hyperlink ref="H41" r:id="rId97"/>
-    <hyperlink ref="H45" r:id="rId98"/>
-    <hyperlink ref="H46" r:id="rId99"/>
-    <hyperlink ref="H47" r:id="rId100"/>
-    <hyperlink ref="H48" r:id="rId101"/>
-    <hyperlink ref="H49" r:id="rId102"/>
-    <hyperlink ref="H55" r:id="rId103"/>
-    <hyperlink ref="H56" r:id="rId104"/>
-    <hyperlink ref="H58" r:id="rId105"/>
-    <hyperlink ref="H59" r:id="rId106"/>
-    <hyperlink ref="H60" r:id="rId107"/>
-    <hyperlink ref="H80" r:id="rId108"/>
-    <hyperlink ref="H79" r:id="rId109"/>
-    <hyperlink ref="H77" r:id="rId110"/>
-    <hyperlink ref="H76" r:id="rId111"/>
-    <hyperlink ref="H74" r:id="rId112"/>
-    <hyperlink ref="H73" r:id="rId113"/>
-    <hyperlink ref="H71" r:id="rId114"/>
-    <hyperlink ref="H70" r:id="rId115"/>
-    <hyperlink ref="H69" r:id="rId116"/>
-    <hyperlink ref="H67" r:id="rId117"/>
-    <hyperlink ref="H66" r:id="rId118"/>
-    <hyperlink ref="H50" r:id="rId119"/>
-    <hyperlink ref="G25" r:id="rId120"/>
-    <hyperlink ref="G23" r:id="rId121"/>
-    <hyperlink ref="G22" r:id="rId122"/>
-    <hyperlink ref="G31" r:id="rId123"/>
-    <hyperlink ref="G33" r:id="rId124"/>
-    <hyperlink ref="G34" r:id="rId125"/>
-    <hyperlink ref="G35" r:id="rId126"/>
-    <hyperlink ref="G38" r:id="rId127"/>
-    <hyperlink ref="G40" r:id="rId128"/>
-    <hyperlink ref="G41" r:id="rId129"/>
-    <hyperlink ref="G29" r:id="rId130"/>
-    <hyperlink ref="G60" r:id="rId131"/>
-    <hyperlink ref="G66" r:id="rId132"/>
-    <hyperlink ref="G67" r:id="rId133"/>
-    <hyperlink ref="G69" r:id="rId134"/>
-    <hyperlink ref="G71" r:id="rId135"/>
-    <hyperlink ref="G73" r:id="rId136"/>
-    <hyperlink ref="G74" r:id="rId137"/>
-    <hyperlink ref="G76" r:id="rId138"/>
-    <hyperlink ref="G77" r:id="rId139"/>
-    <hyperlink ref="G79" r:id="rId140"/>
-    <hyperlink ref="G80" r:id="rId141"/>
-    <hyperlink ref="G27" r:id="rId142"/>
-    <hyperlink ref="H27" r:id="rId143"/>
-    <hyperlink ref="G39" r:id="rId144"/>
-    <hyperlink ref="H39" r:id="rId145"/>
-    <hyperlink ref="H18" r:id="rId146"/>
-    <hyperlink ref="H52" r:id="rId147"/>
-    <hyperlink ref="H51" r:id="rId148"/>
-    <hyperlink ref="H63" r:id="rId149"/>
-    <hyperlink ref="H75" r:id="rId150"/>
-    <hyperlink ref="H19" r:id="rId151"/>
-    <hyperlink ref="G47" r:id="rId152"/>
-    <hyperlink ref="G52" r:id="rId153"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G70" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H20" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H6" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H7" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H13" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H11" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H22" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H24" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H26" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H29" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H33" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H34" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H35" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H40" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H41" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H45" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H48" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H49" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H58" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H59" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H60" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H80" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H77" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H76" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H74" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H73" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H71" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H70" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H69" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H67" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H66" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G25" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G31" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G38" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G41" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G29" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G73" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G80" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G27" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H18" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H52" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H51" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H63" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H75" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H19" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G47" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB4A9-7866-4533-AF6E-D674A7514585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23550" yWindow="885" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="234">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -751,14 +750,11 @@
   <si>
     <t>https://www.radiosol.co.il/podcast-30</t>
   </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_9f7705cdc703488682be6c23c9e1b154~mv2.jpeg</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1195,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1482,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D11" s="12">
         <v>0.33333333333333331</v>
@@ -1794,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D23" s="12">
         <v>0.33333333333333331</v>
@@ -2106,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D35" s="12">
         <v>0.33333333333333331</v>
@@ -2414,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D47" s="12">
         <v>0.33333333333333331</v>
@@ -2556,7 +2552,7 @@
         <v>208</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>209</v>
@@ -2726,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D59" s="12">
         <v>0.33333333333333331</v>
@@ -3012,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="12">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D70" s="12">
         <v>0.33333333333333331</v>
@@ -3272,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D80" s="2">
         <v>0.33333333333333331</v>
@@ -4167,159 +4163,159 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G70" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H20" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H6" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H7" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H13" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H11" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H22" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H24" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H26" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H29" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H33" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H34" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H35" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H40" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H41" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H45" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H48" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H49" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H58" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H59" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H60" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H80" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H77" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H76" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H74" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H73" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H71" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H70" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H69" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H67" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H66" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="G25" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="G22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="G31" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G38" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G41" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="G29" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G73" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G80" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G27" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H18" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H52" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H51" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H63" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H75" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H19" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="G47" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G36" r:id="rId4"/>
+    <hyperlink ref="G48" r:id="rId5"/>
+    <hyperlink ref="G49" r:id="rId6"/>
+    <hyperlink ref="G56" r:id="rId7"/>
+    <hyperlink ref="G58" r:id="rId8"/>
+    <hyperlink ref="G59" r:id="rId9"/>
+    <hyperlink ref="G70" r:id="rId10"/>
+    <hyperlink ref="G3" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="H2" r:id="rId13"/>
+    <hyperlink ref="G6" r:id="rId14"/>
+    <hyperlink ref="G7" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
+    <hyperlink ref="G15" r:id="rId21"/>
+    <hyperlink ref="G17" r:id="rId22"/>
+    <hyperlink ref="G18" r:id="rId23"/>
+    <hyperlink ref="G19" r:id="rId24"/>
+    <hyperlink ref="G20" r:id="rId25"/>
+    <hyperlink ref="G21" r:id="rId26"/>
+    <hyperlink ref="H4" r:id="rId27"/>
+    <hyperlink ref="H9" r:id="rId28"/>
+    <hyperlink ref="H14" r:id="rId29"/>
+    <hyperlink ref="H15" r:id="rId30"/>
+    <hyperlink ref="H16" r:id="rId31"/>
+    <hyperlink ref="G16" r:id="rId32"/>
+    <hyperlink ref="G24" r:id="rId33"/>
+    <hyperlink ref="G37" r:id="rId34"/>
+    <hyperlink ref="G30" r:id="rId35"/>
+    <hyperlink ref="G26" r:id="rId36"/>
+    <hyperlink ref="G28" r:id="rId37"/>
+    <hyperlink ref="G32" r:id="rId38"/>
+    <hyperlink ref="G42" r:id="rId39"/>
+    <hyperlink ref="G43" r:id="rId40"/>
+    <hyperlink ref="G44" r:id="rId41"/>
+    <hyperlink ref="G51" r:id="rId42"/>
+    <hyperlink ref="G53" r:id="rId43"/>
+    <hyperlink ref="G57" r:id="rId44"/>
+    <hyperlink ref="G61" r:id="rId45"/>
+    <hyperlink ref="G62" r:id="rId46"/>
+    <hyperlink ref="G63" r:id="rId47"/>
+    <hyperlink ref="G64" r:id="rId48"/>
+    <hyperlink ref="G65" r:id="rId49"/>
+    <hyperlink ref="G68" r:id="rId50"/>
+    <hyperlink ref="G72" r:id="rId51"/>
+    <hyperlink ref="G75" r:id="rId52"/>
+    <hyperlink ref="G78" r:id="rId53"/>
+    <hyperlink ref="G55" r:id="rId54"/>
+    <hyperlink ref="H78" r:id="rId55"/>
+    <hyperlink ref="H72" r:id="rId56"/>
+    <hyperlink ref="H68" r:id="rId57"/>
+    <hyperlink ref="H65" r:id="rId58"/>
+    <hyperlink ref="H64" r:id="rId59"/>
+    <hyperlink ref="H62" r:id="rId60"/>
+    <hyperlink ref="H61" r:id="rId61"/>
+    <hyperlink ref="H57" r:id="rId62"/>
+    <hyperlink ref="H54" r:id="rId63"/>
+    <hyperlink ref="H53" r:id="rId64"/>
+    <hyperlink ref="H42" r:id="rId65"/>
+    <hyperlink ref="H44" r:id="rId66"/>
+    <hyperlink ref="H43" r:id="rId67"/>
+    <hyperlink ref="H32" r:id="rId68"/>
+    <hyperlink ref="H37" r:id="rId69"/>
+    <hyperlink ref="H30" r:id="rId70"/>
+    <hyperlink ref="H28" r:id="rId71"/>
+    <hyperlink ref="H25" r:id="rId72"/>
+    <hyperlink ref="H21" r:id="rId73"/>
+    <hyperlink ref="H20" r:id="rId74"/>
+    <hyperlink ref="H17" r:id="rId75"/>
+    <hyperlink ref="H3" r:id="rId76"/>
+    <hyperlink ref="H5" r:id="rId77"/>
+    <hyperlink ref="H6" r:id="rId78"/>
+    <hyperlink ref="H7" r:id="rId79"/>
+    <hyperlink ref="H8" r:id="rId80"/>
+    <hyperlink ref="H13" r:id="rId81"/>
+    <hyperlink ref="H12" r:id="rId82"/>
+    <hyperlink ref="H11" r:id="rId83"/>
+    <hyperlink ref="H10" r:id="rId84"/>
+    <hyperlink ref="H22" r:id="rId85"/>
+    <hyperlink ref="H23" r:id="rId86"/>
+    <hyperlink ref="H24" r:id="rId87"/>
+    <hyperlink ref="H26" r:id="rId88"/>
+    <hyperlink ref="H29" r:id="rId89"/>
+    <hyperlink ref="H31" r:id="rId90"/>
+    <hyperlink ref="H33" r:id="rId91"/>
+    <hyperlink ref="H34" r:id="rId92"/>
+    <hyperlink ref="H35" r:id="rId93"/>
+    <hyperlink ref="H36" r:id="rId94"/>
+    <hyperlink ref="H38" r:id="rId95"/>
+    <hyperlink ref="H40" r:id="rId96"/>
+    <hyperlink ref="H41" r:id="rId97"/>
+    <hyperlink ref="H45" r:id="rId98"/>
+    <hyperlink ref="H46" r:id="rId99"/>
+    <hyperlink ref="H47" r:id="rId100"/>
+    <hyperlink ref="H48" r:id="rId101"/>
+    <hyperlink ref="H49" r:id="rId102"/>
+    <hyperlink ref="H55" r:id="rId103"/>
+    <hyperlink ref="H56" r:id="rId104"/>
+    <hyperlink ref="H58" r:id="rId105"/>
+    <hyperlink ref="H59" r:id="rId106"/>
+    <hyperlink ref="H60" r:id="rId107"/>
+    <hyperlink ref="H80" r:id="rId108"/>
+    <hyperlink ref="H79" r:id="rId109"/>
+    <hyperlink ref="H77" r:id="rId110"/>
+    <hyperlink ref="H76" r:id="rId111"/>
+    <hyperlink ref="H74" r:id="rId112"/>
+    <hyperlink ref="H73" r:id="rId113"/>
+    <hyperlink ref="H71" r:id="rId114"/>
+    <hyperlink ref="H70" r:id="rId115"/>
+    <hyperlink ref="H69" r:id="rId116"/>
+    <hyperlink ref="H67" r:id="rId117"/>
+    <hyperlink ref="H66" r:id="rId118"/>
+    <hyperlink ref="H50" r:id="rId119"/>
+    <hyperlink ref="G25" r:id="rId120"/>
+    <hyperlink ref="G23" r:id="rId121"/>
+    <hyperlink ref="G22" r:id="rId122"/>
+    <hyperlink ref="G31" r:id="rId123"/>
+    <hyperlink ref="G33" r:id="rId124"/>
+    <hyperlink ref="G34" r:id="rId125"/>
+    <hyperlink ref="G35" r:id="rId126"/>
+    <hyperlink ref="G38" r:id="rId127"/>
+    <hyperlink ref="G40" r:id="rId128"/>
+    <hyperlink ref="G41" r:id="rId129"/>
+    <hyperlink ref="G29" r:id="rId130"/>
+    <hyperlink ref="G60" r:id="rId131"/>
+    <hyperlink ref="G66" r:id="rId132"/>
+    <hyperlink ref="G67" r:id="rId133"/>
+    <hyperlink ref="G69" r:id="rId134"/>
+    <hyperlink ref="G71" r:id="rId135"/>
+    <hyperlink ref="G73" r:id="rId136"/>
+    <hyperlink ref="G74" r:id="rId137"/>
+    <hyperlink ref="G76" r:id="rId138"/>
+    <hyperlink ref="G77" r:id="rId139"/>
+    <hyperlink ref="G79" r:id="rId140"/>
+    <hyperlink ref="G80" r:id="rId141"/>
+    <hyperlink ref="G27" r:id="rId142"/>
+    <hyperlink ref="H27" r:id="rId143"/>
+    <hyperlink ref="G39" r:id="rId144"/>
+    <hyperlink ref="H39" r:id="rId145"/>
+    <hyperlink ref="H18" r:id="rId146"/>
+    <hyperlink ref="H52" r:id="rId147"/>
+    <hyperlink ref="H51" r:id="rId148"/>
+    <hyperlink ref="H63" r:id="rId149"/>
+    <hyperlink ref="H75" r:id="rId150"/>
+    <hyperlink ref="H19" r:id="rId151"/>
+    <hyperlink ref="G47" r:id="rId152"/>
+    <hyperlink ref="G52" r:id="rId153"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\לוח שידורים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04501583-B86D-4E51-AFE7-C8A6DFC00651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-23430" yWindow="330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -750,11 +751,14 @@
   <si>
     <t>https://www.radiosol.co.il/podcast-30</t>
   </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_9c332f9cc93c441cbedc68dae347a423~mv2.jpeg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1191,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1455,7 +1459,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D10" s="12">
-        <v>1</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>47</v>
@@ -1478,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D11" s="12">
         <v>0.33333333333333331</v>
@@ -1767,7 +1771,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D22" s="12">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>47</v>
@@ -1790,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D23" s="12">
         <v>0.33333333333333331</v>
@@ -2079,7 +2083,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D34" s="12">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>47</v>
@@ -2102,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D35" s="12">
         <v>0.33333333333333331</v>
@@ -2373,7 +2377,9 @@
       <c r="F45" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H45" s="10" t="s">
         <v>201</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D46" s="12">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>47</v>
@@ -2397,7 +2403,9 @@
       <c r="F46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" s="10" t="s">
         <v>201</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D47" s="12">
         <v>0.33333333333333331</v>
@@ -2552,7 +2560,7 @@
         <v>208</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>209</v>
@@ -2699,7 +2707,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D58" s="12">
-        <v>1</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>47</v>
@@ -2722,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D59" s="12">
         <v>0.33333333333333331</v>
@@ -2985,7 +2993,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D69" s="12">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>47</v>
@@ -3008,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="12">
-        <v>0.4993055555555555</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D70" s="12">
         <v>0.33333333333333331</v>
@@ -4163,161 +4171,163 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G36" r:id="rId4"/>
-    <hyperlink ref="G48" r:id="rId5"/>
-    <hyperlink ref="G49" r:id="rId6"/>
-    <hyperlink ref="G56" r:id="rId7"/>
-    <hyperlink ref="G58" r:id="rId8"/>
-    <hyperlink ref="G59" r:id="rId9"/>
-    <hyperlink ref="G70" r:id="rId10"/>
-    <hyperlink ref="G3" r:id="rId11"/>
-    <hyperlink ref="G4" r:id="rId12"/>
-    <hyperlink ref="H2" r:id="rId13"/>
-    <hyperlink ref="G6" r:id="rId14"/>
-    <hyperlink ref="G7" r:id="rId15"/>
-    <hyperlink ref="G8" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="G11" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="G14" r:id="rId20"/>
-    <hyperlink ref="G15" r:id="rId21"/>
-    <hyperlink ref="G17" r:id="rId22"/>
-    <hyperlink ref="G18" r:id="rId23"/>
-    <hyperlink ref="G19" r:id="rId24"/>
-    <hyperlink ref="G20" r:id="rId25"/>
-    <hyperlink ref="G21" r:id="rId26"/>
-    <hyperlink ref="H4" r:id="rId27"/>
-    <hyperlink ref="H9" r:id="rId28"/>
-    <hyperlink ref="H14" r:id="rId29"/>
-    <hyperlink ref="H15" r:id="rId30"/>
-    <hyperlink ref="H16" r:id="rId31"/>
-    <hyperlink ref="G16" r:id="rId32"/>
-    <hyperlink ref="G24" r:id="rId33"/>
-    <hyperlink ref="G37" r:id="rId34"/>
-    <hyperlink ref="G30" r:id="rId35"/>
-    <hyperlink ref="G26" r:id="rId36"/>
-    <hyperlink ref="G28" r:id="rId37"/>
-    <hyperlink ref="G32" r:id="rId38"/>
-    <hyperlink ref="G42" r:id="rId39"/>
-    <hyperlink ref="G43" r:id="rId40"/>
-    <hyperlink ref="G44" r:id="rId41"/>
-    <hyperlink ref="G51" r:id="rId42"/>
-    <hyperlink ref="G53" r:id="rId43"/>
-    <hyperlink ref="G57" r:id="rId44"/>
-    <hyperlink ref="G61" r:id="rId45"/>
-    <hyperlink ref="G62" r:id="rId46"/>
-    <hyperlink ref="G63" r:id="rId47"/>
-    <hyperlink ref="G64" r:id="rId48"/>
-    <hyperlink ref="G65" r:id="rId49"/>
-    <hyperlink ref="G68" r:id="rId50"/>
-    <hyperlink ref="G72" r:id="rId51"/>
-    <hyperlink ref="G75" r:id="rId52"/>
-    <hyperlink ref="G78" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="H78" r:id="rId55"/>
-    <hyperlink ref="H72" r:id="rId56"/>
-    <hyperlink ref="H68" r:id="rId57"/>
-    <hyperlink ref="H65" r:id="rId58"/>
-    <hyperlink ref="H64" r:id="rId59"/>
-    <hyperlink ref="H62" r:id="rId60"/>
-    <hyperlink ref="H61" r:id="rId61"/>
-    <hyperlink ref="H57" r:id="rId62"/>
-    <hyperlink ref="H54" r:id="rId63"/>
-    <hyperlink ref="H53" r:id="rId64"/>
-    <hyperlink ref="H42" r:id="rId65"/>
-    <hyperlink ref="H44" r:id="rId66"/>
-    <hyperlink ref="H43" r:id="rId67"/>
-    <hyperlink ref="H32" r:id="rId68"/>
-    <hyperlink ref="H37" r:id="rId69"/>
-    <hyperlink ref="H30" r:id="rId70"/>
-    <hyperlink ref="H28" r:id="rId71"/>
-    <hyperlink ref="H25" r:id="rId72"/>
-    <hyperlink ref="H21" r:id="rId73"/>
-    <hyperlink ref="H20" r:id="rId74"/>
-    <hyperlink ref="H17" r:id="rId75"/>
-    <hyperlink ref="H3" r:id="rId76"/>
-    <hyperlink ref="H5" r:id="rId77"/>
-    <hyperlink ref="H6" r:id="rId78"/>
-    <hyperlink ref="H7" r:id="rId79"/>
-    <hyperlink ref="H8" r:id="rId80"/>
-    <hyperlink ref="H13" r:id="rId81"/>
-    <hyperlink ref="H12" r:id="rId82"/>
-    <hyperlink ref="H11" r:id="rId83"/>
-    <hyperlink ref="H10" r:id="rId84"/>
-    <hyperlink ref="H22" r:id="rId85"/>
-    <hyperlink ref="H23" r:id="rId86"/>
-    <hyperlink ref="H24" r:id="rId87"/>
-    <hyperlink ref="H26" r:id="rId88"/>
-    <hyperlink ref="H29" r:id="rId89"/>
-    <hyperlink ref="H31" r:id="rId90"/>
-    <hyperlink ref="H33" r:id="rId91"/>
-    <hyperlink ref="H34" r:id="rId92"/>
-    <hyperlink ref="H35" r:id="rId93"/>
-    <hyperlink ref="H36" r:id="rId94"/>
-    <hyperlink ref="H38" r:id="rId95"/>
-    <hyperlink ref="H40" r:id="rId96"/>
-    <hyperlink ref="H41" r:id="rId97"/>
-    <hyperlink ref="H45" r:id="rId98"/>
-    <hyperlink ref="H46" r:id="rId99"/>
-    <hyperlink ref="H47" r:id="rId100"/>
-    <hyperlink ref="H48" r:id="rId101"/>
-    <hyperlink ref="H49" r:id="rId102"/>
-    <hyperlink ref="H55" r:id="rId103"/>
-    <hyperlink ref="H56" r:id="rId104"/>
-    <hyperlink ref="H58" r:id="rId105"/>
-    <hyperlink ref="H59" r:id="rId106"/>
-    <hyperlink ref="H60" r:id="rId107"/>
-    <hyperlink ref="H80" r:id="rId108"/>
-    <hyperlink ref="H79" r:id="rId109"/>
-    <hyperlink ref="H77" r:id="rId110"/>
-    <hyperlink ref="H76" r:id="rId111"/>
-    <hyperlink ref="H74" r:id="rId112"/>
-    <hyperlink ref="H73" r:id="rId113"/>
-    <hyperlink ref="H71" r:id="rId114"/>
-    <hyperlink ref="H70" r:id="rId115"/>
-    <hyperlink ref="H69" r:id="rId116"/>
-    <hyperlink ref="H67" r:id="rId117"/>
-    <hyperlink ref="H66" r:id="rId118"/>
-    <hyperlink ref="H50" r:id="rId119"/>
-    <hyperlink ref="G25" r:id="rId120"/>
-    <hyperlink ref="G23" r:id="rId121"/>
-    <hyperlink ref="G22" r:id="rId122"/>
-    <hyperlink ref="G31" r:id="rId123"/>
-    <hyperlink ref="G33" r:id="rId124"/>
-    <hyperlink ref="G34" r:id="rId125"/>
-    <hyperlink ref="G35" r:id="rId126"/>
-    <hyperlink ref="G38" r:id="rId127"/>
-    <hyperlink ref="G40" r:id="rId128"/>
-    <hyperlink ref="G41" r:id="rId129"/>
-    <hyperlink ref="G29" r:id="rId130"/>
-    <hyperlink ref="G60" r:id="rId131"/>
-    <hyperlink ref="G66" r:id="rId132"/>
-    <hyperlink ref="G67" r:id="rId133"/>
-    <hyperlink ref="G69" r:id="rId134"/>
-    <hyperlink ref="G71" r:id="rId135"/>
-    <hyperlink ref="G73" r:id="rId136"/>
-    <hyperlink ref="G74" r:id="rId137"/>
-    <hyperlink ref="G76" r:id="rId138"/>
-    <hyperlink ref="G77" r:id="rId139"/>
-    <hyperlink ref="G79" r:id="rId140"/>
-    <hyperlink ref="G80" r:id="rId141"/>
-    <hyperlink ref="G27" r:id="rId142"/>
-    <hyperlink ref="H27" r:id="rId143"/>
-    <hyperlink ref="G39" r:id="rId144"/>
-    <hyperlink ref="H39" r:id="rId145"/>
-    <hyperlink ref="H18" r:id="rId146"/>
-    <hyperlink ref="H52" r:id="rId147"/>
-    <hyperlink ref="H51" r:id="rId148"/>
-    <hyperlink ref="H63" r:id="rId149"/>
-    <hyperlink ref="H75" r:id="rId150"/>
-    <hyperlink ref="H19" r:id="rId151"/>
-    <hyperlink ref="G47" r:id="rId152"/>
-    <hyperlink ref="G52" r:id="rId153"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G70" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H20" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H6" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H7" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H13" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H11" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H22" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H24" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H26" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H29" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H33" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H34" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H35" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H40" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H41" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H45" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H48" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H49" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H58" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H59" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H60" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H80" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H77" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H76" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H74" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H73" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H71" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H70" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H69" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H67" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H66" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G25" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G31" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G38" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G41" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G29" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G73" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G80" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G27" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H18" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H52" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H51" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H63" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H75" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H19" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G47" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G45" r:id="rId154" xr:uid="{DB43FF1F-43E9-4213-A85A-4B66D653BE0D}"/>
+    <hyperlink ref="G46" r:id="rId155" xr:uid="{1EDEDB92-B081-46C7-B57B-5DBCB4903016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04501583-B86D-4E51-AFE7-C8A6DFC00651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{766F3C19-250C-4A0B-9BB6-84D4C001EADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23430" yWindow="330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="240">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -753,6 +753,21 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_9c332f9cc93c441cbedc68dae347a423~mv2.jpeg</t>
+  </si>
+  <si>
+    <t>דיגי סול</t>
+  </si>
+  <si>
+    <t>עולם הדיגיטל הנוח והמסוכן</t>
+  </si>
+  <si>
+    <t>בהגשת יובל ענתבי וברוך צדקה</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%91%D7%9C%D7%A2%D7%A0%D7%AA%D7%91%D7%99</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_f9ed02cb5e4b4e90b60fa3bb7fc759ef~mv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1398,7 +1413,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="13" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1407,91 +1422,91 @@
         <v>0.75</v>
       </c>
       <c r="D8" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D9" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D10" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
       </c>
       <c r="C11" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>87</v>
+      <c r="F11" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
@@ -1501,23 +1516,23 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="14" t="s">
-        <v>19</v>
+      <c r="A12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D12" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
@@ -1528,22 +1543,22 @@
     </row>
     <row r="13" spans="1:8" ht="18.75">
       <c r="A13" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13" s="12">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.45833333333333331</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
@@ -1554,256 +1569,256 @@
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
       </c>
       <c r="C14" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
       </c>
       <c r="C15" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="12">
         <v>0.5</v>
       </c>
-      <c r="D15" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
       </c>
       <c r="C16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D17" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
       </c>
       <c r="C18" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" s="12">
         <v>0.625</v>
       </c>
-      <c r="D18" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
       </c>
       <c r="C19" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
       </c>
       <c r="C20" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
       </c>
       <c r="C21" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
       <c r="C22" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D22" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D22" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>23</v>
@@ -1813,23 +1828,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="11" t="s">
-        <v>21</v>
+      <c r="A24" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D24" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.375</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>23</v>
@@ -1840,256 +1855,256 @@
     </row>
     <row r="25" spans="1:8" ht="18.75">
       <c r="A25" s="11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
       </c>
       <c r="C25" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="12">
         <v>0.375</v>
       </c>
-      <c r="D25" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
       <c r="A26" s="11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B26" s="11">
         <v>2</v>
       </c>
       <c r="C26" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D26" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
       <c r="A27" s="11" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
       <c r="C27" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="12">
         <v>0.5</v>
       </c>
-      <c r="D27" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
       <c r="C28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D28" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
       <c r="C29" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D29" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D29" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
       </c>
       <c r="C30" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D31" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D31" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
       <c r="C32" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D32" s="12">
-        <v>0.875</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
       </c>
       <c r="C33" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D33" s="12">
         <v>0.875</v>
       </c>
-      <c r="D33" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="11" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="D34" s="12">
         <v>0.91666666666666663</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0.99930555555555556</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>23</v>
@@ -2100,22 +2115,22 @@
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
       </c>
       <c r="C35" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D35" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
@@ -2125,23 +2140,23 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="14" t="s">
-        <v>8</v>
+      <c r="A36" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D36" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>24</v>
+      <c r="F36" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
@@ -2150,35 +2165,35 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A37" s="19" t="s">
-        <v>112</v>
+    <row r="37" spans="1:8" ht="18.75">
+      <c r="A37" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D37" s="12">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75">
-      <c r="A38" s="14" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2187,39 +2202,39 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D38" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D39" s="12">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
@@ -2230,22 +2245,22 @@
     </row>
     <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="14" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
@@ -2256,22 +2271,22 @@
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.625</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0.70833333333333337</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>23</v>
@@ -2282,126 +2297,126 @@
     </row>
     <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="14" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D42" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D42" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="37.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.75</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="37.5">
       <c r="A44" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D44" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="14" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D45" s="12">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="14" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.95833333333333337</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0.99930555555555556</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>23</v>
@@ -2412,22 +2427,22 @@
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D47" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
@@ -2438,22 +2453,22 @@
     </row>
     <row r="48" spans="1:8" ht="18.75">
       <c r="A48" s="14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B48" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D48" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
@@ -2463,23 +2478,23 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
-      <c r="A49" s="11" t="s">
-        <v>7</v>
+      <c r="A49" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B49" s="11">
         <v>4</v>
       </c>
       <c r="C49" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49" s="12">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
@@ -2490,256 +2505,256 @@
     </row>
     <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D50" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D50" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D51" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="11" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D52" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
       <c r="A53" s="11" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D53" s="12">
         <v>0.625</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D54" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="11" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D55" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>198</v>
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
       <c r="A56" s="11" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D56" s="12">
         <v>0.75</v>
       </c>
-      <c r="D56" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D57" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D58" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D58" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D59" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
@@ -2750,25 +2765,25 @@
     </row>
     <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="11" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="B60" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D60" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>201</v>
@@ -2776,178 +2791,178 @@
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
       </c>
       <c r="C61" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D61" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
       </c>
       <c r="C62" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D62" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D62" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.5</v>
       </c>
-      <c r="D63" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D65" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D66" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D66" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="11" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D67" s="12">
         <v>0.75</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0.83333333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
@@ -2958,103 +2973,103 @@
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D68" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D68" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>172</v>
+        <v>47</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D69" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D69" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>48</v>
+        <v>161</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75">
       <c r="A70" s="11" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D70" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F70" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="11">
+        <v>5</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>201</v>
@@ -3062,74 +3077,74 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
       </c>
       <c r="C72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D72" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>178</v>
+        <v>47</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="36">
-      <c r="A73" s="21" t="s">
-        <v>179</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.5</v>
       </c>
-      <c r="D73" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="36">
+      <c r="A74" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
@@ -3140,25 +3155,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.75</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>201</v>
@@ -3166,25 +3181,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.75</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>201</v>
@@ -3192,22 +3207,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.83333333333333337</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.91666666666666663</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
@@ -3218,74 +3233,74 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>0.4993055555555555</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D80" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
@@ -3294,245 +3309,265 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:7">
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:8">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="17"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="17"/>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:8">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="17"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:5">
+      <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:5">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:5">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="17"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1"/>
@@ -3635,13 +3670,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="1"/>
@@ -3653,14 +3688,14 @@
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="17"/>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="17"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="1"/>
@@ -3679,7 +3714,6 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" s="1"/>
@@ -3693,6 +3727,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
+      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="1"/>
@@ -3783,13 +3818,13 @@
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="17"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="1"/>
@@ -3808,7 +3843,6 @@
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6">
       <c r="B162" s="1"/>
@@ -3822,6 +3856,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
+      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6">
       <c r="B164" s="1"/>
@@ -3833,7 +3868,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" s="1"/>
@@ -3848,7 +3883,6 @@
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="7"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3862,6 +3896,7 @@
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:6">
+      <c r="A170" s="7"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3925,7 +3960,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="1"/>
@@ -3946,7 +3981,6 @@
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3960,17 +3994,18 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:6">
+      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="17"/>
     </row>
     <row r="187" spans="1:6">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
+      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" s="1"/>
@@ -3985,12 +4020,10 @@
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="17"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="3"/>
@@ -3998,6 +4031,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
+      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="3"/>
@@ -4049,13 +4083,13 @@
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5">
+      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4069,6 +4103,7 @@
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5">
+      <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4121,21 +4156,21 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="17"/>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
+      <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" s="1"/>
@@ -4160,174 +4195,182 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="17"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="8"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="1"/>
+      <c r="F217" s="17"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="3"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G59" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G70" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G57" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G59" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G60" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G71" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="G3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="H2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="G6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="G7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G19" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="H4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G28" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H78" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H72" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H54" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H42" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H32" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H30" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H20" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G25" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G73" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G76" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H58" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H55" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H43" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H45" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H44" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H31" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H29" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H26" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H22" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H18" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="H3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="H5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="H6" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="H7" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H8" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H13" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H11" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H22" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H23" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H24" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H26" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H29" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H33" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H34" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H35" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H38" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H40" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H41" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H45" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H48" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H49" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H58" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H59" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H60" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H80" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H79" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H77" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H76" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H74" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H73" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H71" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H70" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H69" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H67" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H66" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H50" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="G25" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G23" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="G22" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="G31" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G33" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G38" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G41" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="G29" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G73" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G80" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G27" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H18" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H52" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H51" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H63" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H75" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H19" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="G47" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G52" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="G45" r:id="rId154" xr:uid="{DB43FF1F-43E9-4213-A85A-4B66D653BE0D}"/>
-    <hyperlink ref="G46" r:id="rId155" xr:uid="{1EDEDB92-B081-46C7-B57B-5DBCB4903016}"/>
+    <hyperlink ref="H9" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H14" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H13" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H11" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H25" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H27" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H30" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H32" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H34" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H35" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H36" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H37" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H39" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H41" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H42" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H47" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H48" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H49" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H50" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H56" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H57" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H59" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H60" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H61" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H81" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H80" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H78" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H77" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H75" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H74" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H72" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H71" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H70" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H68" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H67" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H51" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G26" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G24" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G23" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G32" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G35" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G36" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G39" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G41" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G42" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G30" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G61" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G70" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G72" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G75" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G77" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G78" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G80" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G81" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G28" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H28" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G40" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H40" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H19" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H53" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H52" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H64" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H20" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G48" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G53" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G46" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G47" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H8" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G8" r:id="rId157" xr:uid="{2561417E-98F2-4E49-B9E1-29339C5876C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{766F3C19-250C-4A0B-9BB6-84D4C001EADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B430627-2D38-450A-AE62-D4AD4F15D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_e9b16b0fa47540249018034510875bf0~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_e7d45d45653a464298343a6cb45e4483~mv2.jpg</t>
   </si>
   <si>
     <t>יצירת שוויון בין מגדרים ומגזרים</t>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_f9ed02cb5e4b4e90b60fa3bb7fc759ef~mv2.jpg</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_b883e5920eba458dbcee0500c4845d93~mv2.png</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1278,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -1304,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
@@ -1321,7 +1321,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>42</v>
@@ -1330,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
@@ -1356,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
@@ -1382,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
@@ -1402,18 +1402,18 @@
         <v>47</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1425,16 +1425,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75">
@@ -1454,13 +1454,13 @@
         <v>47</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75">
@@ -1477,16 +1477,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
@@ -1506,13 +1506,13 @@
         <v>47</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
@@ -1532,13 +1532,13 @@
         <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
@@ -1564,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75">
@@ -1590,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75">
@@ -1607,16 +1607,16 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75">
@@ -1633,16 +1633,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75">
@@ -1659,16 +1659,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75">
@@ -1685,16 +1685,16 @@
         <v>0.625</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
@@ -1711,16 +1711,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
@@ -1737,16 +1737,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75">
@@ -1763,16 +1763,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75">
@@ -1789,16 +1789,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75">
@@ -1824,7 +1824,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75">
@@ -1844,13 +1844,13 @@
         <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75">
@@ -1876,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75">
@@ -1893,7 +1893,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>22</v>
@@ -1902,7 +1902,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75">
@@ -1922,18 +1922,18 @@
         <v>47</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1945,21 +1945,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1971,21 +1971,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -2000,18 +2000,18 @@
         <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -2023,21 +2023,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="G31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -2052,18 +2052,18 @@
         <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -2075,16 +2075,16 @@
         <v>0.875</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="G33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75">
@@ -2110,12 +2110,12 @@
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
@@ -2130,13 +2130,13 @@
         <v>47</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75">
@@ -2156,13 +2156,13 @@
         <v>47</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75">
@@ -2188,12 +2188,12 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2205,16 +2205,16 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="G38" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75">
@@ -2234,13 +2234,13 @@
         <v>47</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75">
@@ -2260,18 +2260,18 @@
         <v>47</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2292,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75">
@@ -2318,12 +2318,12 @@
         <v>23</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -2335,21 +2335,21 @@
         <v>0.75</v>
       </c>
       <c r="E43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="G43" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="37.5">
       <c r="A44" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
@@ -2361,21 +2361,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
@@ -2387,16 +2387,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="H45" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75">
@@ -2416,18 +2416,18 @@
         <v>47</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
@@ -2442,13 +2442,13 @@
         <v>47</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75">
@@ -2468,13 +2468,13 @@
         <v>47</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75">
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75">
@@ -2520,13 +2520,13 @@
         <v>47</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75">
@@ -2543,7 +2543,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>25</v>
@@ -2552,7 +2552,7 @@
         <v>26</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75">
@@ -2569,7 +2569,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>27</v>
@@ -2578,12 +2578,12 @@
         <v>28</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75">
       <c r="A53" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
@@ -2595,16 +2595,16 @@
         <v>0.625</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="G53" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75">
@@ -2621,7 +2621,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>29</v>
@@ -2630,7 +2630,7 @@
         <v>30</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75">
@@ -2647,7 +2647,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>31</v>
@@ -2656,12 +2656,12 @@
         <v>32</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75">
       <c r="A56" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
@@ -2673,16 +2673,16 @@
         <v>0.75</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="H56" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75">
@@ -2708,7 +2708,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75">
@@ -2725,7 +2725,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>33</v>
@@ -2734,7 +2734,7 @@
         <v>34</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.75">
@@ -2760,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75">
@@ -2780,18 +2780,18 @@
         <v>47</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="11">
         <v>5</v>
@@ -2806,18 +2806,18 @@
         <v>47</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2829,21 +2829,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F62" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="H62" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2855,21 +2855,21 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2881,21 +2881,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2907,21 +2907,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E65" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="G65" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2933,16 +2933,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="H66" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.75">
@@ -2962,18 +2962,18 @@
         <v>47</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
@@ -2988,18 +2988,18 @@
         <v>47</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -3011,21 +3011,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="H69" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75">
       <c r="A70" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -3046,7 +3046,7 @@
         <v>23</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1">
@@ -3066,18 +3066,18 @@
         <v>47</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -3092,18 +3092,18 @@
         <v>47</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3115,21 +3115,21 @@
         <v>0.5</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="H73" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="36">
       <c r="A74" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3141,21 +3141,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3170,18 +3170,18 @@
         <v>47</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3193,21 +3193,21 @@
         <v>0.75</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="H76" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3222,18 +3222,18 @@
         <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3254,12 +3254,12 @@
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3271,21 +3271,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="H79" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3300,13 +3300,13 @@
         <v>47</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3326,13 +3326,13 @@
         <v>47</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:8">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gal Rabino\Desktop\גרפיקה ושונות\שוקי רדיו סול\אתר רדיו סול\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B430627-2D38-450A-AE62-D4AD4F15D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="242">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -105,33 +104,18 @@
     <t>תכנית השראה, חישוב מסלול מחדש ויצור הצלחה</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%92%D7%99%D7%93%D7%99%20330.jpg</t>
-  </si>
-  <si>
     <t>הכל על נדל"ן עם מומחים בתחומים שונים</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_d198046f98c64f638245e99c81a44e1b~mv2.gif</t>
-  </si>
-  <si>
     <t>שירים חדשים ומה שביניהם</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_7a81d379f84b41d8b88be04360473a89~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%90%D7%A8%D7%99%20%D7%95%D7%9E%D7%99%D7%A8%D7%9C.jpg</t>
-  </si>
-  <si>
     <t>ערי השרון בחברה, בתחבורה, בנדל"ן ובפוליטיקה</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_968bceb2955940d3aa7c784d3e9a002e~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%92%D7%9C%D7%99%D7%A7%D7%95%D7%93%D7%95%D7%93%D7%99.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">  סצנת הראפ והיפ הופ ואירוח אמנים בז'אנר</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_25472ff3ec3940a8bbca8e60ce9d2018~mv2.jpg/v1/fill/w_162,h_171,al_c,q_80,usm_0.66_1.00_0.01,enc_auto/%D7%A8%D7%90%D7%A4%D7%A8.jpg</t>
-  </si>
-  <si>
     <t>מוזיקת מטאל</t>
   </si>
   <si>
@@ -159,9 +143,6 @@
     <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png/v1/fill/w_150,h_153,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/logo%20radio%20sol%20</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_0bc51adbc64e41c6ad35b58bda7fd66e~mv2.jpg</t>
-  </si>
-  <si>
     <t>הזכייניסטים</t>
   </si>
   <si>
@@ -183,9 +164,6 @@
     <t>חגיגה עם אמנים</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_d55566af20d84721bc73b6c2bb859758~mv2.jpg</t>
-  </si>
-  <si>
     <t>מכונת הגרוב</t>
   </si>
   <si>
@@ -249,7 +227,7 @@
     <t>מוזיקת ריקודים לשעות הלילה המאוחרות</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_e9b16b0fa47540249018034510875bf0~mv2.jpg</t>
+    <t>https://static.wixstatic.com/media/c39cce_e7d45d45653a464298343a6cb45e4483~mv2.jpg</t>
   </si>
   <si>
     <t>יצירת שוויון בין מגדרים ומגזרים</t>
@@ -298,21 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">שירי גרוב </t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_02fe03a59191489ba0c72eee5d323940~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_1ce4b1aa821944d0b1d4dc792a3d2447~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_77f0707a84294ce3b20628d8ef587a8b~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_bac135a9e97f4a10aa2292c1b79bc8b4~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/099e17_6f4acefacf404b1fbc083396c2884c2b~mv2.jpeg</t>
   </si>
   <si>
     <t>בהגשת רונית גלוסקא</t>
@@ -393,16 +356,7 @@
     <t>https://static.wixstatic.com/media/c39cce_d25843aaa8894784afe64e03658b8da3~mv2.jpg</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_b91ada7209cb452396d1815a779311be~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_562485534f094a74a9c1c7fe186e4a6d~mv2.png</t>
-  </si>
-  <si>
     <t>מוזיקה מזרחית לשעות הצהרים</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_65470fd08e9047468ec5ef68f654590b~mv2.jpg</t>
   </si>
   <si>
     <t>השירים שאהבנו מוזיקה ים תיכונית ומזרחית</t>
@@ -439,12 +393,6 @@
     <t>הכל על גיפים, טיולים ומומחים בתחום</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_118c238ae91441598492e222726887eb~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_0e4b5163ae1c42dea98cff3a1806fc2f~mv2.jpg</t>
-  </si>
-  <si>
     <t>ניו ווליום</t>
   </si>
   <si>
@@ -457,9 +405,6 @@
     <t>תכנית מוזיקה וד"שים</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_4e4385933cdc480c87f2102fea3aacb1~mv2.jpg</t>
-  </si>
-  <si>
     <t>מוזיקה לשעת ערב</t>
   </si>
   <si>
@@ -517,24 +462,9 @@
     <t>תכנית אקטואלית שבועית</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_04c27aa2e3e44fd9abcece7a6c504495~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_32ebff01032f4462b812c02582d73878~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_37811502283a49848bcf129f73c45c73~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_6dede50a93334d84bff381a5437b9d02~mv2.jpg</t>
-  </si>
-  <si>
     <t>בהגשת שמוליק מושקוביץ</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_8b8ecc020dfc4a3b9b1aab08ddc2f9eb~mv2.jpg</t>
-  </si>
-  <si>
     <t>תכנית לקראת שבת</t>
   </si>
   <si>
@@ -563,9 +493,6 @@
   </si>
   <si>
     <t>70 שירי שנות ה60' וה</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_c4be88cc8834457084fb998c1aea8aba~mv2.jpg</t>
   </si>
   <si>
     <t>המסיבה</t>
@@ -605,9 +532,6 @@
     <t>תכנית אירוח אישיים עם השירים שהיו לאבן דרך בחייהם</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_289f2db0c7e1428ab902c94ce1254a76~mv2.jpg</t>
-  </si>
-  <si>
     <t>חוויה ישראלית</t>
   </si>
   <si>
@@ -626,9 +550,6 @@
     <t>מוזיקת ג'אז קלאסית וחדשה</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_b1632969dfde45a18835680cc40864b1~mv2.jpg</t>
-  </si>
-  <si>
     <t>Jazz Music</t>
   </si>
   <si>
@@ -641,9 +562,6 @@
     <t>מבט על הינה תוכנית להיכרות עם עסקים ובעלי עסקים</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_ae0d7cbfa01641a0ad31cd87d2d95605~mv2.jpg</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/danielcochavi</t>
   </si>
   <si>
@@ -656,9 +574,6 @@
     <t xml:space="preserve">בהגשת הראל משה ושוקי אברהם </t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_14e19c800ec54284823d5759f7f21637~mv2.jpg</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/podcast-10</t>
   </si>
   <si>
@@ -749,9 +664,6 @@
     <t>https://www.radiosol.co.il/podcast-30</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_9c332f9cc93c441cbedc68dae347a423~mv2.jpeg</t>
-  </si>
-  <si>
     <t>דיגי סול</t>
   </si>
   <si>
@@ -764,16 +676,109 @@
     <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%91%D7%9C%D7%A2%D7%A0%D7%AA%D7%91%D7%99</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_f9ed02cb5e4b4e90b60fa3bb7fc759ef~mv2.jpg</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_b883e5920eba458dbcee0500c4845d93~mv2.png</t>
+    <t>https://static.wixstatic.com/media/c39cce_c8bb8427fc034371bd1a6372893de21c~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_7aefb30bf0af4645af97815feba89804~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_3594f847a6b44376926bf74a58822b75~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_36044c7d09e64f378ed921e9ba2ada11~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_f66ef0ef850f4f958aebd888433e57f9~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_70ebb4cec4194f839b6c0000d5176f2b~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_5a122c3acc624cbfa64364a76c7796c5~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_655c245b119843a8ba02e2920a171a56~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_a9687194f01442468024c776894b5ece~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_4061461edb854ea99973b7547c60e4f2~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_fffa8a7f270b4def944c530e2d8b3910~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_6cb938afcbf643828682a0c4edf8bc35~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_545f6f0671d9404f895e93f6887eb327~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_3383ffc4ae054cd2af972cf7ac3a2c3b~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_1ebdb21ff08c41eca1c82fee7df9d432~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_3c6088090ffc41908dffbbf6c2548daa~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_6f042d21658b4aee91f692ccea9498d5~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_c44244aac8994aa1a5b260543114be72~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_7f952df7d2ec42d1a286bf3524f38afd~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_632829d628aa47a8ba906ca3806295e8~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_45992a41147e463290f80cbe1105305e~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_dd40cbeae29a4efaa230eda9deed8758~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_e2bdfda1e8ea4c0a82b424ff13e3d28d~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_248edecc5b434da4bbcff92e89cc9a78~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_afbe46bc7a41461881ae1d89f71249f8~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_c137b287dec4489ea923112e161f93c0~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_0c98446b514c4102a0ec62a69bfe5922~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_8eceb028b22f46ef8685d7c00695c29c~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_a2ef7aa56fb149e8897a8ff6c85c1a98~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_1c01d60b03e746d19b913aea059e8b96~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_6aa9e643989a42dd82e851324d79c329~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_be54bd90515346318a1f2581d92d83c5~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_187ce3bab39e40a59509a34dd2b9ac5c~mv2.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1210,22 +1215,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="56.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="39.09765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1252,10 +1257,10 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1269,19 +1274,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1295,21 +1300,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1321,21 +1326,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1347,21 +1352,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1373,21 +1378,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1399,21 +1404,21 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="13" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1425,19 +1430,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1451,21 +1456,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1477,21 +1482,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -1503,21 +1508,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -1529,19 +1534,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1555,19 +1560,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1581,21 +1586,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1607,21 +1612,21 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1633,21 +1638,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1659,21 +1664,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1685,21 +1690,21 @@
         <v>0.625</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1711,21 +1716,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1737,21 +1742,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1763,21 +1768,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1789,21 +1794,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1815,21 +1820,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
       <c r="A24" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -1841,19 +1846,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1867,19 +1872,19 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
@@ -1893,19 +1898,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
@@ -1919,21 +1924,21 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1945,21 +1950,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.75">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1971,21 +1976,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18.75">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -1997,21 +2002,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -2023,21 +2028,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18.75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -2049,21 +2054,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -2075,21 +2080,21 @@
         <v>0.875</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18.75">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -2101,21 +2106,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="11" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
@@ -2127,21 +2132,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
@@ -2153,19 +2158,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="14" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>24</v>
@@ -2188,12 +2193,12 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2205,19 +2210,19 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="14" t="s">
         <v>7</v>
       </c>
@@ -2231,19 +2236,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18">
       <c r="A40" s="14" t="s">
         <v>6</v>
       </c>
@@ -2257,21 +2262,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18">
       <c r="A41" s="14" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2283,19 +2288,19 @@
         <v>0.625</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18">
       <c r="A42" s="14" t="s">
         <v>49</v>
       </c>
@@ -2306,1040 +2311,1060 @@
         <v>0.625</v>
       </c>
       <c r="D42" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18">
       <c r="A43" s="14" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="37.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="14" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.75</v>
       </c>
-      <c r="D44" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18.75">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="36">
       <c r="A45" s="14" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D45" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18.75">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18">
       <c r="A46" s="14" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D46" s="12">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18.75">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18">
       <c r="A47" s="14" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D47" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D47" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18">
       <c r="A48" s="14" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
       <c r="C48" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D48" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D48" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18">
       <c r="A49" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B49" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D49" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D49" s="12">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18.75">
-      <c r="A50" s="11" t="s">
-        <v>7</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18">
+      <c r="A50" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D50" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D50" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18">
       <c r="A51" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D51" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18">
       <c r="A52" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D52" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18">
       <c r="A53" s="11" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D53" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18.75">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18">
       <c r="A54" s="11" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.625</v>
       </c>
-      <c r="D54" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18">
       <c r="A55" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D55" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18">
       <c r="A56" s="11" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D56" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D56" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18.75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18">
       <c r="A57" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D57" s="12">
         <v>0.75</v>
       </c>
-      <c r="D57" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18">
       <c r="A58" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D58" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18">
       <c r="A59" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D59" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D59" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18.75">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18">
       <c r="A60" s="11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B60" s="11">
         <v>4</v>
       </c>
       <c r="C60" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D60" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D60" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18">
       <c r="A61" s="11" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="B61" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D61" s="12">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18">
       <c r="A62" s="11" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
       </c>
       <c r="C62" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D62" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D62" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18">
       <c r="A63" s="11" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D63" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>162</v>
+        <v>134</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="18.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18">
       <c r="A64" s="11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D64" s="12">
         <v>0.5</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>163</v>
+        <v>135</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="18.75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18">
       <c r="A65" s="11" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D65" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="18.75">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18">
       <c r="A66" s="11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D66" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="18.75">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18">
       <c r="A67" s="11" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D67" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D67" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E67" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18">
+      <c r="A68" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18.75">
-      <c r="A68" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D68" s="12">
         <v>0.75</v>
       </c>
-      <c r="D68" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18">
       <c r="A69" s="11" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D69" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>171</v>
+        <v>41</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18">
       <c r="A70" s="11" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D70" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D70" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>48</v>
+        <v>138</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18">
       <c r="A71" s="11" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
       </c>
       <c r="C71" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D71" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D71" s="12">
+      <c r="E71" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="11">
+        <v>5</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D72" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="10" t="s">
+      <c r="E72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="1">
-        <v>6</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="H72" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D73" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>177</v>
+        <v>41</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="36">
-      <c r="A74" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.5</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34.799999999999997">
+      <c r="A75" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.75</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.75</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D79" s="2">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D80" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
       </c>
       <c r="C81" s="2">
-        <v>0.4993055555555555</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D81" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" s="1"/>
@@ -3370,63 +3395,62 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="17"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:8">
+      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:8">
+      <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:8">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="17"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3"/>
@@ -3520,6 +3544,7 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
+      <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3548,32 +3573,32 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="1"/>
@@ -3676,13 +3701,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="1"/>
@@ -3694,14 +3719,14 @@
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="1"/>
@@ -3720,7 +3745,6 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="17"/>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" s="1"/>
@@ -3734,6 +3758,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="1"/>
+      <c r="F143" s="17"/>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="1"/>
@@ -3824,13 +3849,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
+      <c r="F159" s="17"/>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="1"/>
@@ -3849,7 +3874,6 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6">
       <c r="B163" s="1"/>
@@ -3863,6 +3887,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" spans="1:6">
       <c r="B165" s="1"/>
@@ -3874,7 +3899,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:6">
       <c r="B167" s="1"/>
@@ -3889,7 +3914,6 @@
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="7"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3903,6 +3927,7 @@
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:6">
+      <c r="A171" s="7"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3966,7 +3991,7 @@
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="1"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:6">
       <c r="B182" s="1"/>
@@ -3987,7 +4012,6 @@
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -4001,17 +4025,18 @@
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:6">
+      <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="1"/>
+      <c r="F188" s="17"/>
     </row>
     <row r="189" spans="1:6">
       <c r="B189" s="1"/>
@@ -4026,12 +4051,10 @@
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="3"/>
@@ -4039,6 +4062,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="1"/>
+      <c r="F192" s="17"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3"/>
@@ -4090,13 +4114,13 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
+      <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4110,6 +4134,7 @@
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5">
+      <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4162,21 +4187,21 @@
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
+      <c r="F212" s="17"/>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="1"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" s="1"/>
@@ -4201,176 +4226,186 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="17"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="8"/>
+      <c r="D218" s="2"/>
       <c r="E218" s="1"/>
+      <c r="F218" s="17"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="3"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G57" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G59" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G60" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G71" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G25" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G27" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G73" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G76" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H58" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H55" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H54" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H43" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H45" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H44" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H31" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H29" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H26" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H22" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H18" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H5" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H6" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H7" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H9" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H14" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H13" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H11" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H25" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H27" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H30" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H32" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H34" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H35" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H36" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H37" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H39" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H41" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H42" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H47" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H48" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H49" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H50" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H56" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H57" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H59" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H60" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H61" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H81" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H80" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H78" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H77" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H75" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H74" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H72" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H71" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H70" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H68" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H67" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H51" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="G26" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="G24" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="G23" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="G32" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G35" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G36" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G39" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G41" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G42" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="G30" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G61" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="G70" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="G72" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="G75" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="G77" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="G78" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="G80" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="G81" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="G28" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H28" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="G40" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H40" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H19" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H53" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H52" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H64" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H20" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="G48" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="G53" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="G46" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="G47" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="H8" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="G8" r:id="rId157" xr:uid="{2561417E-98F2-4E49-B9E1-29339C5876C6}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="G14" r:id="rId3"/>
+    <hyperlink ref="G37" r:id="rId4"/>
+    <hyperlink ref="G50" r:id="rId5"/>
+    <hyperlink ref="G51" r:id="rId6"/>
+    <hyperlink ref="G58" r:id="rId7"/>
+    <hyperlink ref="G60" r:id="rId8"/>
+    <hyperlink ref="G61" r:id="rId9"/>
+    <hyperlink ref="G72" r:id="rId10"/>
+    <hyperlink ref="G3" r:id="rId11"/>
+    <hyperlink ref="G4" r:id="rId12"/>
+    <hyperlink ref="H2" r:id="rId13"/>
+    <hyperlink ref="G6" r:id="rId14"/>
+    <hyperlink ref="G7" r:id="rId15"/>
+    <hyperlink ref="G9" r:id="rId16"/>
+    <hyperlink ref="G11" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="G10" r:id="rId19"/>
+    <hyperlink ref="G15" r:id="rId20"/>
+    <hyperlink ref="G42" r:id="rId21"/>
+    <hyperlink ref="G18" r:id="rId22"/>
+    <hyperlink ref="G19" r:id="rId23"/>
+    <hyperlink ref="G20" r:id="rId24"/>
+    <hyperlink ref="G21" r:id="rId25"/>
+    <hyperlink ref="G22" r:id="rId26"/>
+    <hyperlink ref="H4" r:id="rId27"/>
+    <hyperlink ref="H10" r:id="rId28"/>
+    <hyperlink ref="H15" r:id="rId29"/>
+    <hyperlink ref="H42" r:id="rId30"/>
+    <hyperlink ref="H17" r:id="rId31"/>
+    <hyperlink ref="G17" r:id="rId32"/>
+    <hyperlink ref="G25" r:id="rId33"/>
+    <hyperlink ref="G38" r:id="rId34"/>
+    <hyperlink ref="G31" r:id="rId35"/>
+    <hyperlink ref="G27" r:id="rId36"/>
+    <hyperlink ref="G29" r:id="rId37"/>
+    <hyperlink ref="G44" r:id="rId38"/>
+    <hyperlink ref="G45" r:id="rId39"/>
+    <hyperlink ref="G46" r:id="rId40"/>
+    <hyperlink ref="G53" r:id="rId41"/>
+    <hyperlink ref="G55" r:id="rId42"/>
+    <hyperlink ref="G59" r:id="rId43"/>
+    <hyperlink ref="G63" r:id="rId44"/>
+    <hyperlink ref="G64" r:id="rId45"/>
+    <hyperlink ref="G65" r:id="rId46"/>
+    <hyperlink ref="G66" r:id="rId47"/>
+    <hyperlink ref="G67" r:id="rId48"/>
+    <hyperlink ref="G70" r:id="rId49"/>
+    <hyperlink ref="G74" r:id="rId50"/>
+    <hyperlink ref="G77" r:id="rId51"/>
+    <hyperlink ref="G80" r:id="rId52"/>
+    <hyperlink ref="G57" r:id="rId53"/>
+    <hyperlink ref="H80" r:id="rId54"/>
+    <hyperlink ref="H74" r:id="rId55"/>
+    <hyperlink ref="H70" r:id="rId56"/>
+    <hyperlink ref="H67" r:id="rId57"/>
+    <hyperlink ref="H66" r:id="rId58"/>
+    <hyperlink ref="H64" r:id="rId59"/>
+    <hyperlink ref="H63" r:id="rId60"/>
+    <hyperlink ref="H59" r:id="rId61"/>
+    <hyperlink ref="H56" r:id="rId62"/>
+    <hyperlink ref="H55" r:id="rId63"/>
+    <hyperlink ref="H44" r:id="rId64"/>
+    <hyperlink ref="H46" r:id="rId65"/>
+    <hyperlink ref="H45" r:id="rId66"/>
+    <hyperlink ref="H33" r:id="rId67"/>
+    <hyperlink ref="H38" r:id="rId68"/>
+    <hyperlink ref="H31" r:id="rId69"/>
+    <hyperlink ref="H29" r:id="rId70"/>
+    <hyperlink ref="H26" r:id="rId71"/>
+    <hyperlink ref="H22" r:id="rId72"/>
+    <hyperlink ref="H21" r:id="rId73"/>
+    <hyperlink ref="H18" r:id="rId74"/>
+    <hyperlink ref="H3" r:id="rId75"/>
+    <hyperlink ref="H5" r:id="rId76"/>
+    <hyperlink ref="H6" r:id="rId77"/>
+    <hyperlink ref="H7" r:id="rId78"/>
+    <hyperlink ref="H9" r:id="rId79"/>
+    <hyperlink ref="H14" r:id="rId80"/>
+    <hyperlink ref="H13" r:id="rId81"/>
+    <hyperlink ref="H12" r:id="rId82"/>
+    <hyperlink ref="H11" r:id="rId83"/>
+    <hyperlink ref="H23" r:id="rId84"/>
+    <hyperlink ref="H24" r:id="rId85"/>
+    <hyperlink ref="H25" r:id="rId86"/>
+    <hyperlink ref="H27" r:id="rId87"/>
+    <hyperlink ref="H30" r:id="rId88"/>
+    <hyperlink ref="H32" r:id="rId89"/>
+    <hyperlink ref="H34" r:id="rId90"/>
+    <hyperlink ref="H35" r:id="rId91"/>
+    <hyperlink ref="H36" r:id="rId92"/>
+    <hyperlink ref="H37" r:id="rId93"/>
+    <hyperlink ref="H39" r:id="rId94"/>
+    <hyperlink ref="H41" r:id="rId95"/>
+    <hyperlink ref="H43" r:id="rId96"/>
+    <hyperlink ref="H47" r:id="rId97"/>
+    <hyperlink ref="H48" r:id="rId98"/>
+    <hyperlink ref="H49" r:id="rId99"/>
+    <hyperlink ref="H50" r:id="rId100"/>
+    <hyperlink ref="H51" r:id="rId101"/>
+    <hyperlink ref="H57" r:id="rId102"/>
+    <hyperlink ref="H58" r:id="rId103"/>
+    <hyperlink ref="H60" r:id="rId104"/>
+    <hyperlink ref="H61" r:id="rId105"/>
+    <hyperlink ref="H62" r:id="rId106"/>
+    <hyperlink ref="H82" r:id="rId107"/>
+    <hyperlink ref="H81" r:id="rId108"/>
+    <hyperlink ref="H79" r:id="rId109"/>
+    <hyperlink ref="H78" r:id="rId110"/>
+    <hyperlink ref="H76" r:id="rId111"/>
+    <hyperlink ref="H75" r:id="rId112"/>
+    <hyperlink ref="H73" r:id="rId113"/>
+    <hyperlink ref="H72" r:id="rId114"/>
+    <hyperlink ref="H71" r:id="rId115"/>
+    <hyperlink ref="H69" r:id="rId116"/>
+    <hyperlink ref="H68" r:id="rId117"/>
+    <hyperlink ref="H52" r:id="rId118"/>
+    <hyperlink ref="G26" r:id="rId119"/>
+    <hyperlink ref="G24" r:id="rId120"/>
+    <hyperlink ref="G23" r:id="rId121"/>
+    <hyperlink ref="G32" r:id="rId122"/>
+    <hyperlink ref="G34" r:id="rId123"/>
+    <hyperlink ref="G35" r:id="rId124"/>
+    <hyperlink ref="G36" r:id="rId125"/>
+    <hyperlink ref="G39" r:id="rId126"/>
+    <hyperlink ref="G41" r:id="rId127"/>
+    <hyperlink ref="G43" r:id="rId128"/>
+    <hyperlink ref="G30" r:id="rId129"/>
+    <hyperlink ref="G62" r:id="rId130"/>
+    <hyperlink ref="G68" r:id="rId131"/>
+    <hyperlink ref="G69" r:id="rId132"/>
+    <hyperlink ref="G71" r:id="rId133"/>
+    <hyperlink ref="G73" r:id="rId134"/>
+    <hyperlink ref="G75" r:id="rId135"/>
+    <hyperlink ref="G76" r:id="rId136"/>
+    <hyperlink ref="G78" r:id="rId137"/>
+    <hyperlink ref="G79" r:id="rId138"/>
+    <hyperlink ref="G81" r:id="rId139"/>
+    <hyperlink ref="G82" r:id="rId140"/>
+    <hyperlink ref="G28" r:id="rId141"/>
+    <hyperlink ref="H28" r:id="rId142"/>
+    <hyperlink ref="G40" r:id="rId143"/>
+    <hyperlink ref="H40" r:id="rId144"/>
+    <hyperlink ref="H19" r:id="rId145"/>
+    <hyperlink ref="H54" r:id="rId146"/>
+    <hyperlink ref="H53" r:id="rId147"/>
+    <hyperlink ref="H65" r:id="rId148"/>
+    <hyperlink ref="H77" r:id="rId149"/>
+    <hyperlink ref="H20" r:id="rId150"/>
+    <hyperlink ref="G49" r:id="rId151"/>
+    <hyperlink ref="G54" r:id="rId152"/>
+    <hyperlink ref="G47" r:id="rId153"/>
+    <hyperlink ref="G48" r:id="rId154"/>
+    <hyperlink ref="H8" r:id="rId155"/>
+    <hyperlink ref="G8" r:id="rId156"/>
+    <hyperlink ref="G33" r:id="rId157"/>
+    <hyperlink ref="G52" r:id="rId158"/>
+    <hyperlink ref="G56" r:id="rId159"/>
+    <hyperlink ref="H16" r:id="rId160"/>
+    <hyperlink ref="G16" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -353,9 +353,6 @@
     </r>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_d25843aaa8894784afe64e03658b8da3~mv2.jpg</t>
-  </si>
-  <si>
     <t>מוזיקה מזרחית לשעות הצהרים</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_187ce3bab39e40a59509a34dd2b9ac5c~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1283,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -1309,7 +1309,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -1332,10 +1332,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -1387,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -1413,12 +1413,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1430,16 +1430,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -1465,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
@@ -1488,10 +1488,10 @@
         <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -1517,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -1543,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -1595,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -1618,10 +1618,10 @@
         <v>68</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18">
@@ -1670,10 +1670,10 @@
         <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18">
@@ -1696,10 +1696,10 @@
         <v>60</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18">
@@ -1722,10 +1722,10 @@
         <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">
@@ -1742,16 +1742,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
@@ -1774,10 +1774,10 @@
         <v>62</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
@@ -1800,10 +1800,10 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18">
@@ -1829,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18">
@@ -1855,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18">
@@ -1881,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18">
@@ -1904,10 +1904,10 @@
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18">
@@ -1933,12 +1933,12 @@
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18">
       <c r="A28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1950,16 +1950,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -1982,10 +1982,10 @@
         <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -2005,13 +2005,13 @@
         <v>41</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -2034,10 +2034,10 @@
         <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -2063,7 +2063,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
@@ -2086,10 +2086,10 @@
         <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
@@ -2115,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18">
@@ -2141,7 +2141,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18">
@@ -2167,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18">
@@ -2193,7 +2193,7 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
@@ -2216,10 +2216,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18">
@@ -2239,13 +2239,13 @@
         <v>41</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18">
@@ -2271,12 +2271,12 @@
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
       <c r="A41" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2297,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18">
@@ -2349,12 +2349,12 @@
         <v>23</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18">
       <c r="A44" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
@@ -2366,21 +2366,21 @@
         <v>0.75</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="G44" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="36">
       <c r="A45" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
@@ -2392,21 +2392,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18">
       <c r="A46" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
@@ -2418,16 +2418,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18">
@@ -2447,18 +2447,18 @@
         <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18">
       <c r="A48" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
@@ -2473,13 +2473,13 @@
         <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18">
@@ -2505,7 +2505,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18">
@@ -2531,7 +2531,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
@@ -2551,13 +2551,13 @@
         <v>41</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
@@ -2574,16 +2574,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18">
@@ -2600,21 +2600,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18">
       <c r="A54" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
@@ -2626,16 +2626,16 @@
         <v>0.625</v>
       </c>
       <c r="E54" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="G54" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
@@ -2652,16 +2652,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18">
@@ -2678,21 +2678,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18">
       <c r="A57" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
@@ -2704,16 +2704,16 @@
         <v>0.75</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18">
@@ -2739,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18">
@@ -2756,16 +2756,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
@@ -2791,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18">
@@ -2817,12 +2817,12 @@
         <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18">
       <c r="A62" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2837,18 +2837,18 @@
         <v>41</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18">
       <c r="A63" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2860,21 +2860,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18">
       <c r="A64" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2886,21 +2886,21 @@
         <v>0.5</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18">
       <c r="A65" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2912,21 +2912,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18">
       <c r="A66" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2938,21 +2938,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="G66" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18">
       <c r="A67" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2964,16 +2964,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18">
@@ -2999,12 +2999,12 @@
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18">
       <c r="A69" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -3019,18 +3019,18 @@
         <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18">
       <c r="A70" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -3042,21 +3042,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18">
       <c r="A71" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
@@ -3077,7 +3077,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
@@ -3103,12 +3103,12 @@
         <v>20</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3123,18 +3123,18 @@
         <v>41</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3146,21 +3146,21 @@
         <v>0.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.799999999999997">
       <c r="A75" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3172,21 +3172,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3201,18 +3201,18 @@
         <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3224,21 +3224,21 @@
         <v>0.75</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G77" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3253,18 +3253,18 @@
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3285,12 +3285,12 @@
         <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3302,21 +3302,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G80" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -3331,13 +3331,13 @@
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3363,7 +3363,7 @@
         <v>23</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:8">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1751,7 +1754,7 @@
         <v>215</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -775,7 +775,7 @@
     <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
+    <t>https://editor.wix.com/html/editor/web/renderer/edit/f6b671c4-15b4-416f-bdfe-9a77a499fda6?metaSiteId=c5acd1a9-bdf9-4a4e-810e-8329cfae6f85</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -775,7 +775,7 @@
     <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
   </si>
   <si>
-    <t>https://editor.wix.com/html/editor/web/renderer/edit/f6b671c4-15b4-416f-bdfe-9a77a499fda6?metaSiteId=c5acd1a9-bdf9-4a4e-810e-8329cfae6f85</t>
+    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="244">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1728,7 +1731,7 @@
         <v>214</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -775,10 +775,10 @@
     <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1731,7 @@
         <v>214</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">
@@ -1757,7 +1757,7 @@
         <v>215</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
@@ -4398,7 +4398,7 @@
     <hyperlink ref="H53" r:id="rId147"/>
     <hyperlink ref="H65" r:id="rId148"/>
     <hyperlink ref="H77" r:id="rId149"/>
-    <hyperlink ref="H20" r:id="rId150"/>
+    <hyperlink ref="H20" r:id="rId150" display="https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9"/>
     <hyperlink ref="G49" r:id="rId151"/>
     <hyperlink ref="G54" r:id="rId152"/>
     <hyperlink ref="G47" r:id="rId153"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -778,7 +778,7 @@
     <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
+    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
   </si>
 </sst>
 </file>
@@ -4398,7 +4398,7 @@
     <hyperlink ref="H53" r:id="rId147"/>
     <hyperlink ref="H65" r:id="rId148"/>
     <hyperlink ref="H77" r:id="rId149"/>
-    <hyperlink ref="H20" r:id="rId150" display="https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9"/>
+    <hyperlink ref="H20" r:id="rId150"/>
     <hyperlink ref="G49" r:id="rId151"/>
     <hyperlink ref="G54" r:id="rId152"/>
     <hyperlink ref="G47" r:id="rId153"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -778,7 +778,7 @@
     <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%96%D7%94-%D7%9E%D7%94-%D7%99%D7%A9</t>
+    <t>https://www.radiosol.co.il/zemayesh</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="239">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -444,19 +444,10 @@
     <t>מאחורי המילים</t>
   </si>
   <si>
-    <t>שחר באקטואליה</t>
-  </si>
-  <si>
-    <t>בהגשת שחר ואורן אלוני</t>
-  </si>
-  <si>
     <t>בהגשת עמוס צוריאל</t>
   </si>
   <si>
     <t>בהגשת דניאל כוכבי</t>
-  </si>
-  <si>
-    <t>תכנית אקטואלית שבועית</t>
   </si>
   <si>
     <t>בהגשת שמוליק מושקוביץ</t>
@@ -646,9 +637,6 @@
     <t>https://www.radiosol.co.il/podcast-24</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/podcast-23</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/podcast-25</t>
   </si>
   <si>
@@ -743,9 +731,6 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_248edecc5b434da4bbcff92e89cc9a78~mv2.png</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_afbe46bc7a41461881ae1d89f71249f8~mv2.png</t>
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_c137b287dec4489ea923112e161f93c0~mv2.png</t>
@@ -1224,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1289,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -1315,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -1338,10 +1323,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -1367,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -1393,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -1419,12 +1404,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1436,16 +1421,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -1471,7 +1456,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
@@ -1494,10 +1479,10 @@
         <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -1523,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -1549,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -1575,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -1601,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -1624,10 +1609,10 @@
         <v>68</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -1653,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18">
@@ -1676,10 +1661,10 @@
         <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18">
@@ -1702,10 +1687,10 @@
         <v>60</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18">
@@ -1728,10 +1713,10 @@
         <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">
@@ -1748,16 +1733,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
@@ -1780,10 +1765,10 @@
         <v>62</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
@@ -1806,10 +1791,10 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18">
@@ -1835,7 +1820,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18">
@@ -1861,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18">
@@ -1887,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18">
@@ -1910,10 +1895,10 @@
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18">
@@ -1939,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18">
@@ -1965,7 +1950,7 @@
         <v>107</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -1988,10 +1973,10 @@
         <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -2017,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -2040,10 +2025,10 @@
         <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -2069,7 +2054,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
@@ -2092,10 +2077,10 @@
         <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
@@ -2121,7 +2106,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18">
@@ -2147,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18">
@@ -2173,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18">
@@ -2199,7 +2184,7 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
@@ -2222,10 +2207,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18">
@@ -2251,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18">
@@ -2277,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
@@ -2303,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
@@ -2329,7 +2314,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18">
@@ -2355,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18">
@@ -2378,10 +2363,10 @@
         <v>111</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="36">
@@ -2404,10 +2389,10 @@
         <v>113</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18">
@@ -2430,10 +2415,10 @@
         <v>117</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18">
@@ -2459,7 +2444,7 @@
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18">
@@ -2485,7 +2470,7 @@
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18">
@@ -2511,7 +2496,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18">
@@ -2537,7 +2522,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
@@ -2563,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
@@ -2586,10 +2571,10 @@
         <v>25</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18">
@@ -2612,15 +2597,15 @@
         <v>26</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18">
       <c r="A54" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
@@ -2632,16 +2617,16 @@
         <v>0.625</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
@@ -2664,10 +2649,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18">
@@ -2690,15 +2675,15 @@
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18">
       <c r="A57" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
@@ -2713,13 +2698,13 @@
         <v>121</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18">
@@ -2745,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18">
@@ -2768,10 +2753,10 @@
         <v>29</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
@@ -2797,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18">
@@ -2823,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18">
@@ -2849,33 +2834,33 @@
         <v>23</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18">
-      <c r="A63" s="11" t="s">
-        <v>132</v>
+      <c r="A63" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D63" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18">
@@ -2892,16 +2877,16 @@
         <v>0.5</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18">
@@ -2918,21 +2903,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18">
       <c r="A66" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2944,16 +2929,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18">
@@ -2970,16 +2955,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18">
@@ -3005,12 +2990,12 @@
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18">
       <c r="A69" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -3025,18 +3010,18 @@
         <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18">
       <c r="A70" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -3048,21 +3033,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18">
       <c r="A71" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
@@ -3083,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
@@ -3109,12 +3094,12 @@
         <v>20</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3129,18 +3114,18 @@
         <v>41</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3152,21 +3137,21 @@
         <v>0.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.799999999999997">
       <c r="A75" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3181,18 +3166,18 @@
         <v>125</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3207,18 +3192,18 @@
         <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3230,21 +3215,21 @@
         <v>0.75</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3259,18 +3244,18 @@
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3291,12 +3276,12 @@
         <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3308,21 +3293,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -3337,13 +3322,13 @@
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3369,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4292,124 +4277,124 @@
     <hyperlink ref="G53" r:id="rId41"/>
     <hyperlink ref="G55" r:id="rId42"/>
     <hyperlink ref="G59" r:id="rId43"/>
-    <hyperlink ref="G63" r:id="rId44"/>
-    <hyperlink ref="G64" r:id="rId45"/>
-    <hyperlink ref="G65" r:id="rId46"/>
-    <hyperlink ref="G66" r:id="rId47"/>
-    <hyperlink ref="G67" r:id="rId48"/>
-    <hyperlink ref="G70" r:id="rId49"/>
-    <hyperlink ref="G74" r:id="rId50"/>
-    <hyperlink ref="G77" r:id="rId51"/>
-    <hyperlink ref="G80" r:id="rId52"/>
-    <hyperlink ref="G57" r:id="rId53"/>
-    <hyperlink ref="H80" r:id="rId54"/>
-    <hyperlink ref="H74" r:id="rId55"/>
-    <hyperlink ref="H70" r:id="rId56"/>
-    <hyperlink ref="H67" r:id="rId57"/>
-    <hyperlink ref="H66" r:id="rId58"/>
-    <hyperlink ref="H64" r:id="rId59"/>
-    <hyperlink ref="H63" r:id="rId60"/>
-    <hyperlink ref="H59" r:id="rId61"/>
-    <hyperlink ref="H56" r:id="rId62"/>
-    <hyperlink ref="H55" r:id="rId63"/>
-    <hyperlink ref="H44" r:id="rId64"/>
-    <hyperlink ref="H46" r:id="rId65"/>
-    <hyperlink ref="H45" r:id="rId66"/>
-    <hyperlink ref="H33" r:id="rId67"/>
-    <hyperlink ref="H38" r:id="rId68"/>
-    <hyperlink ref="H31" r:id="rId69"/>
-    <hyperlink ref="H29" r:id="rId70"/>
-    <hyperlink ref="H26" r:id="rId71"/>
-    <hyperlink ref="H22" r:id="rId72"/>
-    <hyperlink ref="H21" r:id="rId73"/>
-    <hyperlink ref="H18" r:id="rId74"/>
-    <hyperlink ref="H3" r:id="rId75"/>
-    <hyperlink ref="H5" r:id="rId76"/>
-    <hyperlink ref="H6" r:id="rId77"/>
-    <hyperlink ref="H7" r:id="rId78"/>
-    <hyperlink ref="H9" r:id="rId79"/>
-    <hyperlink ref="H14" r:id="rId80"/>
-    <hyperlink ref="H13" r:id="rId81"/>
-    <hyperlink ref="H12" r:id="rId82"/>
-    <hyperlink ref="H11" r:id="rId83"/>
-    <hyperlink ref="H23" r:id="rId84"/>
-    <hyperlink ref="H24" r:id="rId85"/>
-    <hyperlink ref="H25" r:id="rId86"/>
-    <hyperlink ref="H27" r:id="rId87"/>
-    <hyperlink ref="H30" r:id="rId88"/>
-    <hyperlink ref="H32" r:id="rId89"/>
-    <hyperlink ref="H34" r:id="rId90"/>
-    <hyperlink ref="H35" r:id="rId91"/>
-    <hyperlink ref="H36" r:id="rId92"/>
-    <hyperlink ref="H37" r:id="rId93"/>
-    <hyperlink ref="H39" r:id="rId94"/>
-    <hyperlink ref="H41" r:id="rId95"/>
-    <hyperlink ref="H43" r:id="rId96"/>
-    <hyperlink ref="H47" r:id="rId97"/>
-    <hyperlink ref="H48" r:id="rId98"/>
-    <hyperlink ref="H49" r:id="rId99"/>
-    <hyperlink ref="H50" r:id="rId100"/>
-    <hyperlink ref="H51" r:id="rId101"/>
-    <hyperlink ref="H57" r:id="rId102"/>
-    <hyperlink ref="H58" r:id="rId103"/>
-    <hyperlink ref="H60" r:id="rId104"/>
-    <hyperlink ref="H61" r:id="rId105"/>
-    <hyperlink ref="H62" r:id="rId106"/>
-    <hyperlink ref="H82" r:id="rId107"/>
-    <hyperlink ref="H81" r:id="rId108"/>
-    <hyperlink ref="H79" r:id="rId109"/>
-    <hyperlink ref="H78" r:id="rId110"/>
-    <hyperlink ref="H76" r:id="rId111"/>
-    <hyperlink ref="H75" r:id="rId112"/>
-    <hyperlink ref="H73" r:id="rId113"/>
-    <hyperlink ref="H72" r:id="rId114"/>
-    <hyperlink ref="H71" r:id="rId115"/>
-    <hyperlink ref="H69" r:id="rId116"/>
-    <hyperlink ref="H68" r:id="rId117"/>
-    <hyperlink ref="H52" r:id="rId118"/>
-    <hyperlink ref="G26" r:id="rId119"/>
-    <hyperlink ref="G24" r:id="rId120"/>
-    <hyperlink ref="G23" r:id="rId121"/>
-    <hyperlink ref="G32" r:id="rId122"/>
-    <hyperlink ref="G34" r:id="rId123"/>
-    <hyperlink ref="G35" r:id="rId124"/>
-    <hyperlink ref="G36" r:id="rId125"/>
-    <hyperlink ref="G39" r:id="rId126"/>
-    <hyperlink ref="G41" r:id="rId127"/>
-    <hyperlink ref="G43" r:id="rId128"/>
-    <hyperlink ref="G30" r:id="rId129"/>
-    <hyperlink ref="G62" r:id="rId130"/>
-    <hyperlink ref="G68" r:id="rId131"/>
-    <hyperlink ref="G69" r:id="rId132"/>
-    <hyperlink ref="G71" r:id="rId133"/>
-    <hyperlink ref="G73" r:id="rId134"/>
-    <hyperlink ref="G75" r:id="rId135"/>
-    <hyperlink ref="G76" r:id="rId136"/>
-    <hyperlink ref="G78" r:id="rId137"/>
-    <hyperlink ref="G79" r:id="rId138"/>
-    <hyperlink ref="G81" r:id="rId139"/>
-    <hyperlink ref="G82" r:id="rId140"/>
-    <hyperlink ref="G28" r:id="rId141"/>
-    <hyperlink ref="H28" r:id="rId142"/>
-    <hyperlink ref="G40" r:id="rId143"/>
-    <hyperlink ref="H40" r:id="rId144"/>
-    <hyperlink ref="H19" r:id="rId145"/>
-    <hyperlink ref="H54" r:id="rId146"/>
-    <hyperlink ref="H53" r:id="rId147"/>
-    <hyperlink ref="H65" r:id="rId148"/>
-    <hyperlink ref="H77" r:id="rId149"/>
-    <hyperlink ref="H20" r:id="rId150"/>
-    <hyperlink ref="G49" r:id="rId151"/>
-    <hyperlink ref="G54" r:id="rId152"/>
-    <hyperlink ref="G47" r:id="rId153"/>
-    <hyperlink ref="G48" r:id="rId154"/>
-    <hyperlink ref="H8" r:id="rId155"/>
-    <hyperlink ref="G8" r:id="rId156"/>
-    <hyperlink ref="G33" r:id="rId157"/>
-    <hyperlink ref="G52" r:id="rId158"/>
-    <hyperlink ref="G56" r:id="rId159"/>
-    <hyperlink ref="H16" r:id="rId160"/>
-    <hyperlink ref="G16" r:id="rId161"/>
+    <hyperlink ref="G64" r:id="rId44"/>
+    <hyperlink ref="G65" r:id="rId45"/>
+    <hyperlink ref="G66" r:id="rId46"/>
+    <hyperlink ref="G67" r:id="rId47"/>
+    <hyperlink ref="G70" r:id="rId48"/>
+    <hyperlink ref="G74" r:id="rId49"/>
+    <hyperlink ref="G77" r:id="rId50"/>
+    <hyperlink ref="G80" r:id="rId51"/>
+    <hyperlink ref="G57" r:id="rId52"/>
+    <hyperlink ref="H80" r:id="rId53"/>
+    <hyperlink ref="H74" r:id="rId54"/>
+    <hyperlink ref="H70" r:id="rId55"/>
+    <hyperlink ref="H67" r:id="rId56"/>
+    <hyperlink ref="H66" r:id="rId57"/>
+    <hyperlink ref="H64" r:id="rId58"/>
+    <hyperlink ref="H59" r:id="rId59"/>
+    <hyperlink ref="H56" r:id="rId60"/>
+    <hyperlink ref="H55" r:id="rId61"/>
+    <hyperlink ref="H44" r:id="rId62"/>
+    <hyperlink ref="H46" r:id="rId63"/>
+    <hyperlink ref="H45" r:id="rId64"/>
+    <hyperlink ref="H33" r:id="rId65"/>
+    <hyperlink ref="H38" r:id="rId66"/>
+    <hyperlink ref="H31" r:id="rId67"/>
+    <hyperlink ref="H29" r:id="rId68"/>
+    <hyperlink ref="H26" r:id="rId69"/>
+    <hyperlink ref="H22" r:id="rId70"/>
+    <hyperlink ref="H21" r:id="rId71"/>
+    <hyperlink ref="H18" r:id="rId72"/>
+    <hyperlink ref="H3" r:id="rId73"/>
+    <hyperlink ref="H5" r:id="rId74"/>
+    <hyperlink ref="H6" r:id="rId75"/>
+    <hyperlink ref="H7" r:id="rId76"/>
+    <hyperlink ref="H9" r:id="rId77"/>
+    <hyperlink ref="H14" r:id="rId78"/>
+    <hyperlink ref="H13" r:id="rId79"/>
+    <hyperlink ref="H12" r:id="rId80"/>
+    <hyperlink ref="H11" r:id="rId81"/>
+    <hyperlink ref="H23" r:id="rId82"/>
+    <hyperlink ref="H24" r:id="rId83"/>
+    <hyperlink ref="H25" r:id="rId84"/>
+    <hyperlink ref="H27" r:id="rId85"/>
+    <hyperlink ref="H30" r:id="rId86"/>
+    <hyperlink ref="H32" r:id="rId87"/>
+    <hyperlink ref="H34" r:id="rId88"/>
+    <hyperlink ref="H35" r:id="rId89"/>
+    <hyperlink ref="H36" r:id="rId90"/>
+    <hyperlink ref="H37" r:id="rId91"/>
+    <hyperlink ref="H39" r:id="rId92"/>
+    <hyperlink ref="H41" r:id="rId93"/>
+    <hyperlink ref="H43" r:id="rId94"/>
+    <hyperlink ref="H47" r:id="rId95"/>
+    <hyperlink ref="H48" r:id="rId96"/>
+    <hyperlink ref="H49" r:id="rId97"/>
+    <hyperlink ref="H50" r:id="rId98"/>
+    <hyperlink ref="H51" r:id="rId99"/>
+    <hyperlink ref="H57" r:id="rId100"/>
+    <hyperlink ref="H58" r:id="rId101"/>
+    <hyperlink ref="H60" r:id="rId102"/>
+    <hyperlink ref="H61" r:id="rId103"/>
+    <hyperlink ref="H62" r:id="rId104"/>
+    <hyperlink ref="H82" r:id="rId105"/>
+    <hyperlink ref="H81" r:id="rId106"/>
+    <hyperlink ref="H79" r:id="rId107"/>
+    <hyperlink ref="H78" r:id="rId108"/>
+    <hyperlink ref="H76" r:id="rId109"/>
+    <hyperlink ref="H75" r:id="rId110"/>
+    <hyperlink ref="H73" r:id="rId111"/>
+    <hyperlink ref="H72" r:id="rId112"/>
+    <hyperlink ref="H71" r:id="rId113"/>
+    <hyperlink ref="H69" r:id="rId114"/>
+    <hyperlink ref="H68" r:id="rId115"/>
+    <hyperlink ref="H52" r:id="rId116"/>
+    <hyperlink ref="G26" r:id="rId117"/>
+    <hyperlink ref="G24" r:id="rId118"/>
+    <hyperlink ref="G23" r:id="rId119"/>
+    <hyperlink ref="G32" r:id="rId120"/>
+    <hyperlink ref="G34" r:id="rId121"/>
+    <hyperlink ref="G35" r:id="rId122"/>
+    <hyperlink ref="G36" r:id="rId123"/>
+    <hyperlink ref="G39" r:id="rId124"/>
+    <hyperlink ref="G41" r:id="rId125"/>
+    <hyperlink ref="G43" r:id="rId126"/>
+    <hyperlink ref="G30" r:id="rId127"/>
+    <hyperlink ref="G62" r:id="rId128"/>
+    <hyperlink ref="G68" r:id="rId129"/>
+    <hyperlink ref="G69" r:id="rId130"/>
+    <hyperlink ref="G71" r:id="rId131"/>
+    <hyperlink ref="G73" r:id="rId132"/>
+    <hyperlink ref="G75" r:id="rId133"/>
+    <hyperlink ref="G76" r:id="rId134"/>
+    <hyperlink ref="G78" r:id="rId135"/>
+    <hyperlink ref="G79" r:id="rId136"/>
+    <hyperlink ref="G81" r:id="rId137"/>
+    <hyperlink ref="G82" r:id="rId138"/>
+    <hyperlink ref="G28" r:id="rId139"/>
+    <hyperlink ref="H28" r:id="rId140"/>
+    <hyperlink ref="G40" r:id="rId141"/>
+    <hyperlink ref="H40" r:id="rId142"/>
+    <hyperlink ref="H19" r:id="rId143"/>
+    <hyperlink ref="H54" r:id="rId144"/>
+    <hyperlink ref="H53" r:id="rId145"/>
+    <hyperlink ref="H65" r:id="rId146"/>
+    <hyperlink ref="H77" r:id="rId147"/>
+    <hyperlink ref="H20" r:id="rId148"/>
+    <hyperlink ref="G49" r:id="rId149"/>
+    <hyperlink ref="G54" r:id="rId150"/>
+    <hyperlink ref="G47" r:id="rId151"/>
+    <hyperlink ref="G48" r:id="rId152"/>
+    <hyperlink ref="H8" r:id="rId153"/>
+    <hyperlink ref="G8" r:id="rId154"/>
+    <hyperlink ref="G33" r:id="rId155"/>
+    <hyperlink ref="G52" r:id="rId156"/>
+    <hyperlink ref="G56" r:id="rId157"/>
+    <hyperlink ref="H16" r:id="rId158"/>
+    <hyperlink ref="G16" r:id="rId159"/>
+    <hyperlink ref="G63" r:id="rId160"/>
+    <hyperlink ref="H63" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2845,10 +2845,10 @@
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0.5</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>41</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="237">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -396,9 +396,6 @@
     <t xml:space="preserve">בהגשת הראל </t>
   </si>
   <si>
-    <t>בהגשת דודו בניטה</t>
-  </si>
-  <si>
     <t>תכנית מוזיקה וד"שים</t>
   </si>
   <si>
@@ -619,9 +616,6 @@
     <t>https://www.radiosol.co.il/podcast-9</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/podcast-18</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/podcast-17</t>
   </si>
   <si>
@@ -709,9 +703,6 @@
     <t>https://static.wixstatic.com/media/c39cce_3c6088090ffc41908dffbbf6c2548daa~mv2.png</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_6f042d21658b4aee91f692ccea9498d5~mv2.png</t>
-  </si>
-  <si>
     <t>https://static.wixstatic.com/media/c39cce_c44244aac8994aa1a5b260543114be72~mv2.png</t>
   </si>
   <si>
@@ -764,6 +755,9 @@
   </si>
   <si>
     <t>https://www.radiosol.co.il/zemayesh</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png/v1/fill/w_162,h_171,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/logo%20radio%20sol%20</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1274,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -1300,7 +1294,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -1323,10 +1317,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -1352,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -1378,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -1404,12 +1398,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1421,16 +1415,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -1456,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
@@ -1479,10 +1473,10 @@
         <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -1508,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -1534,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -1560,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -1586,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -1609,10 +1603,10 @@
         <v>68</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -1638,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18">
@@ -1661,10 +1655,10 @@
         <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18">
@@ -1687,10 +1681,10 @@
         <v>60</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18">
@@ -1713,10 +1707,10 @@
         <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18">
@@ -1733,16 +1727,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18">
@@ -1765,10 +1759,10 @@
         <v>62</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18">
@@ -1791,10 +1785,10 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18">
@@ -1820,7 +1814,7 @@
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18">
@@ -1846,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18">
@@ -1872,7 +1866,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18">
@@ -1895,10 +1889,10 @@
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18">
@@ -1924,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18">
@@ -1950,7 +1944,7 @@
         <v>107</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18">
@@ -1973,10 +1967,10 @@
         <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
@@ -2002,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
@@ -2025,10 +2019,10 @@
         <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18">
@@ -2054,7 +2048,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18">
@@ -2077,10 +2071,10 @@
         <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18">
@@ -2106,7 +2100,7 @@
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18">
@@ -2132,7 +2126,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18">
@@ -2158,7 +2152,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18">
@@ -2184,7 +2178,7 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.75" customHeight="1">
@@ -2207,10 +2201,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18">
@@ -2236,7 +2230,7 @@
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18">
@@ -2262,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18">
@@ -2288,7 +2282,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18">
@@ -2314,7 +2308,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18">
@@ -2340,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18">
@@ -2363,10 +2357,10 @@
         <v>111</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="36">
@@ -2389,10 +2383,10 @@
         <v>113</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18">
@@ -2409,16 +2403,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18">
@@ -2438,18 +2432,18 @@
         <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18">
       <c r="A48" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
@@ -2464,13 +2458,13 @@
         <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18">
@@ -2496,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18">
@@ -2522,7 +2516,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
@@ -2548,7 +2542,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
@@ -2565,16 +2559,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18">
@@ -2591,21 +2585,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18">
       <c r="A54" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
@@ -2617,16 +2611,16 @@
         <v>0.625</v>
       </c>
       <c r="E54" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="G54" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
@@ -2643,16 +2637,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18">
@@ -2669,21 +2663,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18">
       <c r="A57" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
@@ -2695,16 +2689,16 @@
         <v>0.75</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18">
@@ -2730,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18">
@@ -2747,16 +2741,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
@@ -2782,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18">
@@ -2808,12 +2802,12 @@
         <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18">
       <c r="A62" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2828,13 +2822,13 @@
         <v>41</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18">
@@ -2860,12 +2854,12 @@
         <v>20</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18">
       <c r="A64" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2877,21 +2871,21 @@
         <v>0.5</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18">
       <c r="A65" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2903,21 +2897,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18">
       <c r="A66" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2929,21 +2923,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="G66" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18">
       <c r="A67" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2955,16 +2949,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18">
@@ -2990,12 +2984,12 @@
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18">
       <c r="A69" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -3010,18 +3004,18 @@
         <v>41</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18">
       <c r="A70" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -3033,21 +3027,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18">
       <c r="A71" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
@@ -3068,7 +3062,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
@@ -3094,12 +3088,12 @@
         <v>20</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3114,18 +3108,18 @@
         <v>41</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3137,21 +3131,21 @@
         <v>0.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.799999999999997">
       <c r="A75" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3163,21 +3157,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3192,18 +3186,18 @@
         <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3215,21 +3209,21 @@
         <v>0.75</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="G77" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3244,18 +3238,18 @@
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3276,12 +3270,12 @@
         <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3293,21 +3287,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G80" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -3322,13 +3316,13 @@
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3354,7 +3348,7 @@
         <v>23</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:8">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -321,36 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">שירים לאוהבי המוזיקה הלטינית </t>
-  </si>
-  <si>
-    <t>להדליק את האור</t>
-  </si>
-  <si>
-    <t>בהגשת ורד מצפי</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>תכנית שמעוררת תודעה ותורות רוחניות</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>מוזיקה מזרחית לשעות הצהרים</t>
@@ -607,9 +577,6 @@
     <t>https://www.radiosol.co.il/podcast-13</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/podcast-15</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/podcast-16</t>
   </si>
   <si>
@@ -746,9 +713,6 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_187ce3bab39e40a59509a34dd2b9ac5c~mv2.png</t>
-  </si>
-  <si>
-    <t>https://static.wixstatic.com/media/c39cce_2e935130252a476da577faf1d8c877c9~mv2.png</t>
   </si>
   <si>
     <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
@@ -764,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,12 +791,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Wfont_099e17_1dfd06caba28470bbb"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF2A2A2A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -844,14 +802,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -875,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -909,14 +859,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,13 +1145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.8984375" customWidth="1"/>
@@ -1219,7 +1163,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1268,10 +1212,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1294,10 +1238,10 @@
         <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
@@ -1317,13 +1261,13 @@
         <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -1346,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -1372,10 +1316,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
@@ -1398,12 +1342,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1415,19 +1359,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1450,10 +1394,10 @@
         <v>20</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
@@ -1473,13 +1417,13 @@
         <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1502,10 +1446,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
@@ -1528,10 +1472,10 @@
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1554,10 +1498,10 @@
         <v>20</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1580,10 +1524,10 @@
         <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>48</v>
       </c>
@@ -1603,13 +1547,13 @@
         <v>68</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -1632,10 +1576,10 @@
         <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>50</v>
       </c>
@@ -1655,13 +1599,13 @@
         <v>59</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
@@ -1681,13 +1625,13 @@
         <v>60</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -1707,13 +1651,13 @@
         <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>54</v>
       </c>
@@ -1727,19 +1671,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1759,13 +1703,13 @@
         <v>62</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>56</v>
       </c>
@@ -1785,13 +1729,13 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>57</v>
       </c>
@@ -1814,10 +1758,10 @@
         <v>23</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -1840,10 +1784,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1866,10 +1810,10 @@
         <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
@@ -1889,13 +1833,13 @@
         <v>22</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
@@ -1918,12 +1862,12 @@
         <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1935,19 +1879,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>85</v>
       </c>
@@ -1967,13 +1911,13 @@
         <v>87</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
@@ -1990,16 +1934,16 @@
         <v>41</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
@@ -2019,13 +1963,13 @@
         <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>92</v>
       </c>
@@ -2048,10 +1992,10 @@
         <v>23</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>94</v>
       </c>
@@ -2071,13 +2015,13 @@
         <v>96</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
@@ -2100,10 +2044,10 @@
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>97</v>
       </c>
@@ -2126,10 +2070,10 @@
         <v>23</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
@@ -2152,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>8</v>
       </c>
@@ -2178,166 +2122,166 @@
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A38" s="19" t="s">
-        <v>99</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D38" s="12">
         <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="G38" s="10" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D39" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D40" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D41" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D42" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D43" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>109</v>
       </c>
@@ -2345,857 +2289,857 @@
         <v>3</v>
       </c>
       <c r="C44" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D44" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="36">
-      <c r="A45" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D45" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D46" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D47" s="12">
-        <v>0.95833333333333337</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
       <c r="C48" s="12">
-        <v>0.95833333333333337</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D48" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B49" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D49" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18">
-      <c r="A50" s="14" t="s">
-        <v>19</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D50" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D51" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D52" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D53" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D54" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D55" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D56" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D57" s="12">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D58" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D59" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B60" s="11">
         <v>4</v>
       </c>
       <c r="C60" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D60" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B61" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D61" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="18">
-      <c r="A62" s="11" t="s">
-        <v>126</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
       </c>
       <c r="C62" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D62" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>127</v>
+      <c r="F62" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18">
-      <c r="A63" s="13" t="s">
-        <v>6</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D63" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D64" s="12">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D65" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>135</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D66" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="18">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D67" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D68" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D69" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18">
-      <c r="A70" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D70" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>143</v>
+        <v>41</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
       </c>
       <c r="C71" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D71" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1">
-      <c r="A72" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="11">
-        <v>5</v>
-      </c>
-      <c r="C72" s="12">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="H72" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D73" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D74" s="2">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="34.799999999999997">
-      <c r="A75" s="21" t="s">
-        <v>149</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D75" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D76" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -3203,77 +3147,77 @@
         <v>6</v>
       </c>
       <c r="C77" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D77" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D78" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D79" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3281,950 +3225,924 @@
         <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D80" s="2">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G80" s="10" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
       </c>
       <c r="C81" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D81" s="2">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="1">
-        <v>6</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.4993055555555555</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="17"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="18"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="4"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="17"/>
-    </row>
-    <row r="93" spans="1:8">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="17"/>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="3"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="2:6">
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="2:6">
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="2:6">
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="17"/>
-    </row>
-    <row r="118" spans="2:6">
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:6">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:6">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="2:6">
+      <c r="F134" s="18"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="18"/>
-    </row>
-    <row r="136" spans="2:6">
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="2:6">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="2:6">
+      <c r="E137" s="5"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="17"/>
-    </row>
-    <row r="139" spans="2:6">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="2:6">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:6">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="2:6">
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="17"/>
     </row>
-    <row r="143" spans="2:6">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="17"/>
-    </row>
-    <row r="144" spans="2:6">
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:6">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="2:6">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="2:6">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="2:6">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="2:6">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="2:6">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="2:6">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="2:6">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="2:6">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="2:6">
+      <c r="F158" s="17"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="2:6">
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="F162" s="17"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
       <c r="F163" s="17"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="17"/>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="7"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="7"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="3"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="F187" s="17"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="17"/>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="F191" s="17"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="17"/>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="3"/>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="7"/>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="F211" s="17"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="17"/>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="1"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
-    </row>
-    <row r="214" spans="1:8">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="1"/>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="F217" s="17"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="8"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="17"/>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="3"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4232,12 +4150,12 @@
     <hyperlink ref="G13" r:id="rId2"/>
     <hyperlink ref="G14" r:id="rId3"/>
     <hyperlink ref="G37" r:id="rId4"/>
-    <hyperlink ref="G50" r:id="rId5"/>
-    <hyperlink ref="G51" r:id="rId6"/>
-    <hyperlink ref="G58" r:id="rId7"/>
-    <hyperlink ref="G60" r:id="rId8"/>
-    <hyperlink ref="G61" r:id="rId9"/>
-    <hyperlink ref="G72" r:id="rId10"/>
+    <hyperlink ref="G49" r:id="rId5"/>
+    <hyperlink ref="G50" r:id="rId6"/>
+    <hyperlink ref="G57" r:id="rId7"/>
+    <hyperlink ref="G59" r:id="rId8"/>
+    <hyperlink ref="G60" r:id="rId9"/>
+    <hyperlink ref="G71" r:id="rId10"/>
     <hyperlink ref="G3" r:id="rId11"/>
     <hyperlink ref="G4" r:id="rId12"/>
     <hyperlink ref="H2" r:id="rId13"/>
@@ -4248,7 +4166,7 @@
     <hyperlink ref="G12" r:id="rId18"/>
     <hyperlink ref="G10" r:id="rId19"/>
     <hyperlink ref="G15" r:id="rId20"/>
-    <hyperlink ref="G42" r:id="rId21"/>
+    <hyperlink ref="G41" r:id="rId21"/>
     <hyperlink ref="G18" r:id="rId22"/>
     <hyperlink ref="G19" r:id="rId23"/>
     <hyperlink ref="G20" r:id="rId24"/>
@@ -4257,140 +4175,138 @@
     <hyperlink ref="H4" r:id="rId27"/>
     <hyperlink ref="H10" r:id="rId28"/>
     <hyperlink ref="H15" r:id="rId29"/>
-    <hyperlink ref="H42" r:id="rId30"/>
+    <hyperlink ref="H41" r:id="rId30"/>
     <hyperlink ref="H17" r:id="rId31"/>
     <hyperlink ref="G17" r:id="rId32"/>
     <hyperlink ref="G25" r:id="rId33"/>
-    <hyperlink ref="G38" r:id="rId34"/>
-    <hyperlink ref="G31" r:id="rId35"/>
-    <hyperlink ref="G27" r:id="rId36"/>
-    <hyperlink ref="G29" r:id="rId37"/>
+    <hyperlink ref="G31" r:id="rId34"/>
+    <hyperlink ref="G27" r:id="rId35"/>
+    <hyperlink ref="G29" r:id="rId36"/>
+    <hyperlink ref="G43" r:id="rId37"/>
     <hyperlink ref="G44" r:id="rId38"/>
     <hyperlink ref="G45" r:id="rId39"/>
-    <hyperlink ref="G46" r:id="rId40"/>
-    <hyperlink ref="G53" r:id="rId41"/>
-    <hyperlink ref="G55" r:id="rId42"/>
-    <hyperlink ref="G59" r:id="rId43"/>
+    <hyperlink ref="G52" r:id="rId40"/>
+    <hyperlink ref="G54" r:id="rId41"/>
+    <hyperlink ref="G58" r:id="rId42"/>
+    <hyperlink ref="G63" r:id="rId43"/>
     <hyperlink ref="G64" r:id="rId44"/>
     <hyperlink ref="G65" r:id="rId45"/>
     <hyperlink ref="G66" r:id="rId46"/>
-    <hyperlink ref="G67" r:id="rId47"/>
-    <hyperlink ref="G70" r:id="rId48"/>
-    <hyperlink ref="G74" r:id="rId49"/>
-    <hyperlink ref="G77" r:id="rId50"/>
-    <hyperlink ref="G80" r:id="rId51"/>
-    <hyperlink ref="G57" r:id="rId52"/>
-    <hyperlink ref="H80" r:id="rId53"/>
-    <hyperlink ref="H74" r:id="rId54"/>
-    <hyperlink ref="H70" r:id="rId55"/>
-    <hyperlink ref="H67" r:id="rId56"/>
-    <hyperlink ref="H66" r:id="rId57"/>
-    <hyperlink ref="H64" r:id="rId58"/>
-    <hyperlink ref="H59" r:id="rId59"/>
-    <hyperlink ref="H56" r:id="rId60"/>
-    <hyperlink ref="H55" r:id="rId61"/>
-    <hyperlink ref="H44" r:id="rId62"/>
-    <hyperlink ref="H46" r:id="rId63"/>
-    <hyperlink ref="H45" r:id="rId64"/>
-    <hyperlink ref="H33" r:id="rId65"/>
-    <hyperlink ref="H38" r:id="rId66"/>
-    <hyperlink ref="H31" r:id="rId67"/>
-    <hyperlink ref="H29" r:id="rId68"/>
-    <hyperlink ref="H26" r:id="rId69"/>
-    <hyperlink ref="H22" r:id="rId70"/>
-    <hyperlink ref="H21" r:id="rId71"/>
-    <hyperlink ref="H18" r:id="rId72"/>
-    <hyperlink ref="H3" r:id="rId73"/>
-    <hyperlink ref="H5" r:id="rId74"/>
-    <hyperlink ref="H6" r:id="rId75"/>
-    <hyperlink ref="H7" r:id="rId76"/>
-    <hyperlink ref="H9" r:id="rId77"/>
-    <hyperlink ref="H14" r:id="rId78"/>
-    <hyperlink ref="H13" r:id="rId79"/>
-    <hyperlink ref="H12" r:id="rId80"/>
-    <hyperlink ref="H11" r:id="rId81"/>
-    <hyperlink ref="H23" r:id="rId82"/>
-    <hyperlink ref="H24" r:id="rId83"/>
-    <hyperlink ref="H25" r:id="rId84"/>
-    <hyperlink ref="H27" r:id="rId85"/>
-    <hyperlink ref="H30" r:id="rId86"/>
-    <hyperlink ref="H32" r:id="rId87"/>
-    <hyperlink ref="H34" r:id="rId88"/>
-    <hyperlink ref="H35" r:id="rId89"/>
-    <hyperlink ref="H36" r:id="rId90"/>
-    <hyperlink ref="H37" r:id="rId91"/>
-    <hyperlink ref="H39" r:id="rId92"/>
-    <hyperlink ref="H41" r:id="rId93"/>
-    <hyperlink ref="H43" r:id="rId94"/>
-    <hyperlink ref="H47" r:id="rId95"/>
-    <hyperlink ref="H48" r:id="rId96"/>
-    <hyperlink ref="H49" r:id="rId97"/>
-    <hyperlink ref="H50" r:id="rId98"/>
-    <hyperlink ref="H51" r:id="rId99"/>
-    <hyperlink ref="H57" r:id="rId100"/>
-    <hyperlink ref="H58" r:id="rId101"/>
-    <hyperlink ref="H60" r:id="rId102"/>
-    <hyperlink ref="H61" r:id="rId103"/>
-    <hyperlink ref="H62" r:id="rId104"/>
-    <hyperlink ref="H82" r:id="rId105"/>
-    <hyperlink ref="H81" r:id="rId106"/>
-    <hyperlink ref="H79" r:id="rId107"/>
-    <hyperlink ref="H78" r:id="rId108"/>
-    <hyperlink ref="H76" r:id="rId109"/>
-    <hyperlink ref="H75" r:id="rId110"/>
-    <hyperlink ref="H73" r:id="rId111"/>
-    <hyperlink ref="H72" r:id="rId112"/>
-    <hyperlink ref="H71" r:id="rId113"/>
-    <hyperlink ref="H69" r:id="rId114"/>
-    <hyperlink ref="H68" r:id="rId115"/>
-    <hyperlink ref="H52" r:id="rId116"/>
-    <hyperlink ref="G26" r:id="rId117"/>
-    <hyperlink ref="G24" r:id="rId118"/>
-    <hyperlink ref="G23" r:id="rId119"/>
-    <hyperlink ref="G32" r:id="rId120"/>
-    <hyperlink ref="G34" r:id="rId121"/>
-    <hyperlink ref="G35" r:id="rId122"/>
-    <hyperlink ref="G36" r:id="rId123"/>
-    <hyperlink ref="G39" r:id="rId124"/>
-    <hyperlink ref="G41" r:id="rId125"/>
-    <hyperlink ref="G43" r:id="rId126"/>
-    <hyperlink ref="G30" r:id="rId127"/>
-    <hyperlink ref="G62" r:id="rId128"/>
-    <hyperlink ref="G68" r:id="rId129"/>
-    <hyperlink ref="G69" r:id="rId130"/>
-    <hyperlink ref="G71" r:id="rId131"/>
-    <hyperlink ref="G73" r:id="rId132"/>
-    <hyperlink ref="G75" r:id="rId133"/>
-    <hyperlink ref="G76" r:id="rId134"/>
-    <hyperlink ref="G78" r:id="rId135"/>
-    <hyperlink ref="G79" r:id="rId136"/>
-    <hyperlink ref="G81" r:id="rId137"/>
-    <hyperlink ref="G82" r:id="rId138"/>
-    <hyperlink ref="G28" r:id="rId139"/>
-    <hyperlink ref="H28" r:id="rId140"/>
-    <hyperlink ref="G40" r:id="rId141"/>
-    <hyperlink ref="H40" r:id="rId142"/>
-    <hyperlink ref="H19" r:id="rId143"/>
-    <hyperlink ref="H54" r:id="rId144"/>
-    <hyperlink ref="H53" r:id="rId145"/>
-    <hyperlink ref="H65" r:id="rId146"/>
-    <hyperlink ref="H77" r:id="rId147"/>
-    <hyperlink ref="H20" r:id="rId148"/>
-    <hyperlink ref="G49" r:id="rId149"/>
-    <hyperlink ref="G54" r:id="rId150"/>
-    <hyperlink ref="G47" r:id="rId151"/>
-    <hyperlink ref="G48" r:id="rId152"/>
-    <hyperlink ref="H8" r:id="rId153"/>
-    <hyperlink ref="G8" r:id="rId154"/>
-    <hyperlink ref="G33" r:id="rId155"/>
-    <hyperlink ref="G52" r:id="rId156"/>
-    <hyperlink ref="G56" r:id="rId157"/>
-    <hyperlink ref="H16" r:id="rId158"/>
-    <hyperlink ref="G16" r:id="rId159"/>
-    <hyperlink ref="G63" r:id="rId160"/>
-    <hyperlink ref="H63" r:id="rId161"/>
+    <hyperlink ref="G69" r:id="rId47"/>
+    <hyperlink ref="G73" r:id="rId48"/>
+    <hyperlink ref="G76" r:id="rId49"/>
+    <hyperlink ref="G79" r:id="rId50"/>
+    <hyperlink ref="G56" r:id="rId51"/>
+    <hyperlink ref="H79" r:id="rId52"/>
+    <hyperlink ref="H73" r:id="rId53"/>
+    <hyperlink ref="H69" r:id="rId54"/>
+    <hyperlink ref="H66" r:id="rId55"/>
+    <hyperlink ref="H65" r:id="rId56"/>
+    <hyperlink ref="H63" r:id="rId57"/>
+    <hyperlink ref="H58" r:id="rId58"/>
+    <hyperlink ref="H55" r:id="rId59"/>
+    <hyperlink ref="H54" r:id="rId60"/>
+    <hyperlink ref="H43" r:id="rId61"/>
+    <hyperlink ref="H45" r:id="rId62"/>
+    <hyperlink ref="H44" r:id="rId63"/>
+    <hyperlink ref="H33" r:id="rId64"/>
+    <hyperlink ref="H31" r:id="rId65"/>
+    <hyperlink ref="H29" r:id="rId66"/>
+    <hyperlink ref="H26" r:id="rId67"/>
+    <hyperlink ref="H22" r:id="rId68"/>
+    <hyperlink ref="H21" r:id="rId69"/>
+    <hyperlink ref="H18" r:id="rId70"/>
+    <hyperlink ref="H3" r:id="rId71"/>
+    <hyperlink ref="H5" r:id="rId72"/>
+    <hyperlink ref="H6" r:id="rId73"/>
+    <hyperlink ref="H7" r:id="rId74"/>
+    <hyperlink ref="H9" r:id="rId75"/>
+    <hyperlink ref="H14" r:id="rId76"/>
+    <hyperlink ref="H13" r:id="rId77"/>
+    <hyperlink ref="H12" r:id="rId78"/>
+    <hyperlink ref="H11" r:id="rId79"/>
+    <hyperlink ref="H23" r:id="rId80"/>
+    <hyperlink ref="H24" r:id="rId81"/>
+    <hyperlink ref="H25" r:id="rId82"/>
+    <hyperlink ref="H27" r:id="rId83"/>
+    <hyperlink ref="H30" r:id="rId84"/>
+    <hyperlink ref="H32" r:id="rId85"/>
+    <hyperlink ref="H34" r:id="rId86"/>
+    <hyperlink ref="H35" r:id="rId87"/>
+    <hyperlink ref="H36" r:id="rId88"/>
+    <hyperlink ref="H37" r:id="rId89"/>
+    <hyperlink ref="H38" r:id="rId90"/>
+    <hyperlink ref="H40" r:id="rId91"/>
+    <hyperlink ref="H42" r:id="rId92"/>
+    <hyperlink ref="H46" r:id="rId93"/>
+    <hyperlink ref="H47" r:id="rId94"/>
+    <hyperlink ref="H48" r:id="rId95"/>
+    <hyperlink ref="H49" r:id="rId96"/>
+    <hyperlink ref="H50" r:id="rId97"/>
+    <hyperlink ref="H56" r:id="rId98"/>
+    <hyperlink ref="H57" r:id="rId99"/>
+    <hyperlink ref="H59" r:id="rId100"/>
+    <hyperlink ref="H60" r:id="rId101"/>
+    <hyperlink ref="H61" r:id="rId102"/>
+    <hyperlink ref="H81" r:id="rId103"/>
+    <hyperlink ref="H80" r:id="rId104"/>
+    <hyperlink ref="H78" r:id="rId105"/>
+    <hyperlink ref="H77" r:id="rId106"/>
+    <hyperlink ref="H75" r:id="rId107"/>
+    <hyperlink ref="H74" r:id="rId108"/>
+    <hyperlink ref="H72" r:id="rId109"/>
+    <hyperlink ref="H71" r:id="rId110"/>
+    <hyperlink ref="H70" r:id="rId111"/>
+    <hyperlink ref="H68" r:id="rId112"/>
+    <hyperlink ref="H67" r:id="rId113"/>
+    <hyperlink ref="H51" r:id="rId114"/>
+    <hyperlink ref="G26" r:id="rId115"/>
+    <hyperlink ref="G24" r:id="rId116"/>
+    <hyperlink ref="G23" r:id="rId117"/>
+    <hyperlink ref="G32" r:id="rId118"/>
+    <hyperlink ref="G34" r:id="rId119"/>
+    <hyperlink ref="G35" r:id="rId120"/>
+    <hyperlink ref="G36" r:id="rId121"/>
+    <hyperlink ref="G38" r:id="rId122"/>
+    <hyperlink ref="G40" r:id="rId123"/>
+    <hyperlink ref="G42" r:id="rId124"/>
+    <hyperlink ref="G30" r:id="rId125"/>
+    <hyperlink ref="G61" r:id="rId126"/>
+    <hyperlink ref="G67" r:id="rId127"/>
+    <hyperlink ref="G68" r:id="rId128"/>
+    <hyperlink ref="G70" r:id="rId129"/>
+    <hyperlink ref="G72" r:id="rId130"/>
+    <hyperlink ref="G74" r:id="rId131"/>
+    <hyperlink ref="G75" r:id="rId132"/>
+    <hyperlink ref="G77" r:id="rId133"/>
+    <hyperlink ref="G78" r:id="rId134"/>
+    <hyperlink ref="G80" r:id="rId135"/>
+    <hyperlink ref="G81" r:id="rId136"/>
+    <hyperlink ref="G28" r:id="rId137"/>
+    <hyperlink ref="H28" r:id="rId138"/>
+    <hyperlink ref="G39" r:id="rId139"/>
+    <hyperlink ref="H39" r:id="rId140"/>
+    <hyperlink ref="H19" r:id="rId141"/>
+    <hyperlink ref="H53" r:id="rId142"/>
+    <hyperlink ref="H52" r:id="rId143"/>
+    <hyperlink ref="H64" r:id="rId144"/>
+    <hyperlink ref="H76" r:id="rId145"/>
+    <hyperlink ref="H20" r:id="rId146"/>
+    <hyperlink ref="G48" r:id="rId147"/>
+    <hyperlink ref="G53" r:id="rId148"/>
+    <hyperlink ref="G46" r:id="rId149"/>
+    <hyperlink ref="G47" r:id="rId150"/>
+    <hyperlink ref="H8" r:id="rId151"/>
+    <hyperlink ref="G8" r:id="rId152"/>
+    <hyperlink ref="G33" r:id="rId153"/>
+    <hyperlink ref="G51" r:id="rId154"/>
+    <hyperlink ref="G55" r:id="rId155"/>
+    <hyperlink ref="H16" r:id="rId156"/>
+    <hyperlink ref="G16" r:id="rId157"/>
+    <hyperlink ref="G62" r:id="rId158"/>
+    <hyperlink ref="H62" r:id="rId159"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId160"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="236">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_e474bc38cd9d46a5b7af4e985ee1892c~mv2.png/v1/fill/w_162,h_171,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/logo%20radio%20sol%20</t>
+  </si>
+  <si>
+    <t>בהגשת נירו</t>
+  </si>
+  <si>
+    <t>אביזה ברדיו סול</t>
+  </si>
+  <si>
+    <t>תכנית חבקת עולם אלקטרונית בשיתוף רדיו אביזה</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_990be34b0ec34988a618b3079c7cbd53~mv2.png</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2058,7 +2070,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D35" s="12">
-        <v>0.99930555555555556</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>41</v>
@@ -2075,48 +2087,48 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
       </c>
       <c r="C36" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D36" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D36" s="12">
+      <c r="E36" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D37" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="11">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>24</v>
+      <c r="F37" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>23</v>
@@ -2127,22 +2139,22 @@
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D38" s="12">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0.5</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>23</v>
@@ -2153,22 +2165,22 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
       </c>
       <c r="C39" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D39" s="12">
         <v>0.5</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.58333333333333337</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>23</v>
@@ -2179,22 +2191,22 @@
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
       </c>
       <c r="C40" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.625</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>23</v>
@@ -2205,155 +2217,155 @@
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.625</v>
       </c>
-      <c r="D41" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D42" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D42" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.75</v>
       </c>
-      <c r="D44" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D45" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.91666666666666663</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0.95833333333333337</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>165</v>
@@ -2361,22 +2373,22 @@
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D47" s="12">
         <v>0.95833333333333337</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0.99930555555555556</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>23</v>
@@ -2387,22 +2399,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
       <c r="C48" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D48" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>23</v>
@@ -2413,22 +2425,22 @@
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B49" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D49" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>23</v>
@@ -2438,23 +2450,23 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
-        <v>7</v>
+      <c r="A50" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
       </c>
       <c r="C50" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D50" s="12">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0.45833333333333331</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>23</v>
@@ -2465,256 +2477,256 @@
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D51" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D52" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D53" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.625</v>
       </c>
-      <c r="D54" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="11">
         <v>4</v>
       </c>
       <c r="C55" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D55" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
       </c>
       <c r="C56" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D56" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D56" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D57" s="12">
         <v>0.75</v>
       </c>
-      <c r="D57" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D58" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D58" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D59" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D59" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B60" s="11">
         <v>4</v>
       </c>
       <c r="C60" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D60" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
@@ -2725,204 +2737,204 @@
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B61" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0.41666666666666669</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="13" t="s">
-        <v>6</v>
+      <c r="A62" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
       </c>
       <c r="C62" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D62" s="12">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0.45833333333333331</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>81</v>
+      <c r="F62" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
-        <v>125</v>
+      <c r="A63" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D63" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D64" s="12">
         <v>0.5</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D65" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
-        <v>0.625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D66" s="12">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D67" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D67" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D68" s="12">
         <v>0.75</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0.83333333333333337</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>23</v>
@@ -2933,103 +2945,103 @@
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D69" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>140</v>
+        <v>41</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D70" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D70" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
       </c>
       <c r="C71" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D71" s="12">
         <v>0.99930555555555556</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0.33333333333333331</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="11">
+        <v>5</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G72" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1">
-        <v>6</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>165</v>
@@ -3037,74 +3049,74 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
       <c r="C73" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D73" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>146</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.5</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
@@ -3115,25 +3127,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.75</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>165</v>
@@ -3141,25 +3153,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.75</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>165</v>
@@ -3167,22 +3179,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.83333333333333337</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.91666666666666663</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>23</v>
@@ -3193,74 +3205,74 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D79" s="2">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D80" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
       </c>
       <c r="C81" s="2">
-        <v>0.4993055555555555</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D81" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>23</v>
@@ -3270,10 +3282,30 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
@@ -3304,63 +3336,62 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="17"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="17"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
@@ -3454,6 +3485,7 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3482,32 +3514,32 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
@@ -3610,13 +3642,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
@@ -3628,14 +3660,14 @@
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
@@ -3654,7 +3686,6 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="17"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
@@ -3668,6 +3699,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="1"/>
+      <c r="F143" s="17"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
@@ -3758,13 +3790,13 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
+      <c r="F159" s="17"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
@@ -3783,7 +3815,6 @@
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
@@ -3797,6 +3828,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
@@ -3808,7 +3840,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
@@ -3823,7 +3855,6 @@
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="7"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3837,6 +3868,7 @@
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3900,7 +3932,7 @@
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="1"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
@@ -3921,7 +3953,6 @@
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3935,17 +3966,18 @@
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="1"/>
+      <c r="F188" s="17"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
@@ -3960,12 +3992,10 @@
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
@@ -3973,6 +4003,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="1"/>
+      <c r="F192" s="17"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
@@ -4024,13 +4055,13 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4044,6 +4075,7 @@
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4096,21 +4128,21 @@
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
-      <c r="G212" s="9"/>
-      <c r="H212" s="9"/>
+      <c r="F212" s="17"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="1"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
@@ -4135,27 +4167,33 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="17"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="8"/>
+      <c r="D218" s="2"/>
       <c r="E218" s="1"/>
+      <c r="F218" s="17"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="3"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G13" r:id="rId2"/>
     <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G37" r:id="rId4"/>
-    <hyperlink ref="G49" r:id="rId5"/>
-    <hyperlink ref="G50" r:id="rId6"/>
-    <hyperlink ref="G57" r:id="rId7"/>
-    <hyperlink ref="G59" r:id="rId8"/>
-    <hyperlink ref="G60" r:id="rId9"/>
-    <hyperlink ref="G71" r:id="rId10"/>
+    <hyperlink ref="G38" r:id="rId4"/>
+    <hyperlink ref="G50" r:id="rId5"/>
+    <hyperlink ref="G51" r:id="rId6"/>
+    <hyperlink ref="G58" r:id="rId7"/>
+    <hyperlink ref="G60" r:id="rId8"/>
+    <hyperlink ref="G61" r:id="rId9"/>
+    <hyperlink ref="G72" r:id="rId10"/>
     <hyperlink ref="G3" r:id="rId11"/>
     <hyperlink ref="G4" r:id="rId12"/>
     <hyperlink ref="H2" r:id="rId13"/>
@@ -4166,7 +4204,7 @@
     <hyperlink ref="G12" r:id="rId18"/>
     <hyperlink ref="G10" r:id="rId19"/>
     <hyperlink ref="G15" r:id="rId20"/>
-    <hyperlink ref="G41" r:id="rId21"/>
+    <hyperlink ref="G42" r:id="rId21"/>
     <hyperlink ref="G18" r:id="rId22"/>
     <hyperlink ref="G19" r:id="rId23"/>
     <hyperlink ref="G20" r:id="rId24"/>
@@ -4175,40 +4213,40 @@
     <hyperlink ref="H4" r:id="rId27"/>
     <hyperlink ref="H10" r:id="rId28"/>
     <hyperlink ref="H15" r:id="rId29"/>
-    <hyperlink ref="H41" r:id="rId30"/>
+    <hyperlink ref="H42" r:id="rId30"/>
     <hyperlink ref="H17" r:id="rId31"/>
     <hyperlink ref="G17" r:id="rId32"/>
     <hyperlink ref="G25" r:id="rId33"/>
     <hyperlink ref="G31" r:id="rId34"/>
     <hyperlink ref="G27" r:id="rId35"/>
     <hyperlink ref="G29" r:id="rId36"/>
-    <hyperlink ref="G43" r:id="rId37"/>
-    <hyperlink ref="G44" r:id="rId38"/>
-    <hyperlink ref="G45" r:id="rId39"/>
-    <hyperlink ref="G52" r:id="rId40"/>
-    <hyperlink ref="G54" r:id="rId41"/>
-    <hyperlink ref="G58" r:id="rId42"/>
-    <hyperlink ref="G63" r:id="rId43"/>
-    <hyperlink ref="G64" r:id="rId44"/>
-    <hyperlink ref="G65" r:id="rId45"/>
-    <hyperlink ref="G66" r:id="rId46"/>
-    <hyperlink ref="G69" r:id="rId47"/>
-    <hyperlink ref="G73" r:id="rId48"/>
-    <hyperlink ref="G76" r:id="rId49"/>
-    <hyperlink ref="G79" r:id="rId50"/>
-    <hyperlink ref="G56" r:id="rId51"/>
-    <hyperlink ref="H79" r:id="rId52"/>
-    <hyperlink ref="H73" r:id="rId53"/>
-    <hyperlink ref="H69" r:id="rId54"/>
-    <hyperlink ref="H66" r:id="rId55"/>
-    <hyperlink ref="H65" r:id="rId56"/>
-    <hyperlink ref="H63" r:id="rId57"/>
-    <hyperlink ref="H58" r:id="rId58"/>
-    <hyperlink ref="H55" r:id="rId59"/>
-    <hyperlink ref="H54" r:id="rId60"/>
-    <hyperlink ref="H43" r:id="rId61"/>
-    <hyperlink ref="H45" r:id="rId62"/>
-    <hyperlink ref="H44" r:id="rId63"/>
+    <hyperlink ref="G44" r:id="rId37"/>
+    <hyperlink ref="G45" r:id="rId38"/>
+    <hyperlink ref="G46" r:id="rId39"/>
+    <hyperlink ref="G53" r:id="rId40"/>
+    <hyperlink ref="G55" r:id="rId41"/>
+    <hyperlink ref="G59" r:id="rId42"/>
+    <hyperlink ref="G64" r:id="rId43"/>
+    <hyperlink ref="G65" r:id="rId44"/>
+    <hyperlink ref="G66" r:id="rId45"/>
+    <hyperlink ref="G67" r:id="rId46"/>
+    <hyperlink ref="G70" r:id="rId47"/>
+    <hyperlink ref="G74" r:id="rId48"/>
+    <hyperlink ref="G77" r:id="rId49"/>
+    <hyperlink ref="G80" r:id="rId50"/>
+    <hyperlink ref="G57" r:id="rId51"/>
+    <hyperlink ref="H80" r:id="rId52"/>
+    <hyperlink ref="H74" r:id="rId53"/>
+    <hyperlink ref="H70" r:id="rId54"/>
+    <hyperlink ref="H67" r:id="rId55"/>
+    <hyperlink ref="H66" r:id="rId56"/>
+    <hyperlink ref="H64" r:id="rId57"/>
+    <hyperlink ref="H59" r:id="rId58"/>
+    <hyperlink ref="H56" r:id="rId59"/>
+    <hyperlink ref="H55" r:id="rId60"/>
+    <hyperlink ref="H44" r:id="rId61"/>
+    <hyperlink ref="H46" r:id="rId62"/>
+    <hyperlink ref="H45" r:id="rId63"/>
     <hyperlink ref="H33" r:id="rId64"/>
     <hyperlink ref="H31" r:id="rId65"/>
     <hyperlink ref="H29" r:id="rId66"/>
@@ -4233,80 +4271,82 @@
     <hyperlink ref="H32" r:id="rId85"/>
     <hyperlink ref="H34" r:id="rId86"/>
     <hyperlink ref="H35" r:id="rId87"/>
-    <hyperlink ref="H36" r:id="rId88"/>
-    <hyperlink ref="H37" r:id="rId89"/>
-    <hyperlink ref="H38" r:id="rId90"/>
-    <hyperlink ref="H40" r:id="rId91"/>
-    <hyperlink ref="H42" r:id="rId92"/>
-    <hyperlink ref="H46" r:id="rId93"/>
-    <hyperlink ref="H47" r:id="rId94"/>
-    <hyperlink ref="H48" r:id="rId95"/>
-    <hyperlink ref="H49" r:id="rId96"/>
-    <hyperlink ref="H50" r:id="rId97"/>
-    <hyperlink ref="H56" r:id="rId98"/>
-    <hyperlink ref="H57" r:id="rId99"/>
-    <hyperlink ref="H59" r:id="rId100"/>
-    <hyperlink ref="H60" r:id="rId101"/>
-    <hyperlink ref="H61" r:id="rId102"/>
-    <hyperlink ref="H81" r:id="rId103"/>
-    <hyperlink ref="H80" r:id="rId104"/>
-    <hyperlink ref="H78" r:id="rId105"/>
-    <hyperlink ref="H77" r:id="rId106"/>
-    <hyperlink ref="H75" r:id="rId107"/>
-    <hyperlink ref="H74" r:id="rId108"/>
-    <hyperlink ref="H72" r:id="rId109"/>
-    <hyperlink ref="H71" r:id="rId110"/>
-    <hyperlink ref="H70" r:id="rId111"/>
-    <hyperlink ref="H68" r:id="rId112"/>
-    <hyperlink ref="H67" r:id="rId113"/>
-    <hyperlink ref="H51" r:id="rId114"/>
+    <hyperlink ref="H37" r:id="rId88"/>
+    <hyperlink ref="H38" r:id="rId89"/>
+    <hyperlink ref="H39" r:id="rId90"/>
+    <hyperlink ref="H41" r:id="rId91"/>
+    <hyperlink ref="H43" r:id="rId92"/>
+    <hyperlink ref="H47" r:id="rId93"/>
+    <hyperlink ref="H48" r:id="rId94"/>
+    <hyperlink ref="H49" r:id="rId95"/>
+    <hyperlink ref="H50" r:id="rId96"/>
+    <hyperlink ref="H51" r:id="rId97"/>
+    <hyperlink ref="H57" r:id="rId98"/>
+    <hyperlink ref="H58" r:id="rId99"/>
+    <hyperlink ref="H60" r:id="rId100"/>
+    <hyperlink ref="H61" r:id="rId101"/>
+    <hyperlink ref="H62" r:id="rId102"/>
+    <hyperlink ref="H82" r:id="rId103"/>
+    <hyperlink ref="H81" r:id="rId104"/>
+    <hyperlink ref="H79" r:id="rId105"/>
+    <hyperlink ref="H78" r:id="rId106"/>
+    <hyperlink ref="H76" r:id="rId107"/>
+    <hyperlink ref="H75" r:id="rId108"/>
+    <hyperlink ref="H73" r:id="rId109"/>
+    <hyperlink ref="H72" r:id="rId110"/>
+    <hyperlink ref="H71" r:id="rId111"/>
+    <hyperlink ref="H69" r:id="rId112"/>
+    <hyperlink ref="H68" r:id="rId113"/>
+    <hyperlink ref="H52" r:id="rId114"/>
     <hyperlink ref="G26" r:id="rId115"/>
     <hyperlink ref="G24" r:id="rId116"/>
     <hyperlink ref="G23" r:id="rId117"/>
     <hyperlink ref="G32" r:id="rId118"/>
     <hyperlink ref="G34" r:id="rId119"/>
     <hyperlink ref="G35" r:id="rId120"/>
-    <hyperlink ref="G36" r:id="rId121"/>
-    <hyperlink ref="G38" r:id="rId122"/>
-    <hyperlink ref="G40" r:id="rId123"/>
-    <hyperlink ref="G42" r:id="rId124"/>
+    <hyperlink ref="G37" r:id="rId121"/>
+    <hyperlink ref="G39" r:id="rId122"/>
+    <hyperlink ref="G41" r:id="rId123"/>
+    <hyperlink ref="G43" r:id="rId124"/>
     <hyperlink ref="G30" r:id="rId125"/>
-    <hyperlink ref="G61" r:id="rId126"/>
-    <hyperlink ref="G67" r:id="rId127"/>
-    <hyperlink ref="G68" r:id="rId128"/>
-    <hyperlink ref="G70" r:id="rId129"/>
-    <hyperlink ref="G72" r:id="rId130"/>
-    <hyperlink ref="G74" r:id="rId131"/>
-    <hyperlink ref="G75" r:id="rId132"/>
-    <hyperlink ref="G77" r:id="rId133"/>
-    <hyperlink ref="G78" r:id="rId134"/>
-    <hyperlink ref="G80" r:id="rId135"/>
-    <hyperlink ref="G81" r:id="rId136"/>
+    <hyperlink ref="G62" r:id="rId126"/>
+    <hyperlink ref="G68" r:id="rId127"/>
+    <hyperlink ref="G69" r:id="rId128"/>
+    <hyperlink ref="G71" r:id="rId129"/>
+    <hyperlink ref="G73" r:id="rId130"/>
+    <hyperlink ref="G75" r:id="rId131"/>
+    <hyperlink ref="G76" r:id="rId132"/>
+    <hyperlink ref="G78" r:id="rId133"/>
+    <hyperlink ref="G79" r:id="rId134"/>
+    <hyperlink ref="G81" r:id="rId135"/>
+    <hyperlink ref="G82" r:id="rId136"/>
     <hyperlink ref="G28" r:id="rId137"/>
     <hyperlink ref="H28" r:id="rId138"/>
-    <hyperlink ref="G39" r:id="rId139"/>
-    <hyperlink ref="H39" r:id="rId140"/>
+    <hyperlink ref="G40" r:id="rId139"/>
+    <hyperlink ref="H40" r:id="rId140"/>
     <hyperlink ref="H19" r:id="rId141"/>
-    <hyperlink ref="H53" r:id="rId142"/>
-    <hyperlink ref="H52" r:id="rId143"/>
-    <hyperlink ref="H64" r:id="rId144"/>
-    <hyperlink ref="H76" r:id="rId145"/>
+    <hyperlink ref="H54" r:id="rId142"/>
+    <hyperlink ref="H53" r:id="rId143"/>
+    <hyperlink ref="H65" r:id="rId144"/>
+    <hyperlink ref="H77" r:id="rId145"/>
     <hyperlink ref="H20" r:id="rId146"/>
-    <hyperlink ref="G48" r:id="rId147"/>
-    <hyperlink ref="G53" r:id="rId148"/>
-    <hyperlink ref="G46" r:id="rId149"/>
-    <hyperlink ref="G47" r:id="rId150"/>
+    <hyperlink ref="G49" r:id="rId147"/>
+    <hyperlink ref="G54" r:id="rId148"/>
+    <hyperlink ref="G47" r:id="rId149"/>
+    <hyperlink ref="G48" r:id="rId150"/>
     <hyperlink ref="H8" r:id="rId151"/>
     <hyperlink ref="G8" r:id="rId152"/>
     <hyperlink ref="G33" r:id="rId153"/>
-    <hyperlink ref="G51" r:id="rId154"/>
-    <hyperlink ref="G55" r:id="rId155"/>
+    <hyperlink ref="G52" r:id="rId154"/>
+    <hyperlink ref="G56" r:id="rId155"/>
     <hyperlink ref="H16" r:id="rId156"/>
     <hyperlink ref="G16" r:id="rId157"/>
-    <hyperlink ref="G62" r:id="rId158"/>
-    <hyperlink ref="H62" r:id="rId159"/>
+    <hyperlink ref="G63" r:id="rId158"/>
+    <hyperlink ref="H63" r:id="rId159"/>
+    <hyperlink ref="H36" r:id="rId160"/>
+    <hyperlink ref="G36" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId160"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -35,9 +35,6 @@
     <t>פרלמנט הנדל"ן</t>
   </si>
   <si>
-    <t>אמנים על הגריל</t>
-  </si>
-  <si>
     <t>מדברים מקומי</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>הכל על נדל"ן עם מומחים בתחומים שונים</t>
   </si>
   <si>
-    <t>שירים חדשים ומה שביניהם</t>
-  </si>
-  <si>
     <t>ערי השרון בחברה, בתחבורה, בנדל"ן ובפוליטיקה</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>פדגוגיה/ נפגשים מחוץ לקופסא PLAY THE</t>
   </si>
   <si>
-    <t>אמנות ושמה תקשורת</t>
-  </si>
-  <si>
     <t>מיש מש ישראלי</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
     <t>במה ליוזמה חינוכית ערכית, משחוק ובמה להצלחה</t>
   </si>
   <si>
-    <t>מערכות יחסים וגידול ילדים</t>
-  </si>
-  <si>
     <t>היסטוריה, תרבות, סרטים וסדרות, טיפים לתיירים</t>
   </si>
   <si>
@@ -227,9 +215,6 @@
     <t>מוזיקת ריקודים לשעות הלילה המאוחרות</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_e7d45d45653a464298343a6cb45e4483~mv2.jpg</t>
-  </si>
-  <si>
     <t>יצירת שוויון בין מגדרים ומגזרים</t>
   </si>
   <si>
@@ -242,16 +227,10 @@
     <t>בהגשת עו"ד נורית בנדורי שם טוב</t>
   </si>
   <si>
-    <t>בהגשת שוקי אברהם</t>
-  </si>
-  <si>
     <t>בהגשת לינה פאוז</t>
   </si>
   <si>
     <t>בהגשת ד"ר חיננית לויפר פלד</t>
-  </si>
-  <si>
-    <t>בהגשת פזית גלר ויובל דור</t>
   </si>
   <si>
     <t>בהגשת מקס צרנוגלז</t>
@@ -384,9 +363,6 @@
     <t>בהגשת עופר לוין ודרוד בוקצין</t>
   </si>
   <si>
-    <t>בהגשת מירל רזניק וארי שור</t>
-  </si>
-  <si>
     <t>בהגשת דודי גליקו</t>
   </si>
   <si>
@@ -589,9 +565,6 @@
     <t>https://www.radiosol.co.il/podcast-20</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/podcast-22</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/podcast-21</t>
   </si>
   <si>
@@ -640,9 +613,6 @@
     <t>https://static.wixstatic.com/media/c39cce_70ebb4cec4194f839b6c0000d5176f2b~mv2.png</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_5a122c3acc624cbfa64364a76c7796c5~mv2.png</t>
-  </si>
-  <si>
     <t>https://static.wixstatic.com/media/c39cce_655c245b119843a8ba02e2920a171a56~mv2.png</t>
   </si>
   <si>
@@ -679,9 +649,6 @@
     <t>https://static.wixstatic.com/media/c39cce_632829d628aa47a8ba906ca3806295e8~mv2.png</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_45992a41147e463290f80cbe1105305e~mv2.png</t>
-  </si>
-  <si>
     <t>https://static.wixstatic.com/media/c39cce_dd40cbeae29a4efaa230eda9deed8758~mv2.png</t>
   </si>
   <si>
@@ -715,9 +682,6 @@
     <t>https://static.wixstatic.com/media/c39cce_187ce3bab39e40a59509a34dd2b9ac5c~mv2.png</t>
   </si>
   <si>
-    <t>https://www.radiosol.co.il/%D7%90%D7%9E%D7%A0%D7%95%D7%AA-%D7%95%D7%A9%D7%9E%D7%94-%D7%AA%D7%A7%D7%A9%D7%95%D7%A8%D7%AA</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/zemayesh</t>
   </si>
   <si>
@@ -734,6 +698,18 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_990be34b0ec34988a618b3079c7cbd53~mv2.png</t>
+  </si>
+  <si>
+    <t>אינדי ספוט לייט</t>
+  </si>
+  <si>
+    <t>מוזיקת אינדי</t>
+  </si>
+  <si>
+    <t>בהגשת רותי מרכוס ושוקי אברהם</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_d461034dab844981b9107cad6aec37de~mv2.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1177,33 +1153,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11">
         <v>0</v>
@@ -1215,21 +1191,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -1241,21 +1217,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -1267,21 +1243,21 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -1293,21 +1269,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -1319,21 +1295,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1345,21 +1321,21 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1371,21 +1347,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -1397,21 +1373,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1423,21 +1399,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -1449,21 +1425,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -1475,21 +1451,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -1501,21 +1477,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -1527,21 +1503,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -1553,21 +1529,21 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -1579,21 +1555,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1605,21 +1581,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -1631,21 +1607,21 @@
         <v>0.625</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1657,21 +1633,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1683,21 +1659,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1709,21 +1685,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1735,21 +1711,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1761,21 +1737,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -1787,21 +1763,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
@@ -1813,16 +1789,16 @@
         <v>0.375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1839,21 +1815,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
@@ -1865,21 +1841,21 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
@@ -1891,21 +1867,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1917,21 +1893,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -1943,21 +1919,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -1969,21 +1945,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B32" s="11">
         <v>2</v>
@@ -1995,21 +1971,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B33" s="11">
         <v>2</v>
@@ -2021,21 +1997,21 @@
         <v>0.875</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -2047,21 +2023,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B35" s="11">
         <v>2</v>
@@ -2073,21 +2049,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
@@ -2099,21 +2075,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="11">
         <v>2</v>
@@ -2125,21 +2101,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="11">
         <v>3</v>
@@ -2151,21 +2127,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="11">
         <v>3</v>
@@ -2177,21 +2153,21 @@
         <v>0.5</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
@@ -2203,21 +2179,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
@@ -2229,21 +2205,21 @@
         <v>0.625</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
@@ -2255,21 +2231,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -2281,21 +2257,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
@@ -2307,21 +2283,21 @@
         <v>0.75</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
@@ -2333,21 +2309,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
@@ -2359,21 +2335,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
@@ -2385,21 +2361,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
@@ -2411,21 +2387,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
@@ -2437,21 +2413,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="11">
         <v>4</v>
@@ -2463,21 +2439,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
@@ -2489,16 +2465,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2515,16 +2491,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2541,21 +2517,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
@@ -2567,24 +2543,24 @@
         <v>0.625</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="11">
         <v>3</v>
-      </c>
-      <c r="B55" s="11">
-        <v>4</v>
       </c>
       <c r="C55" s="12">
         <v>0.625</v>
@@ -2593,21 +2569,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
@@ -2619,21 +2595,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
@@ -2645,21 +2621,21 @@
         <v>0.75</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
@@ -2671,21 +2647,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
@@ -2697,21 +2673,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="11">
         <v>4</v>
@@ -2723,21 +2699,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" s="11">
         <v>4</v>
@@ -2749,21 +2725,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B62" s="11">
         <v>5</v>
@@ -2775,21 +2751,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2801,21 +2777,21 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
@@ -2827,21 +2803,21 @@
         <v>0.5</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2853,21 +2829,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2879,21 +2855,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2905,21 +2881,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
@@ -2931,21 +2907,21 @@
         <v>0.75</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
@@ -2957,21 +2933,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -2983,21 +2959,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
@@ -3009,21 +2985,21 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="11">
         <v>5</v>
@@ -3035,21 +3011,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -3061,21 +3037,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3087,21 +3063,21 @@
         <v>0.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3113,21 +3089,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3139,21 +3115,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3165,21 +3141,21 @@
         <v>0.75</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3191,21 +3167,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3217,21 +3193,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3243,21 +3219,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -3269,21 +3245,21 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -3295,16 +3271,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4224,127 +4200,127 @@
     <hyperlink ref="G45" r:id="rId38"/>
     <hyperlink ref="G46" r:id="rId39"/>
     <hyperlink ref="G53" r:id="rId40"/>
-    <hyperlink ref="G55" r:id="rId41"/>
-    <hyperlink ref="G59" r:id="rId42"/>
-    <hyperlink ref="G64" r:id="rId43"/>
-    <hyperlink ref="G65" r:id="rId44"/>
-    <hyperlink ref="G66" r:id="rId45"/>
-    <hyperlink ref="G67" r:id="rId46"/>
-    <hyperlink ref="G70" r:id="rId47"/>
-    <hyperlink ref="G74" r:id="rId48"/>
-    <hyperlink ref="G77" r:id="rId49"/>
-    <hyperlink ref="G80" r:id="rId50"/>
-    <hyperlink ref="G57" r:id="rId51"/>
-    <hyperlink ref="H80" r:id="rId52"/>
-    <hyperlink ref="H74" r:id="rId53"/>
-    <hyperlink ref="H70" r:id="rId54"/>
-    <hyperlink ref="H67" r:id="rId55"/>
-    <hyperlink ref="H66" r:id="rId56"/>
-    <hyperlink ref="H64" r:id="rId57"/>
-    <hyperlink ref="H59" r:id="rId58"/>
-    <hyperlink ref="H56" r:id="rId59"/>
-    <hyperlink ref="H55" r:id="rId60"/>
-    <hyperlink ref="H44" r:id="rId61"/>
-    <hyperlink ref="H46" r:id="rId62"/>
-    <hyperlink ref="H45" r:id="rId63"/>
-    <hyperlink ref="H33" r:id="rId64"/>
-    <hyperlink ref="H31" r:id="rId65"/>
-    <hyperlink ref="H29" r:id="rId66"/>
-    <hyperlink ref="H26" r:id="rId67"/>
-    <hyperlink ref="H22" r:id="rId68"/>
-    <hyperlink ref="H21" r:id="rId69"/>
-    <hyperlink ref="H18" r:id="rId70"/>
-    <hyperlink ref="H3" r:id="rId71"/>
-    <hyperlink ref="H5" r:id="rId72"/>
-    <hyperlink ref="H6" r:id="rId73"/>
-    <hyperlink ref="H7" r:id="rId74"/>
-    <hyperlink ref="H9" r:id="rId75"/>
-    <hyperlink ref="H14" r:id="rId76"/>
-    <hyperlink ref="H13" r:id="rId77"/>
-    <hyperlink ref="H12" r:id="rId78"/>
-    <hyperlink ref="H11" r:id="rId79"/>
-    <hyperlink ref="H23" r:id="rId80"/>
-    <hyperlink ref="H24" r:id="rId81"/>
-    <hyperlink ref="H25" r:id="rId82"/>
-    <hyperlink ref="H27" r:id="rId83"/>
-    <hyperlink ref="H30" r:id="rId84"/>
-    <hyperlink ref="H32" r:id="rId85"/>
-    <hyperlink ref="H34" r:id="rId86"/>
-    <hyperlink ref="H35" r:id="rId87"/>
-    <hyperlink ref="H37" r:id="rId88"/>
-    <hyperlink ref="H38" r:id="rId89"/>
-    <hyperlink ref="H39" r:id="rId90"/>
-    <hyperlink ref="H41" r:id="rId91"/>
-    <hyperlink ref="H43" r:id="rId92"/>
-    <hyperlink ref="H47" r:id="rId93"/>
-    <hyperlink ref="H48" r:id="rId94"/>
-    <hyperlink ref="H49" r:id="rId95"/>
-    <hyperlink ref="H50" r:id="rId96"/>
-    <hyperlink ref="H51" r:id="rId97"/>
-    <hyperlink ref="H57" r:id="rId98"/>
-    <hyperlink ref="H58" r:id="rId99"/>
-    <hyperlink ref="H60" r:id="rId100"/>
-    <hyperlink ref="H61" r:id="rId101"/>
-    <hyperlink ref="H62" r:id="rId102"/>
-    <hyperlink ref="H82" r:id="rId103"/>
-    <hyperlink ref="H81" r:id="rId104"/>
-    <hyperlink ref="H79" r:id="rId105"/>
-    <hyperlink ref="H78" r:id="rId106"/>
-    <hyperlink ref="H76" r:id="rId107"/>
-    <hyperlink ref="H75" r:id="rId108"/>
-    <hyperlink ref="H73" r:id="rId109"/>
-    <hyperlink ref="H72" r:id="rId110"/>
-    <hyperlink ref="H71" r:id="rId111"/>
-    <hyperlink ref="H69" r:id="rId112"/>
-    <hyperlink ref="H68" r:id="rId113"/>
-    <hyperlink ref="H52" r:id="rId114"/>
-    <hyperlink ref="G26" r:id="rId115"/>
-    <hyperlink ref="G24" r:id="rId116"/>
-    <hyperlink ref="G23" r:id="rId117"/>
-    <hyperlink ref="G32" r:id="rId118"/>
-    <hyperlink ref="G34" r:id="rId119"/>
-    <hyperlink ref="G35" r:id="rId120"/>
-    <hyperlink ref="G37" r:id="rId121"/>
-    <hyperlink ref="G39" r:id="rId122"/>
-    <hyperlink ref="G41" r:id="rId123"/>
-    <hyperlink ref="G43" r:id="rId124"/>
-    <hyperlink ref="G30" r:id="rId125"/>
-    <hyperlink ref="G62" r:id="rId126"/>
-    <hyperlink ref="G68" r:id="rId127"/>
-    <hyperlink ref="G69" r:id="rId128"/>
-    <hyperlink ref="G71" r:id="rId129"/>
-    <hyperlink ref="G73" r:id="rId130"/>
-    <hyperlink ref="G75" r:id="rId131"/>
-    <hyperlink ref="G76" r:id="rId132"/>
-    <hyperlink ref="G78" r:id="rId133"/>
-    <hyperlink ref="G79" r:id="rId134"/>
-    <hyperlink ref="G81" r:id="rId135"/>
-    <hyperlink ref="G82" r:id="rId136"/>
-    <hyperlink ref="G28" r:id="rId137"/>
-    <hyperlink ref="H28" r:id="rId138"/>
-    <hyperlink ref="G40" r:id="rId139"/>
-    <hyperlink ref="H40" r:id="rId140"/>
-    <hyperlink ref="H19" r:id="rId141"/>
-    <hyperlink ref="H54" r:id="rId142"/>
-    <hyperlink ref="H53" r:id="rId143"/>
-    <hyperlink ref="H65" r:id="rId144"/>
-    <hyperlink ref="H77" r:id="rId145"/>
-    <hyperlink ref="H20" r:id="rId146"/>
-    <hyperlink ref="G49" r:id="rId147"/>
-    <hyperlink ref="G54" r:id="rId148"/>
-    <hyperlink ref="G47" r:id="rId149"/>
-    <hyperlink ref="G48" r:id="rId150"/>
-    <hyperlink ref="H8" r:id="rId151"/>
-    <hyperlink ref="G8" r:id="rId152"/>
-    <hyperlink ref="G33" r:id="rId153"/>
-    <hyperlink ref="G52" r:id="rId154"/>
-    <hyperlink ref="G56" r:id="rId155"/>
-    <hyperlink ref="H16" r:id="rId156"/>
-    <hyperlink ref="G16" r:id="rId157"/>
-    <hyperlink ref="G63" r:id="rId158"/>
-    <hyperlink ref="H63" r:id="rId159"/>
-    <hyperlink ref="H36" r:id="rId160"/>
-    <hyperlink ref="G36" r:id="rId161"/>
+    <hyperlink ref="G59" r:id="rId41"/>
+    <hyperlink ref="G64" r:id="rId42"/>
+    <hyperlink ref="G65" r:id="rId43"/>
+    <hyperlink ref="G66" r:id="rId44"/>
+    <hyperlink ref="G67" r:id="rId45"/>
+    <hyperlink ref="G70" r:id="rId46"/>
+    <hyperlink ref="G74" r:id="rId47"/>
+    <hyperlink ref="G77" r:id="rId48"/>
+    <hyperlink ref="G80" r:id="rId49"/>
+    <hyperlink ref="G57" r:id="rId50"/>
+    <hyperlink ref="H80" r:id="rId51"/>
+    <hyperlink ref="H74" r:id="rId52"/>
+    <hyperlink ref="H70" r:id="rId53"/>
+    <hyperlink ref="H67" r:id="rId54"/>
+    <hyperlink ref="H66" r:id="rId55"/>
+    <hyperlink ref="H64" r:id="rId56"/>
+    <hyperlink ref="H59" r:id="rId57"/>
+    <hyperlink ref="H56" r:id="rId58"/>
+    <hyperlink ref="H44" r:id="rId59"/>
+    <hyperlink ref="H46" r:id="rId60"/>
+    <hyperlink ref="H45" r:id="rId61"/>
+    <hyperlink ref="H33" r:id="rId62"/>
+    <hyperlink ref="H31" r:id="rId63"/>
+    <hyperlink ref="H29" r:id="rId64"/>
+    <hyperlink ref="H26" r:id="rId65"/>
+    <hyperlink ref="H22" r:id="rId66"/>
+    <hyperlink ref="H21" r:id="rId67"/>
+    <hyperlink ref="H18" r:id="rId68"/>
+    <hyperlink ref="H3" r:id="rId69"/>
+    <hyperlink ref="H5" r:id="rId70"/>
+    <hyperlink ref="H6" r:id="rId71"/>
+    <hyperlink ref="H7" r:id="rId72"/>
+    <hyperlink ref="H9" r:id="rId73"/>
+    <hyperlink ref="H14" r:id="rId74"/>
+    <hyperlink ref="H13" r:id="rId75"/>
+    <hyperlink ref="H12" r:id="rId76"/>
+    <hyperlink ref="H11" r:id="rId77"/>
+    <hyperlink ref="H23" r:id="rId78"/>
+    <hyperlink ref="H24" r:id="rId79"/>
+    <hyperlink ref="H25" r:id="rId80"/>
+    <hyperlink ref="H27" r:id="rId81"/>
+    <hyperlink ref="H30" r:id="rId82"/>
+    <hyperlink ref="H32" r:id="rId83"/>
+    <hyperlink ref="H34" r:id="rId84"/>
+    <hyperlink ref="H35" r:id="rId85"/>
+    <hyperlink ref="H37" r:id="rId86"/>
+    <hyperlink ref="H38" r:id="rId87"/>
+    <hyperlink ref="H39" r:id="rId88"/>
+    <hyperlink ref="H41" r:id="rId89"/>
+    <hyperlink ref="H43" r:id="rId90"/>
+    <hyperlink ref="H47" r:id="rId91"/>
+    <hyperlink ref="H48" r:id="rId92"/>
+    <hyperlink ref="H49" r:id="rId93"/>
+    <hyperlink ref="H50" r:id="rId94"/>
+    <hyperlink ref="H51" r:id="rId95"/>
+    <hyperlink ref="H57" r:id="rId96"/>
+    <hyperlink ref="H58" r:id="rId97"/>
+    <hyperlink ref="H60" r:id="rId98"/>
+    <hyperlink ref="H61" r:id="rId99"/>
+    <hyperlink ref="H62" r:id="rId100"/>
+    <hyperlink ref="H82" r:id="rId101"/>
+    <hyperlink ref="H81" r:id="rId102"/>
+    <hyperlink ref="H79" r:id="rId103"/>
+    <hyperlink ref="H78" r:id="rId104"/>
+    <hyperlink ref="H76" r:id="rId105"/>
+    <hyperlink ref="H75" r:id="rId106"/>
+    <hyperlink ref="H73" r:id="rId107"/>
+    <hyperlink ref="H72" r:id="rId108"/>
+    <hyperlink ref="H71" r:id="rId109"/>
+    <hyperlink ref="H69" r:id="rId110"/>
+    <hyperlink ref="H68" r:id="rId111"/>
+    <hyperlink ref="H52" r:id="rId112"/>
+    <hyperlink ref="G26" r:id="rId113"/>
+    <hyperlink ref="G24" r:id="rId114"/>
+    <hyperlink ref="G23" r:id="rId115"/>
+    <hyperlink ref="G32" r:id="rId116"/>
+    <hyperlink ref="G34" r:id="rId117"/>
+    <hyperlink ref="G35" r:id="rId118"/>
+    <hyperlink ref="G37" r:id="rId119"/>
+    <hyperlink ref="G39" r:id="rId120"/>
+    <hyperlink ref="G41" r:id="rId121"/>
+    <hyperlink ref="G43" r:id="rId122"/>
+    <hyperlink ref="G30" r:id="rId123"/>
+    <hyperlink ref="G62" r:id="rId124"/>
+    <hyperlink ref="G68" r:id="rId125"/>
+    <hyperlink ref="G69" r:id="rId126"/>
+    <hyperlink ref="G71" r:id="rId127"/>
+    <hyperlink ref="G73" r:id="rId128"/>
+    <hyperlink ref="G75" r:id="rId129"/>
+    <hyperlink ref="G76" r:id="rId130"/>
+    <hyperlink ref="G78" r:id="rId131"/>
+    <hyperlink ref="G79" r:id="rId132"/>
+    <hyperlink ref="G81" r:id="rId133"/>
+    <hyperlink ref="G82" r:id="rId134"/>
+    <hyperlink ref="G28" r:id="rId135"/>
+    <hyperlink ref="H28" r:id="rId136"/>
+    <hyperlink ref="G40" r:id="rId137"/>
+    <hyperlink ref="H40" r:id="rId138"/>
+    <hyperlink ref="H19" r:id="rId139"/>
+    <hyperlink ref="H54" r:id="rId140"/>
+    <hyperlink ref="H53" r:id="rId141"/>
+    <hyperlink ref="H65" r:id="rId142"/>
+    <hyperlink ref="H77" r:id="rId143"/>
+    <hyperlink ref="H20" r:id="rId144"/>
+    <hyperlink ref="G49" r:id="rId145"/>
+    <hyperlink ref="G54" r:id="rId146"/>
+    <hyperlink ref="G47" r:id="rId147"/>
+    <hyperlink ref="G48" r:id="rId148"/>
+    <hyperlink ref="H8" r:id="rId149"/>
+    <hyperlink ref="G8" r:id="rId150"/>
+    <hyperlink ref="G33" r:id="rId151"/>
+    <hyperlink ref="G52" r:id="rId152"/>
+    <hyperlink ref="G56" r:id="rId153"/>
+    <hyperlink ref="H16" r:id="rId154"/>
+    <hyperlink ref="G16" r:id="rId155"/>
+    <hyperlink ref="G63" r:id="rId156"/>
+    <hyperlink ref="H63" r:id="rId157"/>
+    <hyperlink ref="H36" r:id="rId158"/>
+    <hyperlink ref="G36" r:id="rId159"/>
+    <hyperlink ref="H55" r:id="rId160"/>
+    <hyperlink ref="G55" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\אתר חדש\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="228">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -1133,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -1893,16 +1893,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2166,8 +2166,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
-        <v>5</v>
+      <c r="A40" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B40" s="11">
         <v>3</v>
@@ -2176,39 +2176,39 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B41" s="11">
         <v>3</v>
       </c>
       <c r="C41" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D41" s="12">
-        <v>0.625</v>
-      </c>
       <c r="E41" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>22</v>
@@ -2219,155 +2219,155 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
       </c>
       <c r="C42" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D42" s="12">
         <v>0.625</v>
       </c>
-      <c r="D42" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
       <c r="C43" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D43" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B44" s="11">
         <v>3</v>
       </c>
       <c r="C44" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D44" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
       <c r="C45" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.75</v>
       </c>
-      <c r="D45" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
       <c r="C46" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D46" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D47" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D47" s="12">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E47" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>157</v>
@@ -2375,22 +2375,22 @@
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
       <c r="C48" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D48" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D48" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E48" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>22</v>
@@ -2401,22 +2401,22 @@
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
       </c>
       <c r="C49" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D49" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D49" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E49" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>22</v>
@@ -2427,22 +2427,22 @@
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B50" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D50" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D50" s="12">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E50" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>22</v>
@@ -2452,23 +2452,23 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>6</v>
+      <c r="A51" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B51" s="11">
         <v>4</v>
       </c>
       <c r="C51" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D51" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E51" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>22</v>
@@ -2479,256 +2479,256 @@
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" s="11">
         <v>4</v>
       </c>
       <c r="C52" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D52" s="12">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="11">
         <v>4</v>
       </c>
       <c r="C53" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D53" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="B54" s="11">
         <v>4</v>
       </c>
       <c r="C54" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D54" s="12">
+      <c r="E54" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="11">
+        <v>4</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.625</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B56" s="11">
         <v>3</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C56" s="12">
         <v>0.625</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="11">
-        <v>4</v>
-      </c>
-      <c r="C56" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="H56" s="10" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B57" s="11">
         <v>4</v>
       </c>
       <c r="C57" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D57" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D57" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
       </c>
       <c r="C58" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D58" s="12">
         <v>0.75</v>
       </c>
-      <c r="D58" s="12">
-        <v>0.79166666666666663</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B59" s="11">
         <v>4</v>
       </c>
       <c r="C59" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D59" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B60" s="11">
         <v>4</v>
       </c>
       <c r="C60" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D60" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D60" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B61" s="11">
         <v>4</v>
       </c>
       <c r="C61" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D61" s="12">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="E61" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>19</v>
@@ -2739,204 +2739,204 @@
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="11">
+        <v>4</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B62" s="11">
-        <v>5</v>
-      </c>
-      <c r="C62" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
       </c>
       <c r="C63" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D63" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D63" s="12">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>74</v>
+      <c r="F63" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
-        <v>117</v>
+      <c r="A64" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B64" s="11">
         <v>5</v>
       </c>
       <c r="C64" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D64" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D64" s="12">
-        <v>0.5</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
       </c>
       <c r="C65" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D65" s="12">
         <v>0.5</v>
       </c>
-      <c r="D65" s="12">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
       </c>
       <c r="C66" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D66" s="12">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
       </c>
       <c r="C67" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D67" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D67" s="12">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
       </c>
       <c r="C68" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D68" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D68" s="12">
-        <v>0.75</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="B69" s="11">
         <v>5</v>
       </c>
       <c r="C69" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D69" s="12">
         <v>0.75</v>
       </c>
-      <c r="D69" s="12">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E69" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>22</v>
@@ -2947,103 +2947,103 @@
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
       </c>
       <c r="C70" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D70" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D70" s="12">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
       </c>
       <c r="C71" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D71" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D71" s="12">
-        <v>0.99930555555555556</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B72" s="11">
         <v>5</v>
       </c>
       <c r="C72" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D72" s="12">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D72" s="12">
+      <c r="E72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="11">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D73" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="11" t="s">
+      <c r="E73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="1">
-        <v>6</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>157</v>
@@ -3051,74 +3051,74 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
       </c>
       <c r="C74" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D74" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>137</v>
+        <v>39</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>138</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.5</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D76" s="2">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>22</v>
@@ -3129,25 +3129,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.75</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>157</v>
@@ -3155,25 +3155,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
       </c>
       <c r="C78" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D78" s="2">
         <v>0.75</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>157</v>
@@ -3181,22 +3181,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D79" s="2">
         <v>0.83333333333333337</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.91666666666666663</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>22</v>
@@ -3207,74 +3207,74 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
       </c>
       <c r="C80" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D80" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D80" s="2">
-        <v>0.95833333333333337</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
       </c>
       <c r="C81" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D81" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
       </c>
       <c r="C82" s="2">
-        <v>0.99930555555555556</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D82" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>22</v>
@@ -3284,10 +3284,30 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="1">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
@@ -3318,63 +3338,62 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="17"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
+      <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
+      <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="17"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
@@ -3468,6 +3487,7 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3496,32 +3516,32 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="17"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
+      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="17"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="1"/>
+      <c r="F118" s="17"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
@@ -3624,13 +3644,13 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="1"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
@@ -3642,14 +3662,14 @@
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="17"/>
+      <c r="E138" s="1"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="17"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
@@ -3668,7 +3688,6 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
@@ -3682,6 +3701,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="1"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
@@ -3772,13 +3792,13 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="17"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="1"/>
+      <c r="F160" s="17"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
@@ -3797,7 +3817,6 @@
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
@@ -3811,6 +3830,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="1"/>
+      <c r="F165" s="17"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
@@ -3822,7 +3842,7 @@
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
@@ -3837,7 +3857,6 @@
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3851,6 +3870,7 @@
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="7"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3914,7 +3934,7 @@
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="1"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
@@ -3935,7 +3955,6 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3949,17 +3968,18 @@
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="17"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="1"/>
+      <c r="F189" s="17"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
@@ -3974,114 +3994,114 @@
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="17"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="17"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="7"/>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="7"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4110,21 +4130,21 @@
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="17"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="1"/>
-      <c r="G213" s="9"/>
-      <c r="H213" s="9"/>
+      <c r="F213" s="17"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="1"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
@@ -4149,14 +4169,20 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="17"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="8"/>
+      <c r="D219" s="2"/>
       <c r="E219" s="1"/>
+      <c r="F219" s="17"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="3"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4164,12 +4190,12 @@
     <hyperlink ref="G13" r:id="rId2"/>
     <hyperlink ref="G14" r:id="rId3"/>
     <hyperlink ref="G38" r:id="rId4"/>
-    <hyperlink ref="G50" r:id="rId5"/>
-    <hyperlink ref="G51" r:id="rId6"/>
-    <hyperlink ref="G58" r:id="rId7"/>
-    <hyperlink ref="G60" r:id="rId8"/>
-    <hyperlink ref="G61" r:id="rId9"/>
-    <hyperlink ref="G72" r:id="rId10"/>
+    <hyperlink ref="G51" r:id="rId5"/>
+    <hyperlink ref="G52" r:id="rId6"/>
+    <hyperlink ref="G59" r:id="rId7"/>
+    <hyperlink ref="G61" r:id="rId8"/>
+    <hyperlink ref="G62" r:id="rId9"/>
+    <hyperlink ref="G73" r:id="rId10"/>
     <hyperlink ref="G3" r:id="rId11"/>
     <hyperlink ref="G4" r:id="rId12"/>
     <hyperlink ref="H2" r:id="rId13"/>
@@ -4180,7 +4206,7 @@
     <hyperlink ref="G12" r:id="rId18"/>
     <hyperlink ref="G10" r:id="rId19"/>
     <hyperlink ref="G15" r:id="rId20"/>
-    <hyperlink ref="G42" r:id="rId21"/>
+    <hyperlink ref="G43" r:id="rId21"/>
     <hyperlink ref="G18" r:id="rId22"/>
     <hyperlink ref="G19" r:id="rId23"/>
     <hyperlink ref="G20" r:id="rId24"/>
@@ -4189,140 +4215,142 @@
     <hyperlink ref="H4" r:id="rId27"/>
     <hyperlink ref="H10" r:id="rId28"/>
     <hyperlink ref="H15" r:id="rId29"/>
-    <hyperlink ref="H42" r:id="rId30"/>
+    <hyperlink ref="H43" r:id="rId30"/>
     <hyperlink ref="H17" r:id="rId31"/>
     <hyperlink ref="G17" r:id="rId32"/>
     <hyperlink ref="G25" r:id="rId33"/>
     <hyperlink ref="G31" r:id="rId34"/>
     <hyperlink ref="G27" r:id="rId35"/>
-    <hyperlink ref="G29" r:id="rId36"/>
-    <hyperlink ref="G44" r:id="rId37"/>
-    <hyperlink ref="G45" r:id="rId38"/>
-    <hyperlink ref="G46" r:id="rId39"/>
-    <hyperlink ref="G53" r:id="rId40"/>
-    <hyperlink ref="G59" r:id="rId41"/>
-    <hyperlink ref="G64" r:id="rId42"/>
-    <hyperlink ref="G65" r:id="rId43"/>
-    <hyperlink ref="G66" r:id="rId44"/>
-    <hyperlink ref="G67" r:id="rId45"/>
-    <hyperlink ref="G70" r:id="rId46"/>
-    <hyperlink ref="G74" r:id="rId47"/>
-    <hyperlink ref="G77" r:id="rId48"/>
-    <hyperlink ref="G80" r:id="rId49"/>
-    <hyperlink ref="G57" r:id="rId50"/>
-    <hyperlink ref="H80" r:id="rId51"/>
-    <hyperlink ref="H74" r:id="rId52"/>
-    <hyperlink ref="H70" r:id="rId53"/>
+    <hyperlink ref="G45" r:id="rId36"/>
+    <hyperlink ref="G46" r:id="rId37"/>
+    <hyperlink ref="G47" r:id="rId38"/>
+    <hyperlink ref="G54" r:id="rId39"/>
+    <hyperlink ref="G60" r:id="rId40"/>
+    <hyperlink ref="G65" r:id="rId41"/>
+    <hyperlink ref="G66" r:id="rId42"/>
+    <hyperlink ref="G67" r:id="rId43"/>
+    <hyperlink ref="G68" r:id="rId44"/>
+    <hyperlink ref="G71" r:id="rId45"/>
+    <hyperlink ref="G75" r:id="rId46"/>
+    <hyperlink ref="G78" r:id="rId47"/>
+    <hyperlink ref="G81" r:id="rId48"/>
+    <hyperlink ref="G58" r:id="rId49"/>
+    <hyperlink ref="H81" r:id="rId50"/>
+    <hyperlink ref="H75" r:id="rId51"/>
+    <hyperlink ref="H71" r:id="rId52"/>
+    <hyperlink ref="H68" r:id="rId53"/>
     <hyperlink ref="H67" r:id="rId54"/>
-    <hyperlink ref="H66" r:id="rId55"/>
-    <hyperlink ref="H64" r:id="rId56"/>
-    <hyperlink ref="H59" r:id="rId57"/>
-    <hyperlink ref="H56" r:id="rId58"/>
-    <hyperlink ref="H44" r:id="rId59"/>
+    <hyperlink ref="H65" r:id="rId55"/>
+    <hyperlink ref="H60" r:id="rId56"/>
+    <hyperlink ref="H57" r:id="rId57"/>
+    <hyperlink ref="H45" r:id="rId58"/>
+    <hyperlink ref="H47" r:id="rId59"/>
     <hyperlink ref="H46" r:id="rId60"/>
-    <hyperlink ref="H45" r:id="rId61"/>
-    <hyperlink ref="H33" r:id="rId62"/>
-    <hyperlink ref="H31" r:id="rId63"/>
-    <hyperlink ref="H29" r:id="rId64"/>
-    <hyperlink ref="H26" r:id="rId65"/>
-    <hyperlink ref="H22" r:id="rId66"/>
-    <hyperlink ref="H21" r:id="rId67"/>
-    <hyperlink ref="H18" r:id="rId68"/>
-    <hyperlink ref="H3" r:id="rId69"/>
-    <hyperlink ref="H5" r:id="rId70"/>
-    <hyperlink ref="H6" r:id="rId71"/>
-    <hyperlink ref="H7" r:id="rId72"/>
-    <hyperlink ref="H9" r:id="rId73"/>
-    <hyperlink ref="H14" r:id="rId74"/>
-    <hyperlink ref="H13" r:id="rId75"/>
-    <hyperlink ref="H12" r:id="rId76"/>
-    <hyperlink ref="H11" r:id="rId77"/>
-    <hyperlink ref="H23" r:id="rId78"/>
-    <hyperlink ref="H24" r:id="rId79"/>
-    <hyperlink ref="H25" r:id="rId80"/>
-    <hyperlink ref="H27" r:id="rId81"/>
-    <hyperlink ref="H30" r:id="rId82"/>
-    <hyperlink ref="H32" r:id="rId83"/>
-    <hyperlink ref="H34" r:id="rId84"/>
-    <hyperlink ref="H35" r:id="rId85"/>
-    <hyperlink ref="H37" r:id="rId86"/>
-    <hyperlink ref="H38" r:id="rId87"/>
-    <hyperlink ref="H39" r:id="rId88"/>
-    <hyperlink ref="H41" r:id="rId89"/>
-    <hyperlink ref="H43" r:id="rId90"/>
-    <hyperlink ref="H47" r:id="rId91"/>
-    <hyperlink ref="H48" r:id="rId92"/>
-    <hyperlink ref="H49" r:id="rId93"/>
-    <hyperlink ref="H50" r:id="rId94"/>
-    <hyperlink ref="H51" r:id="rId95"/>
-    <hyperlink ref="H57" r:id="rId96"/>
-    <hyperlink ref="H58" r:id="rId97"/>
-    <hyperlink ref="H60" r:id="rId98"/>
-    <hyperlink ref="H61" r:id="rId99"/>
-    <hyperlink ref="H62" r:id="rId100"/>
-    <hyperlink ref="H82" r:id="rId101"/>
-    <hyperlink ref="H81" r:id="rId102"/>
-    <hyperlink ref="H79" r:id="rId103"/>
-    <hyperlink ref="H78" r:id="rId104"/>
-    <hyperlink ref="H76" r:id="rId105"/>
-    <hyperlink ref="H75" r:id="rId106"/>
-    <hyperlink ref="H73" r:id="rId107"/>
-    <hyperlink ref="H72" r:id="rId108"/>
-    <hyperlink ref="H71" r:id="rId109"/>
-    <hyperlink ref="H69" r:id="rId110"/>
-    <hyperlink ref="H68" r:id="rId111"/>
-    <hyperlink ref="H52" r:id="rId112"/>
-    <hyperlink ref="G26" r:id="rId113"/>
-    <hyperlink ref="G24" r:id="rId114"/>
-    <hyperlink ref="G23" r:id="rId115"/>
-    <hyperlink ref="G32" r:id="rId116"/>
-    <hyperlink ref="G34" r:id="rId117"/>
-    <hyperlink ref="G35" r:id="rId118"/>
-    <hyperlink ref="G37" r:id="rId119"/>
-    <hyperlink ref="G39" r:id="rId120"/>
-    <hyperlink ref="G41" r:id="rId121"/>
-    <hyperlink ref="G43" r:id="rId122"/>
-    <hyperlink ref="G30" r:id="rId123"/>
-    <hyperlink ref="G62" r:id="rId124"/>
-    <hyperlink ref="G68" r:id="rId125"/>
-    <hyperlink ref="G69" r:id="rId126"/>
-    <hyperlink ref="G71" r:id="rId127"/>
-    <hyperlink ref="G73" r:id="rId128"/>
-    <hyperlink ref="G75" r:id="rId129"/>
-    <hyperlink ref="G76" r:id="rId130"/>
-    <hyperlink ref="G78" r:id="rId131"/>
-    <hyperlink ref="G79" r:id="rId132"/>
-    <hyperlink ref="G81" r:id="rId133"/>
-    <hyperlink ref="G82" r:id="rId134"/>
-    <hyperlink ref="G28" r:id="rId135"/>
-    <hyperlink ref="H28" r:id="rId136"/>
-    <hyperlink ref="G40" r:id="rId137"/>
-    <hyperlink ref="H40" r:id="rId138"/>
-    <hyperlink ref="H19" r:id="rId139"/>
-    <hyperlink ref="H54" r:id="rId140"/>
-    <hyperlink ref="H53" r:id="rId141"/>
-    <hyperlink ref="H65" r:id="rId142"/>
-    <hyperlink ref="H77" r:id="rId143"/>
-    <hyperlink ref="H20" r:id="rId144"/>
-    <hyperlink ref="G49" r:id="rId145"/>
-    <hyperlink ref="G54" r:id="rId146"/>
-    <hyperlink ref="G47" r:id="rId147"/>
-    <hyperlink ref="G48" r:id="rId148"/>
-    <hyperlink ref="H8" r:id="rId149"/>
-    <hyperlink ref="G8" r:id="rId150"/>
-    <hyperlink ref="G33" r:id="rId151"/>
-    <hyperlink ref="G52" r:id="rId152"/>
-    <hyperlink ref="G56" r:id="rId153"/>
-    <hyperlink ref="H16" r:id="rId154"/>
-    <hyperlink ref="G16" r:id="rId155"/>
-    <hyperlink ref="G63" r:id="rId156"/>
-    <hyperlink ref="H63" r:id="rId157"/>
-    <hyperlink ref="H36" r:id="rId158"/>
-    <hyperlink ref="G36" r:id="rId159"/>
-    <hyperlink ref="H55" r:id="rId160"/>
-    <hyperlink ref="G55" r:id="rId161"/>
+    <hyperlink ref="H33" r:id="rId61"/>
+    <hyperlink ref="H31" r:id="rId62"/>
+    <hyperlink ref="H26" r:id="rId63"/>
+    <hyperlink ref="H22" r:id="rId64"/>
+    <hyperlink ref="H21" r:id="rId65"/>
+    <hyperlink ref="H18" r:id="rId66"/>
+    <hyperlink ref="H3" r:id="rId67"/>
+    <hyperlink ref="H5" r:id="rId68"/>
+    <hyperlink ref="H6" r:id="rId69"/>
+    <hyperlink ref="H7" r:id="rId70"/>
+    <hyperlink ref="H9" r:id="rId71"/>
+    <hyperlink ref="H14" r:id="rId72"/>
+    <hyperlink ref="H13" r:id="rId73"/>
+    <hyperlink ref="H12" r:id="rId74"/>
+    <hyperlink ref="H11" r:id="rId75"/>
+    <hyperlink ref="H23" r:id="rId76"/>
+    <hyperlink ref="H24" r:id="rId77"/>
+    <hyperlink ref="H25" r:id="rId78"/>
+    <hyperlink ref="H27" r:id="rId79"/>
+    <hyperlink ref="H30" r:id="rId80"/>
+    <hyperlink ref="H32" r:id="rId81"/>
+    <hyperlink ref="H34" r:id="rId82"/>
+    <hyperlink ref="H35" r:id="rId83"/>
+    <hyperlink ref="H37" r:id="rId84"/>
+    <hyperlink ref="H38" r:id="rId85"/>
+    <hyperlink ref="H39" r:id="rId86"/>
+    <hyperlink ref="H42" r:id="rId87"/>
+    <hyperlink ref="H44" r:id="rId88"/>
+    <hyperlink ref="H48" r:id="rId89"/>
+    <hyperlink ref="H49" r:id="rId90"/>
+    <hyperlink ref="H50" r:id="rId91"/>
+    <hyperlink ref="H51" r:id="rId92"/>
+    <hyperlink ref="H52" r:id="rId93"/>
+    <hyperlink ref="H58" r:id="rId94"/>
+    <hyperlink ref="H59" r:id="rId95"/>
+    <hyperlink ref="H61" r:id="rId96"/>
+    <hyperlink ref="H62" r:id="rId97"/>
+    <hyperlink ref="H63" r:id="rId98"/>
+    <hyperlink ref="H83" r:id="rId99"/>
+    <hyperlink ref="H82" r:id="rId100"/>
+    <hyperlink ref="H80" r:id="rId101"/>
+    <hyperlink ref="H79" r:id="rId102"/>
+    <hyperlink ref="H77" r:id="rId103"/>
+    <hyperlink ref="H76" r:id="rId104"/>
+    <hyperlink ref="H74" r:id="rId105"/>
+    <hyperlink ref="H73" r:id="rId106"/>
+    <hyperlink ref="H72" r:id="rId107"/>
+    <hyperlink ref="H70" r:id="rId108"/>
+    <hyperlink ref="H69" r:id="rId109"/>
+    <hyperlink ref="H53" r:id="rId110"/>
+    <hyperlink ref="G26" r:id="rId111"/>
+    <hyperlink ref="G24" r:id="rId112"/>
+    <hyperlink ref="G23" r:id="rId113"/>
+    <hyperlink ref="G32" r:id="rId114"/>
+    <hyperlink ref="G34" r:id="rId115"/>
+    <hyperlink ref="G35" r:id="rId116"/>
+    <hyperlink ref="G37" r:id="rId117"/>
+    <hyperlink ref="G39" r:id="rId118"/>
+    <hyperlink ref="G42" r:id="rId119"/>
+    <hyperlink ref="G44" r:id="rId120"/>
+    <hyperlink ref="G30" r:id="rId121"/>
+    <hyperlink ref="G63" r:id="rId122"/>
+    <hyperlink ref="G69" r:id="rId123"/>
+    <hyperlink ref="G70" r:id="rId124"/>
+    <hyperlink ref="G72" r:id="rId125"/>
+    <hyperlink ref="G74" r:id="rId126"/>
+    <hyperlink ref="G76" r:id="rId127"/>
+    <hyperlink ref="G77" r:id="rId128"/>
+    <hyperlink ref="G79" r:id="rId129"/>
+    <hyperlink ref="G80" r:id="rId130"/>
+    <hyperlink ref="G82" r:id="rId131"/>
+    <hyperlink ref="G83" r:id="rId132"/>
+    <hyperlink ref="G28" r:id="rId133"/>
+    <hyperlink ref="H28" r:id="rId134"/>
+    <hyperlink ref="G41" r:id="rId135"/>
+    <hyperlink ref="H41" r:id="rId136"/>
+    <hyperlink ref="H19" r:id="rId137"/>
+    <hyperlink ref="H55" r:id="rId138"/>
+    <hyperlink ref="H54" r:id="rId139"/>
+    <hyperlink ref="H66" r:id="rId140"/>
+    <hyperlink ref="H78" r:id="rId141"/>
+    <hyperlink ref="H20" r:id="rId142"/>
+    <hyperlink ref="G50" r:id="rId143"/>
+    <hyperlink ref="G55" r:id="rId144"/>
+    <hyperlink ref="G48" r:id="rId145"/>
+    <hyperlink ref="G49" r:id="rId146"/>
+    <hyperlink ref="H8" r:id="rId147"/>
+    <hyperlink ref="G8" r:id="rId148"/>
+    <hyperlink ref="G33" r:id="rId149"/>
+    <hyperlink ref="G53" r:id="rId150"/>
+    <hyperlink ref="G57" r:id="rId151"/>
+    <hyperlink ref="H16" r:id="rId152"/>
+    <hyperlink ref="G16" r:id="rId153"/>
+    <hyperlink ref="G64" r:id="rId154"/>
+    <hyperlink ref="H64" r:id="rId155"/>
+    <hyperlink ref="H36" r:id="rId156"/>
+    <hyperlink ref="G36" r:id="rId157"/>
+    <hyperlink ref="H56" r:id="rId158"/>
+    <hyperlink ref="G56" r:id="rId159"/>
+    <hyperlink ref="G40" r:id="rId160"/>
+    <hyperlink ref="H40" r:id="rId161"/>
+    <hyperlink ref="H29" r:id="rId162"/>
+    <hyperlink ref="G29" r:id="rId163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId162"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -709,7 +709,7 @@
     <t>בהגשת רותי מרכוס ושוקי אברהם</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_d461034dab844981b9107cad6aec37de~mv2.jpeg</t>
+    <t>https://static.wixstatic.com/media/c39cce_6984c8da4cfa4b0e985c8f2553dd7ef4~mv2.png</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2556,11 +2556,11 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
-        <v>161</v>
+      <c r="A55" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B55" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="12">
         <v>0.58333333333333337</v>
@@ -2569,24 +2569,24 @@
         <v>0.625</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
-        <v>41</v>
+      <c r="A56" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="B56" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="12">
         <v>0.625</v>
@@ -2595,16 +2595,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -4323,13 +4323,13 @@
     <hyperlink ref="G41" r:id="rId135"/>
     <hyperlink ref="H41" r:id="rId136"/>
     <hyperlink ref="H19" r:id="rId137"/>
-    <hyperlink ref="H55" r:id="rId138"/>
+    <hyperlink ref="H56" r:id="rId138"/>
     <hyperlink ref="H54" r:id="rId139"/>
     <hyperlink ref="H66" r:id="rId140"/>
     <hyperlink ref="H78" r:id="rId141"/>
     <hyperlink ref="H20" r:id="rId142"/>
     <hyperlink ref="G50" r:id="rId143"/>
-    <hyperlink ref="G55" r:id="rId144"/>
+    <hyperlink ref="G56" r:id="rId144"/>
     <hyperlink ref="G48" r:id="rId145"/>
     <hyperlink ref="G49" r:id="rId146"/>
     <hyperlink ref="H8" r:id="rId147"/>
@@ -4343,8 +4343,8 @@
     <hyperlink ref="H64" r:id="rId155"/>
     <hyperlink ref="H36" r:id="rId156"/>
     <hyperlink ref="G36" r:id="rId157"/>
-    <hyperlink ref="H56" r:id="rId158"/>
-    <hyperlink ref="G56" r:id="rId159"/>
+    <hyperlink ref="H55" r:id="rId158"/>
+    <hyperlink ref="G55" r:id="rId159"/>
     <hyperlink ref="G40" r:id="rId160"/>
     <hyperlink ref="H40" r:id="rId161"/>
     <hyperlink ref="H29" r:id="rId162"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2560,7 +2560,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="12">
         <v>0.58333333333333337</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="233">
   <si>
     <t>מאז ולתמיד</t>
   </si>
@@ -589,9 +589,6 @@
     <t>עולם הדיגיטל הנוח והמסוכן</t>
   </si>
   <si>
-    <t>בהגשת יובל ענתבי וברוך צדקה</t>
-  </si>
-  <si>
     <t>https://www.radiosol.co.il/%D7%99%D7%95%D7%91%D7%9C%D7%A2%D7%A0%D7%AA%D7%91%D7%99</t>
   </si>
   <si>
@@ -710,6 +707,24 @@
   </si>
   <si>
     <t>https://static.wixstatic.com/media/c39cce_6984c8da4cfa4b0e985c8f2553dd7ef4~mv2.png</t>
+  </si>
+  <si>
+    <t>נמרולוגיה קבלית</t>
+  </si>
+  <si>
+    <t>בהגשת מורן חגי וניר גוטלב</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_6a132aa30a5245f297737d41da84cafe~mv2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בהגשת יובל ענתבי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תכנית נמרולוגית בנושא זוגיות, תעסוקה, לימודים, מעברי דירה וכו' </t>
+  </si>
+  <si>
+    <t>https://www.radiosol.co.il/gotliv</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>166</v>
@@ -1347,16 +1362,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>186</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1405,7 +1420,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>167</v>
@@ -1535,7 +1550,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>168</v>
@@ -1587,7 +1602,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>170</v>
@@ -1613,7 +1628,7 @@
         <v>57</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>171</v>
@@ -1621,7 +1636,7 @@
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1636,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>36</v>
@@ -1665,10 +1680,10 @@
         <v>60</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1691,7 +1706,7 @@
         <v>58</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>159</v>
@@ -1717,7 +1732,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>156</v>
@@ -1821,7 +1836,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>172</v>
@@ -1951,7 +1966,7 @@
         <v>84</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>165</v>
@@ -2003,7 +2018,7 @@
         <v>89</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>174</v>
@@ -2011,7 +2026,7 @@
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -2023,16 +2038,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2063,7 +2078,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
@@ -2075,13 +2090,13 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>157</v>
@@ -2185,7 +2200,7 @@
         <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>173</v>
@@ -2257,13 +2272,13 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>169</v>
@@ -2315,7 +2330,7 @@
         <v>101</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>175</v>
@@ -2341,7 +2356,7 @@
         <v>103</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>176</v>
@@ -2367,7 +2382,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>157</v>
@@ -2523,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>177</v>
@@ -2549,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>178</v>
@@ -2601,7 +2616,7 @@
         <v>163</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>164</v>
@@ -2627,7 +2642,7 @@
         <v>26</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>179</v>
@@ -2653,7 +2668,7 @@
         <v>154</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>177</v>
@@ -2705,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>180</v>
@@ -2835,7 +2850,7 @@
         <v>123</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>181</v>
@@ -2861,7 +2876,7 @@
         <v>124</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>155</v>
@@ -2887,7 +2902,7 @@
         <v>127</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>182</v>
@@ -2913,7 +2928,7 @@
         <v>128</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>183</v>
@@ -2991,7 +3006,7 @@
         <v>132</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>183</v>
@@ -3095,7 +3110,7 @@
         <v>137</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>183</v>
@@ -3173,7 +3188,7 @@
         <v>144</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>157</v>
@@ -3251,7 +3266,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>184</v>
@@ -4267,88 +4282,88 @@
     <hyperlink ref="H27" r:id="rId79"/>
     <hyperlink ref="H30" r:id="rId80"/>
     <hyperlink ref="H32" r:id="rId81"/>
-    <hyperlink ref="H34" r:id="rId82"/>
-    <hyperlink ref="H35" r:id="rId83"/>
-    <hyperlink ref="H37" r:id="rId84"/>
-    <hyperlink ref="H38" r:id="rId85"/>
-    <hyperlink ref="H39" r:id="rId86"/>
-    <hyperlink ref="H42" r:id="rId87"/>
-    <hyperlink ref="H44" r:id="rId88"/>
-    <hyperlink ref="H48" r:id="rId89"/>
-    <hyperlink ref="H49" r:id="rId90"/>
-    <hyperlink ref="H50" r:id="rId91"/>
-    <hyperlink ref="H51" r:id="rId92"/>
-    <hyperlink ref="H52" r:id="rId93"/>
-    <hyperlink ref="H58" r:id="rId94"/>
-    <hyperlink ref="H59" r:id="rId95"/>
-    <hyperlink ref="H61" r:id="rId96"/>
-    <hyperlink ref="H62" r:id="rId97"/>
-    <hyperlink ref="H63" r:id="rId98"/>
-    <hyperlink ref="H83" r:id="rId99"/>
-    <hyperlink ref="H82" r:id="rId100"/>
-    <hyperlink ref="H80" r:id="rId101"/>
-    <hyperlink ref="H79" r:id="rId102"/>
-    <hyperlink ref="H77" r:id="rId103"/>
-    <hyperlink ref="H76" r:id="rId104"/>
-    <hyperlink ref="H74" r:id="rId105"/>
-    <hyperlink ref="H73" r:id="rId106"/>
-    <hyperlink ref="H72" r:id="rId107"/>
-    <hyperlink ref="H70" r:id="rId108"/>
-    <hyperlink ref="H69" r:id="rId109"/>
-    <hyperlink ref="H53" r:id="rId110"/>
-    <hyperlink ref="G26" r:id="rId111"/>
-    <hyperlink ref="G24" r:id="rId112"/>
-    <hyperlink ref="G23" r:id="rId113"/>
-    <hyperlink ref="G32" r:id="rId114"/>
-    <hyperlink ref="G34" r:id="rId115"/>
-    <hyperlink ref="G35" r:id="rId116"/>
-    <hyperlink ref="G37" r:id="rId117"/>
-    <hyperlink ref="G39" r:id="rId118"/>
-    <hyperlink ref="G42" r:id="rId119"/>
-    <hyperlink ref="G44" r:id="rId120"/>
-    <hyperlink ref="G30" r:id="rId121"/>
-    <hyperlink ref="G63" r:id="rId122"/>
-    <hyperlink ref="G69" r:id="rId123"/>
-    <hyperlink ref="G70" r:id="rId124"/>
-    <hyperlink ref="G72" r:id="rId125"/>
-    <hyperlink ref="G74" r:id="rId126"/>
-    <hyperlink ref="G76" r:id="rId127"/>
-    <hyperlink ref="G77" r:id="rId128"/>
-    <hyperlink ref="G79" r:id="rId129"/>
-    <hyperlink ref="G80" r:id="rId130"/>
-    <hyperlink ref="G82" r:id="rId131"/>
-    <hyperlink ref="G83" r:id="rId132"/>
-    <hyperlink ref="G28" r:id="rId133"/>
-    <hyperlink ref="H28" r:id="rId134"/>
-    <hyperlink ref="G41" r:id="rId135"/>
-    <hyperlink ref="H41" r:id="rId136"/>
-    <hyperlink ref="H19" r:id="rId137"/>
-    <hyperlink ref="H56" r:id="rId138"/>
-    <hyperlink ref="H54" r:id="rId139"/>
-    <hyperlink ref="H66" r:id="rId140"/>
-    <hyperlink ref="H78" r:id="rId141"/>
-    <hyperlink ref="H20" r:id="rId142"/>
-    <hyperlink ref="G50" r:id="rId143"/>
-    <hyperlink ref="G56" r:id="rId144"/>
-    <hyperlink ref="G48" r:id="rId145"/>
-    <hyperlink ref="G49" r:id="rId146"/>
-    <hyperlink ref="H8" r:id="rId147"/>
-    <hyperlink ref="G8" r:id="rId148"/>
-    <hyperlink ref="G33" r:id="rId149"/>
-    <hyperlink ref="G53" r:id="rId150"/>
-    <hyperlink ref="G57" r:id="rId151"/>
-    <hyperlink ref="H16" r:id="rId152"/>
-    <hyperlink ref="G16" r:id="rId153"/>
-    <hyperlink ref="G64" r:id="rId154"/>
-    <hyperlink ref="H64" r:id="rId155"/>
-    <hyperlink ref="H36" r:id="rId156"/>
-    <hyperlink ref="G36" r:id="rId157"/>
-    <hyperlink ref="H55" r:id="rId158"/>
-    <hyperlink ref="G55" r:id="rId159"/>
-    <hyperlink ref="G40" r:id="rId160"/>
-    <hyperlink ref="H40" r:id="rId161"/>
-    <hyperlink ref="H29" r:id="rId162"/>
-    <hyperlink ref="G29" r:id="rId163"/>
+    <hyperlink ref="H35" r:id="rId82"/>
+    <hyperlink ref="H37" r:id="rId83"/>
+    <hyperlink ref="H38" r:id="rId84"/>
+    <hyperlink ref="H39" r:id="rId85"/>
+    <hyperlink ref="H42" r:id="rId86"/>
+    <hyperlink ref="H44" r:id="rId87"/>
+    <hyperlink ref="H48" r:id="rId88"/>
+    <hyperlink ref="H49" r:id="rId89"/>
+    <hyperlink ref="H50" r:id="rId90"/>
+    <hyperlink ref="H51" r:id="rId91"/>
+    <hyperlink ref="H52" r:id="rId92"/>
+    <hyperlink ref="H58" r:id="rId93"/>
+    <hyperlink ref="H59" r:id="rId94"/>
+    <hyperlink ref="H61" r:id="rId95"/>
+    <hyperlink ref="H62" r:id="rId96"/>
+    <hyperlink ref="H63" r:id="rId97"/>
+    <hyperlink ref="H83" r:id="rId98"/>
+    <hyperlink ref="H82" r:id="rId99"/>
+    <hyperlink ref="H80" r:id="rId100"/>
+    <hyperlink ref="H79" r:id="rId101"/>
+    <hyperlink ref="H77" r:id="rId102"/>
+    <hyperlink ref="H76" r:id="rId103"/>
+    <hyperlink ref="H74" r:id="rId104"/>
+    <hyperlink ref="H73" r:id="rId105"/>
+    <hyperlink ref="H72" r:id="rId106"/>
+    <hyperlink ref="H70" r:id="rId107"/>
+    <hyperlink ref="H69" r:id="rId108"/>
+    <hyperlink ref="H53" r:id="rId109"/>
+    <hyperlink ref="G26" r:id="rId110"/>
+    <hyperlink ref="G24" r:id="rId111"/>
+    <hyperlink ref="G23" r:id="rId112"/>
+    <hyperlink ref="G32" r:id="rId113"/>
+    <hyperlink ref="G34" r:id="rId114"/>
+    <hyperlink ref="G35" r:id="rId115"/>
+    <hyperlink ref="G37" r:id="rId116"/>
+    <hyperlink ref="G39" r:id="rId117"/>
+    <hyperlink ref="G42" r:id="rId118"/>
+    <hyperlink ref="G44" r:id="rId119"/>
+    <hyperlink ref="G30" r:id="rId120"/>
+    <hyperlink ref="G63" r:id="rId121"/>
+    <hyperlink ref="G69" r:id="rId122"/>
+    <hyperlink ref="G70" r:id="rId123"/>
+    <hyperlink ref="G72" r:id="rId124"/>
+    <hyperlink ref="G74" r:id="rId125"/>
+    <hyperlink ref="G76" r:id="rId126"/>
+    <hyperlink ref="G77" r:id="rId127"/>
+    <hyperlink ref="G79" r:id="rId128"/>
+    <hyperlink ref="G80" r:id="rId129"/>
+    <hyperlink ref="G82" r:id="rId130"/>
+    <hyperlink ref="G83" r:id="rId131"/>
+    <hyperlink ref="G28" r:id="rId132"/>
+    <hyperlink ref="H28" r:id="rId133"/>
+    <hyperlink ref="G41" r:id="rId134"/>
+    <hyperlink ref="H41" r:id="rId135"/>
+    <hyperlink ref="H19" r:id="rId136"/>
+    <hyperlink ref="H56" r:id="rId137"/>
+    <hyperlink ref="H54" r:id="rId138"/>
+    <hyperlink ref="H66" r:id="rId139"/>
+    <hyperlink ref="H78" r:id="rId140"/>
+    <hyperlink ref="H20" r:id="rId141"/>
+    <hyperlink ref="G50" r:id="rId142"/>
+    <hyperlink ref="G56" r:id="rId143"/>
+    <hyperlink ref="G48" r:id="rId144"/>
+    <hyperlink ref="G49" r:id="rId145"/>
+    <hyperlink ref="H8" r:id="rId146"/>
+    <hyperlink ref="G8" r:id="rId147"/>
+    <hyperlink ref="G33" r:id="rId148"/>
+    <hyperlink ref="G53" r:id="rId149"/>
+    <hyperlink ref="G57" r:id="rId150"/>
+    <hyperlink ref="H16" r:id="rId151"/>
+    <hyperlink ref="G16" r:id="rId152"/>
+    <hyperlink ref="G64" r:id="rId153"/>
+    <hyperlink ref="H64" r:id="rId154"/>
+    <hyperlink ref="H36" r:id="rId155"/>
+    <hyperlink ref="G36" r:id="rId156"/>
+    <hyperlink ref="H55" r:id="rId157"/>
+    <hyperlink ref="G55" r:id="rId158"/>
+    <hyperlink ref="G40" r:id="rId159"/>
+    <hyperlink ref="H40" r:id="rId160"/>
+    <hyperlink ref="H29" r:id="rId161"/>
+    <hyperlink ref="G29" r:id="rId162"/>
+    <hyperlink ref="H34" r:id="rId163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -317,9 +317,6 @@
     <t>תכנית בענייני היום</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_5cd96bd8c2564bee8cabf43e75cd8e58~mv2.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">נבחרי השבוע </t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>תכנית חבקת עולם אלקטרונית בשיתוף רדיו אביזה</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_990be34b0ec34988a618b3079c7cbd53~mv2.png</t>
-  </si>
-  <si>
     <t>אינדי ספוט לייט</t>
   </si>
   <si>
@@ -715,9 +709,6 @@
     <t>בהגשת מורן חגי וניר גוטלב</t>
   </si>
   <si>
-    <t>https://static.wixstatic.com/media/c39cce_6a132aa30a5245f297737d41da84cafe~mv2.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">בהגשת יובל ענתבי </t>
   </si>
   <si>
@@ -725,6 +716,15 @@
   </si>
   <si>
     <t>https://www.radiosol.co.il/gotliv</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_5a3d94fcddd5452cb3cfec9c332a8862~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_bf2d6f96d0184832ad9d42e49e346135~mv2.png</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/c39cce_b4cc9e6e458540c6a84085600dae4fdb~mv2.png</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1215,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1241,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1264,10 +1264,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1293,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>36</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1345,12 +1345,12 @@
         <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1397,7 +1397,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1420,10 +1420,10 @@
         <v>75</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1475,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1501,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1550,10 +1550,10 @@
         <v>63</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1579,7 +1579,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1602,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1628,15 +1628,15 @@
         <v>57</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1674,16 +1674,16 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1706,10 +1706,10 @@
         <v>58</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1732,10 +1732,10 @@
         <v>59</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1761,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1787,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1813,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1836,10 +1836,10 @@
         <v>21</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1865,7 +1865,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1888,10 +1888,10 @@
         <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1917,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1943,7 +1943,7 @@
         <v>22</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1966,10 +1966,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1995,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2018,15 +2018,15 @@
         <v>89</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -2038,16 +2038,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E34" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>231</v>
-      </c>
       <c r="G34" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2073,12 +2073,12 @@
         <v>22</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
@@ -2090,16 +2090,16 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2125,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2151,7 +2151,7 @@
         <v>22</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2200,10 +2200,10 @@
         <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2229,12 +2229,12 @@
         <v>22</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="11">
         <v>3</v>
@@ -2255,7 +2255,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2272,16 +2272,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2307,12 +2307,12 @@
         <v>22</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
@@ -2324,21 +2324,21 @@
         <v>0.75</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="G45" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
@@ -2350,21 +2350,21 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="11">
         <v>3</v>
@@ -2379,13 +2379,13 @@
         <v>39</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2405,18 +2405,18 @@
         <v>39</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
@@ -2431,13 +2431,13 @@
         <v>39</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2463,7 +2463,7 @@
         <v>22</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2489,7 +2489,7 @@
         <v>22</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2515,7 +2515,7 @@
         <v>22</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2532,16 +2532,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2558,16 +2558,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2593,12 +2593,12 @@
         <v>22</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
@@ -2610,16 +2610,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="G56" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2636,21 +2636,21 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="11">
         <v>4</v>
@@ -2662,16 +2662,16 @@
         <v>0.75</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2697,7 +2697,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2714,16 +2714,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2749,7 +2749,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2775,12 +2775,12 @@
         <v>19</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="11">
         <v>5</v>
@@ -2795,13 +2795,13 @@
         <v>39</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2827,12 +2827,12 @@
         <v>19</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="11">
         <v>5</v>
@@ -2844,21 +2844,21 @@
         <v>0.5</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="11">
         <v>5</v>
@@ -2870,21 +2870,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="11">
         <v>5</v>
@@ -2896,21 +2896,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E67" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="G67" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="11">
         <v>5</v>
@@ -2922,16 +2922,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2957,12 +2957,12 @@
         <v>22</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="11">
         <v>5</v>
@@ -2977,18 +2977,18 @@
         <v>39</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="11">
         <v>5</v>
@@ -3000,21 +3000,21 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="11">
         <v>5</v>
@@ -3035,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -3061,12 +3061,12 @@
         <v>19</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -3081,18 +3081,18 @@
         <v>39</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3104,21 +3104,21 @@
         <v>0.5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -3130,21 +3130,21 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -3159,18 +3159,18 @@
         <v>39</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -3182,21 +3182,21 @@
         <v>0.75</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G78" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
@@ -3211,18 +3211,18 @@
         <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -3243,12 +3243,12 @@
         <v>22</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -3260,21 +3260,21 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="G81" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -3289,13 +3289,13 @@
         <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
         <v>22</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
